--- a/Analyses/main study/outputs/01_dataPreperation/final/networkIndicators_pre_final.xlsx
+++ b/Analyses/main study/outputs/01_dataPreperation/final/networkIndicators_pre_final.xlsx
@@ -1442,652 +1442,652 @@
     <t>dd5e233d-30ca-43f8-91e3-57347fe3cd09</t>
   </si>
   <si>
-    <t>643cff9260890a3b38e3130d</t>
-  </si>
-  <si>
-    <t>656606a373aba3beafcf538a</t>
-  </si>
-  <si>
-    <t>64f1dbf275e44ffd381b8985</t>
-  </si>
-  <si>
-    <t>646dc14e28531e7b267adb50</t>
-  </si>
-  <si>
-    <t>6441a254a387409ea3ef316b</t>
-  </si>
-  <si>
-    <t>5bbbdca68f3bd70001e713ef</t>
-  </si>
-  <si>
-    <t>653a743f3112ad79e0e9c2f3</t>
-  </si>
-  <si>
-    <t>651d020dba3016438d70773e</t>
-  </si>
-  <si>
-    <t>65216081309ddac9a26e5d3a</t>
-  </si>
-  <si>
-    <t>65270eab7c3eeb6fda130ee8</t>
-  </si>
-  <si>
-    <t>6516d8dd04d46519d544f6ae</t>
-  </si>
-  <si>
-    <t>6521568f62c55df10e59dc9a</t>
-  </si>
-  <si>
-    <t>656b4e172906db15e11ebce5</t>
-  </si>
-  <si>
-    <t>6557747cc5cd5cb46edfe6c6</t>
-  </si>
-  <si>
-    <t>6554d5f1a5b42aea269aa82a</t>
-  </si>
-  <si>
-    <t>6533fca6a20c492a2baf878e</t>
-  </si>
-  <si>
-    <t>6510335c6c5ba95f95c5af89</t>
-  </si>
-  <si>
-    <t>654baf4c709dd68c04a8b09a</t>
-  </si>
-  <si>
-    <t>65674ca014879b38a634b741</t>
-  </si>
-  <si>
-    <t>65413d7a889c08941364abb6</t>
-  </si>
-  <si>
-    <t>6505b19314eb42b422d59509</t>
-  </si>
-  <si>
-    <t>653fbb7899638eb02212c25b</t>
-  </si>
-  <si>
-    <t>64e220abe394efe48bfe28f8</t>
-  </si>
-  <si>
-    <t>6557923d4a9cc0c7d81cd60d</t>
-  </si>
-  <si>
-    <t>607079a28a504f214dfd77b8</t>
-  </si>
-  <si>
-    <t>6503144bcc000df7879d9637</t>
-  </si>
-  <si>
-    <t>6543cbb6e554d07ea95a1db8</t>
-  </si>
-  <si>
-    <t>6517299ba3d7cde45394692a</t>
-  </si>
-  <si>
-    <t>644ac0e41a2fabcf5d563f20</t>
-  </si>
-  <si>
-    <t>6554d26c5dae0f7aa6a24b19</t>
-  </si>
-  <si>
-    <t>5fff0b0bcbc37a5f5928ed26</t>
-  </si>
-  <si>
-    <t>651311510abdac9c5b9c6c4b</t>
-  </si>
-  <si>
-    <t>615416df060f5730a1d4e113</t>
-  </si>
-  <si>
-    <t>656e5185676b397a22189d00</t>
-  </si>
-  <si>
-    <t>65410ad762a7e3c570b6273c</t>
-  </si>
-  <si>
-    <t>6516d284e2e240661699806c</t>
-  </si>
-  <si>
-    <t>64fdee2b969a06603ae3226d</t>
-  </si>
-  <si>
-    <t>5f738b981a302b0d6d6405aa</t>
-  </si>
-  <si>
-    <t>65465caa5dcdb76a16d563b3</t>
-  </si>
-  <si>
-    <t>5dea808cce8d8d19f5424b21</t>
-  </si>
-  <si>
-    <t>65170df8def70fb50be8068e</t>
-  </si>
-  <si>
-    <t>63c0157fbc63b6511d336764</t>
-  </si>
-  <si>
-    <t>615452aaabb932ada88ef3ca</t>
-  </si>
-  <si>
-    <t>5e6a3e3d265930022e81c70b</t>
-  </si>
-  <si>
-    <t>6524e0ef44178670528207b7</t>
-  </si>
-  <si>
-    <t>6572deb3c978dbcde1a8106c</t>
-  </si>
-  <si>
-    <t>6516d540a78298897619e273</t>
-  </si>
-  <si>
-    <t>651f003609736cc7a85d4328</t>
-  </si>
-  <si>
-    <t>653916355709faa03524b0df</t>
-  </si>
-  <si>
-    <t>638e2654a069e9c741d21ce3</t>
-  </si>
-  <si>
-    <t>65391c7ecf65866247606910</t>
-  </si>
-  <si>
-    <t>65674761184f5501367c963d</t>
-  </si>
-  <si>
-    <t>631f3fde43831da4ae27754b</t>
-  </si>
-  <si>
-    <t>63eb7c1abdbdf911ec1201ab</t>
-  </si>
-  <si>
-    <t>6518e333bba544ebf169f41b</t>
-  </si>
-  <si>
-    <t>650c02a928518783a1b963fd</t>
-  </si>
-  <si>
-    <t>5be95af71ca46b0001862746</t>
-  </si>
-  <si>
-    <t>5b0a869f1e55760001b93fa3</t>
-  </si>
-  <si>
-    <t>654b4a0e936bc8d3c57bfbf0</t>
-  </si>
-  <si>
-    <t>65182c5a0cadd3291661b9e0</t>
-  </si>
-  <si>
-    <t>6526a2a40ce1608344c552bc</t>
-  </si>
-  <si>
-    <t>5be454621effe60001cbf290</t>
-  </si>
-  <si>
-    <t>6529483ef2abe408d574860a</t>
-  </si>
-  <si>
-    <t>64ef6d994d6b1f11074bdfcf</t>
-  </si>
-  <si>
-    <t>5d43c606773d8b00016eaa8a</t>
-  </si>
-  <si>
-    <t>60fe7985ba99343ad0b893b7</t>
-  </si>
-  <si>
-    <t>60513ec07ee46769ed029be4</t>
-  </si>
-  <si>
-    <t>6516d4259c30f249ac643d4b</t>
-  </si>
-  <si>
-    <t>6516d321ac5a66a7aef87507</t>
-  </si>
-  <si>
-    <t>6565f2ba13586fa869dd3b28</t>
-  </si>
-  <si>
-    <t>63c54053d14cc248d3bffebd</t>
-  </si>
-  <si>
-    <t>650c42b04e90f6c176d20f48</t>
-  </si>
-  <si>
-    <t>611ba1976cd48fdde1f9edd3</t>
-  </si>
-  <si>
-    <t>59a426b35fd74b0001abfa4f</t>
-  </si>
-  <si>
-    <t>5bf4033ff719c9000153d38e</t>
-  </si>
-  <si>
-    <t>6480b160d51d051b42f67b3d</t>
-  </si>
-  <si>
-    <t>5aad4225811b2000016f6ed1</t>
-  </si>
-  <si>
-    <t>5e9f28299286a70a21369a87</t>
-  </si>
-  <si>
-    <t>655f017761462616d393ed61</t>
-  </si>
-  <si>
-    <t>6458f51ce9dfaceaf66923b7</t>
-  </si>
-  <si>
-    <t>6568ad4a9ad5cefdb6e70dc7</t>
-  </si>
-  <si>
-    <t>6516f474d21c67a9a5bbb712</t>
-  </si>
-  <si>
-    <t>604d17eb4931a500d6e0a3d3</t>
-  </si>
-  <si>
-    <t>655906b1346b2b209cd19772</t>
-  </si>
-  <si>
-    <t>64369636de5954c6029e89b4</t>
-  </si>
-  <si>
-    <t>6519d311acb10856b9cff800</t>
-  </si>
-  <si>
-    <t>6571d06ee2f60c04ca775e78</t>
-  </si>
-  <si>
-    <t>653671ae2ac8d502b52b1bb3</t>
-  </si>
-  <si>
-    <t>60fd15295d6b2a3711cafbd2</t>
-  </si>
-  <si>
-    <t>651758fd2a0e6965260a89fc</t>
-  </si>
-  <si>
-    <t>6427068bce4fc1aa335ad025</t>
-  </si>
-  <si>
-    <t>5dd08cf019eecb169dc131ba</t>
-  </si>
-  <si>
-    <t>627bbf69ab2788507bc421a2</t>
-  </si>
-  <si>
-    <t>5ebe6e4a226f3b1c53cd0626</t>
-  </si>
-  <si>
-    <t>63d02bd28e37a2abe1006c61</t>
-  </si>
-  <si>
-    <t>652d1a0830b934d1643b80c5</t>
-  </si>
-  <si>
-    <t>6517e9bc213462dc2254bd24</t>
-  </si>
-  <si>
-    <t>650ff7a187874a12d765b5ef</t>
-  </si>
-  <si>
-    <t>65170d2924df1aca5e1b075b</t>
-  </si>
-  <si>
-    <t>6517283ed2294dbc8561979d</t>
-  </si>
-  <si>
-    <t>65367487f0d1c1607d3665c9</t>
-  </si>
-  <si>
-    <t>654e379c8578beb912aee2ff</t>
-  </si>
-  <si>
-    <t>6039b30f86b21c537bfb9448</t>
-  </si>
-  <si>
-    <t>656c50a4c053d63a280ad6d0</t>
-  </si>
-  <si>
-    <t>6536973604f263f3c70495bf</t>
-  </si>
-  <si>
-    <t>654a45fc528885d395cd5cab</t>
-  </si>
-  <si>
-    <t>5c9fd46cfd19090012b4ac8b</t>
-  </si>
-  <si>
-    <t>646219bb0b91a6f3327e39fb</t>
-  </si>
-  <si>
-    <t>6384d76e3da4c98dc29e390b</t>
-  </si>
-  <si>
-    <t>6521569041baced19add37bc</t>
-  </si>
-  <si>
-    <t>5da727bfc2a70a0011a128e0</t>
-  </si>
-  <si>
-    <t>5de81f0edb424d7965702d2d</t>
-  </si>
-  <si>
-    <t>64f1e6cd05138cd766340792</t>
-  </si>
-  <si>
-    <t>64fee13e6324ea4884bcc9db</t>
-  </si>
-  <si>
-    <t>6505c50f48dfd793a7787b8a</t>
-  </si>
-  <si>
-    <t>63eb38339e72d01818aeb71b</t>
-  </si>
-  <si>
-    <t>65313217ba43953a5e06fcae</t>
-  </si>
-  <si>
-    <t>6571e455af2e5eae9adea54a</t>
-  </si>
-  <si>
-    <t>6123c4f8e486767a57db9afe</t>
-  </si>
-  <si>
-    <t>650c2a3e5ae50ab8668448de</t>
-  </si>
-  <si>
-    <t>653d060aaf01dfc1443ad299</t>
-  </si>
-  <si>
-    <t>650a5cc55e8ddf8bae0b81fb</t>
-  </si>
-  <si>
-    <t>640b7f3428d986ad3da9ebcf</t>
-  </si>
-  <si>
-    <t>653bb9c18fa69d049372d45f</t>
-  </si>
-  <si>
-    <t>5ed0f0bb34177d0009582f38</t>
-  </si>
-  <si>
-    <t>604d26915c5dc2a98d18c7fd</t>
-  </si>
-  <si>
-    <t>5dd5855018beb6544df7f797</t>
-  </si>
-  <si>
-    <t>63c33a62f56571779a295a6f</t>
-  </si>
-  <si>
-    <t>653bbdbd990bb0039d427925</t>
-  </si>
-  <si>
-    <t>5f298b2b7823df0a46e25d81</t>
-  </si>
-  <si>
-    <t>6559eb6c636ef499cb5e1f85</t>
-  </si>
-  <si>
-    <t>653be644c2d5f2b6d285699e</t>
-  </si>
-  <si>
-    <t>5edc8e2eaa0f2295a0fcef85</t>
-  </si>
-  <si>
-    <t>646b607e88557c2ff4f0de85</t>
-  </si>
-  <si>
-    <t>5fb42f807e81960acbfdb22e</t>
-  </si>
-  <si>
-    <t>62ed054b4bf00da20ea22dc2</t>
-  </si>
-  <si>
-    <t>629756625dc7cf458e36151f</t>
-  </si>
-  <si>
-    <t>650455b9cde6207c1ebd732b</t>
-  </si>
-  <si>
-    <t>603a80b01bb75f608c3dbb0d</t>
-  </si>
-  <si>
-    <t>65410b3f1de864e712bb267d</t>
-  </si>
-  <si>
-    <t>62c42b020ddc9564f77e2e24</t>
-  </si>
-  <si>
-    <t>6053d1011605ac6f3164bc99</t>
-  </si>
-  <si>
-    <t>65170641ac562bb61fb8e647</t>
-  </si>
-  <si>
-    <t>652680aaf06124cc46807a30</t>
-  </si>
-  <si>
-    <t>655b4ea3ab2c763e739cb199</t>
-  </si>
-  <si>
-    <t>6525ab791fb0b3aaf866d7c7</t>
-  </si>
-  <si>
-    <t>591a1f4800a5650001276188</t>
-  </si>
-  <si>
-    <t>655c754ee949a617a358b8c5</t>
-  </si>
-  <si>
-    <t>6304a2502fbdd7626ed9c2ac</t>
-  </si>
-  <si>
-    <t>652fe4a08d5ecae18fc4fe31</t>
-  </si>
-  <si>
-    <t>6543aeb6dd91d965fc3df508</t>
-  </si>
-  <si>
-    <t>6536b3467fc9c8f7dbabcf51</t>
-  </si>
-  <si>
-    <t>653d07d22dd9d12c6e7b8082</t>
-  </si>
-  <si>
-    <t>6538ef6ac2e74e7d85a136ca</t>
-  </si>
-  <si>
-    <t>63b6be975097f6e31872fc0e</t>
-  </si>
-  <si>
-    <t>6544ea06d33e1704f993f76f</t>
-  </si>
-  <si>
-    <t>60207652caa62b6a34ff96dc</t>
-  </si>
-  <si>
-    <t>610905a730569ffea2fbdd0b</t>
-  </si>
-  <si>
-    <t>5a942689b5e2110001c67d93</t>
-  </si>
-  <si>
-    <t>645b8b2128bbb68d29778068</t>
-  </si>
-  <si>
-    <t>6516d3c10cc8996984d514f4</t>
-  </si>
-  <si>
-    <t>604b169fe4b7991ec08da3a6</t>
-  </si>
-  <si>
-    <t>6569ffc2439eb88f22d4e8bc</t>
-  </si>
-  <si>
-    <t>5fcf9f17f5a7c20ba38e9cc9</t>
-  </si>
-  <si>
-    <t>64ff13ded28d546281ffb6b5</t>
-  </si>
-  <si>
-    <t>6544fd5d0fb2eaaf83e2ddc9</t>
-  </si>
-  <si>
-    <t>63fd0b137e38c72ea19176aa</t>
-  </si>
-  <si>
-    <t>653a50254cd0995ce9fed45e</t>
-  </si>
-  <si>
-    <t>651ec655d2ef1a3ba8e64470</t>
-  </si>
-  <si>
-    <t>5a7fab56f49c9a0001f3549e</t>
-  </si>
-  <si>
-    <t>6554d1f1fda70c02063f51bd</t>
-  </si>
-  <si>
-    <t>6552628d0dfe6b458c390708</t>
-  </si>
-  <si>
-    <t>5b21646bdf28a7000166f4dc</t>
-  </si>
-  <si>
-    <t>6568ccd0468b7384e18af74b</t>
-  </si>
-  <si>
-    <t>6480b08b4e783b4c327cf4a8</t>
-  </si>
-  <si>
-    <t>6505e770a24e4561f219381e</t>
-  </si>
-  <si>
-    <t>653adf50c2b4d95715fa0383</t>
-  </si>
-  <si>
-    <t>63dfd4fb58435f30c7e5b04b</t>
-  </si>
-  <si>
-    <t>65526268c396c0c75dcefdf2</t>
-  </si>
-  <si>
-    <t>6560c1ff0b97f1d037b3c2dd</t>
-  </si>
-  <si>
-    <t>6521ac4e830108f7281e8644</t>
-  </si>
-  <si>
-    <t>606b94352e103bc54d43321b</t>
-  </si>
-  <si>
-    <t>64e74f0c7ba1863371602661</t>
-  </si>
-  <si>
-    <t>6532825749ca31d35c5cc482</t>
-  </si>
-  <si>
-    <t>63b87d2c9edd47ad702413a1</t>
-  </si>
-  <si>
-    <t>5f32d5f107d49607c3f6cf7a</t>
-  </si>
-  <si>
-    <t>6429682ff18d08f9eed7d9e7</t>
-  </si>
-  <si>
-    <t>643c243ff0ef4cb25c20a392</t>
-  </si>
-  <si>
-    <t>63cf5dcd6dbd0452632b58bb</t>
-  </si>
-  <si>
-    <t>617082143afa2b9f049f8b3b</t>
-  </si>
-  <si>
-    <t>647e2500ac34cb60b8e1348d</t>
-  </si>
-  <si>
-    <t>61574c44d4bd510e680f9d7a</t>
-  </si>
-  <si>
-    <t>6516ff4cda6f1e36fd05b1cc</t>
-  </si>
-  <si>
-    <t>5f4cde1cbfcaa81fc4dbf57d</t>
-  </si>
-  <si>
-    <t>6561ff666e87c03638f8fb11</t>
-  </si>
-  <si>
-    <t>64539733186ad1764e4c2b74</t>
-  </si>
-  <si>
-    <t>63cfbea470ab1bba9db30082</t>
-  </si>
-  <si>
-    <t>65034478b7a228b2bdfdca5c</t>
-  </si>
-  <si>
-    <t>6526b4db08c36959a00e69c4</t>
-  </si>
-  <si>
-    <t>6537d0d238ce085ea079c318</t>
-  </si>
-  <si>
-    <t>6570908f385d595d5df25c68</t>
-  </si>
-  <si>
-    <t>652156df21a8be7bb4c6f4e7</t>
-  </si>
-  <si>
-    <t>616b2d4ff5ffb8b86c08661b</t>
-  </si>
-  <si>
-    <t>65426792dac360c44e4908a7</t>
-  </si>
-  <si>
-    <t>65772f25af9bdd7c3ae47af5</t>
-  </si>
-  <si>
-    <t>652d2a7b11d97787933195c6</t>
-  </si>
-  <si>
-    <t>6516d85620c0017a8db27afc</t>
-  </si>
-  <si>
-    <t>654a76de0874380f590ca432</t>
-  </si>
-  <si>
-    <t>63eb514012c203a7a2146262</t>
-  </si>
-  <si>
-    <t>6046b9bf731b0611fe4d0159</t>
-  </si>
-  <si>
-    <t>5f5494aa76d6147f7ca89533</t>
-  </si>
-  <si>
-    <t>5e5fbff6de7bcc2fc7f396db</t>
-  </si>
-  <si>
-    <t>613b5e02f007dc6d30164fb3</t>
-  </si>
-  <si>
-    <t>64f1e17e5439f81a8eade6c2</t>
-  </si>
-  <si>
-    <t>5bceffb6a69cc50001d42ea5</t>
-  </si>
-  <si>
-    <t>60fd19bb0d1f1d54adccc4fa</t>
+    <t>643cff9260890a3b38e3130d_pre</t>
+  </si>
+  <si>
+    <t>656606a373aba3beafcf538a_pre</t>
+  </si>
+  <si>
+    <t>64f1dbf275e44ffd381b8985_pre</t>
+  </si>
+  <si>
+    <t>646dc14e28531e7b267adb50_pre</t>
+  </si>
+  <si>
+    <t>6441a254a387409ea3ef316b_pre</t>
+  </si>
+  <si>
+    <t>5bbbdca68f3bd70001e713ef_pre</t>
+  </si>
+  <si>
+    <t>653a743f3112ad79e0e9c2f3_pre</t>
+  </si>
+  <si>
+    <t>651d020dba3016438d70773e_pre</t>
+  </si>
+  <si>
+    <t>65216081309ddac9a26e5d3a_pre</t>
+  </si>
+  <si>
+    <t>65270eab7c3eeb6fda130ee8_pre</t>
+  </si>
+  <si>
+    <t>6516d8dd04d46519d544f6ae_pre</t>
+  </si>
+  <si>
+    <t>6521568f62c55df10e59dc9a_pre</t>
+  </si>
+  <si>
+    <t>656b4e172906db15e11ebce5_pre</t>
+  </si>
+  <si>
+    <t>6557747cc5cd5cb46edfe6c6_pre</t>
+  </si>
+  <si>
+    <t>6554d5f1a5b42aea269aa82a_pre</t>
+  </si>
+  <si>
+    <t>6533fca6a20c492a2baf878e_pre</t>
+  </si>
+  <si>
+    <t>6510335c6c5ba95f95c5af89_pre</t>
+  </si>
+  <si>
+    <t>654baf4c709dd68c04a8b09a_pre</t>
+  </si>
+  <si>
+    <t>65674ca014879b38a634b741_pre</t>
+  </si>
+  <si>
+    <t>65413d7a889c08941364abb6_pre</t>
+  </si>
+  <si>
+    <t>6505b19314eb42b422d59509_pre</t>
+  </si>
+  <si>
+    <t>653fbb7899638eb02212c25b_pre</t>
+  </si>
+  <si>
+    <t>64e220abe394efe48bfe28f8_pre</t>
+  </si>
+  <si>
+    <t>6557923d4a9cc0c7d81cd60d_pre</t>
+  </si>
+  <si>
+    <t>607079a28a504f214dfd77b8_pre</t>
+  </si>
+  <si>
+    <t>6503144bcc000df7879d9637_pre</t>
+  </si>
+  <si>
+    <t>6543cbb6e554d07ea95a1db8_pre</t>
+  </si>
+  <si>
+    <t>6517299ba3d7cde45394692a_pre</t>
+  </si>
+  <si>
+    <t>644ac0e41a2fabcf5d563f20_pre</t>
+  </si>
+  <si>
+    <t>6554d26c5dae0f7aa6a24b19_pre</t>
+  </si>
+  <si>
+    <t>5fff0b0bcbc37a5f5928ed26_pre</t>
+  </si>
+  <si>
+    <t>651311510abdac9c5b9c6c4b_pre</t>
+  </si>
+  <si>
+    <t>615416df060f5730a1d4e113_pre</t>
+  </si>
+  <si>
+    <t>656e5185676b397a22189d00_pre</t>
+  </si>
+  <si>
+    <t>65410ad762a7e3c570b6273c_pre</t>
+  </si>
+  <si>
+    <t>6516d284e2e240661699806c_pre</t>
+  </si>
+  <si>
+    <t>64fdee2b969a06603ae3226d_pre</t>
+  </si>
+  <si>
+    <t>5f738b981a302b0d6d6405aa_pre</t>
+  </si>
+  <si>
+    <t>65465caa5dcdb76a16d563b3_pre</t>
+  </si>
+  <si>
+    <t>5dea808cce8d8d19f5424b21_pre</t>
+  </si>
+  <si>
+    <t>65170df8def70fb50be8068e_pre</t>
+  </si>
+  <si>
+    <t>63c0157fbc63b6511d336764_pre</t>
+  </si>
+  <si>
+    <t>615452aaabb932ada88ef3ca_pre</t>
+  </si>
+  <si>
+    <t>5e6a3e3d265930022e81c70b_pre</t>
+  </si>
+  <si>
+    <t>6524e0ef44178670528207b7_pre</t>
+  </si>
+  <si>
+    <t>6572deb3c978dbcde1a8106c_pre</t>
+  </si>
+  <si>
+    <t>6516d540a78298897619e273_pre</t>
+  </si>
+  <si>
+    <t>651f003609736cc7a85d4328_pre</t>
+  </si>
+  <si>
+    <t>653916355709faa03524b0df_pre</t>
+  </si>
+  <si>
+    <t>638e2654a069e9c741d21ce3_pre</t>
+  </si>
+  <si>
+    <t>65391c7ecf65866247606910_pre</t>
+  </si>
+  <si>
+    <t>65674761184f5501367c963d_pre</t>
+  </si>
+  <si>
+    <t>631f3fde43831da4ae27754b_pre</t>
+  </si>
+  <si>
+    <t>63eb7c1abdbdf911ec1201ab_pre</t>
+  </si>
+  <si>
+    <t>6518e333bba544ebf169f41b_pre</t>
+  </si>
+  <si>
+    <t>650c02a928518783a1b963fd_pre</t>
+  </si>
+  <si>
+    <t>5be95af71ca46b0001862746_pre</t>
+  </si>
+  <si>
+    <t>5b0a869f1e55760001b93fa3_pre</t>
+  </si>
+  <si>
+    <t>654b4a0e936bc8d3c57bfbf0_pre</t>
+  </si>
+  <si>
+    <t>65182c5a0cadd3291661b9e0_pre</t>
+  </si>
+  <si>
+    <t>6526a2a40ce1608344c552bc_pre</t>
+  </si>
+  <si>
+    <t>5be454621effe60001cbf290_pre</t>
+  </si>
+  <si>
+    <t>6529483ef2abe408d574860a_pre</t>
+  </si>
+  <si>
+    <t>64ef6d994d6b1f11074bdfcf_pre</t>
+  </si>
+  <si>
+    <t>5d43c606773d8b00016eaa8a_pre</t>
+  </si>
+  <si>
+    <t>60fe7985ba99343ad0b893b7_pre</t>
+  </si>
+  <si>
+    <t>60513ec07ee46769ed029be4_pre</t>
+  </si>
+  <si>
+    <t>6516d4259c30f249ac643d4b_pre</t>
+  </si>
+  <si>
+    <t>6516d321ac5a66a7aef87507_pre</t>
+  </si>
+  <si>
+    <t>6565f2ba13586fa869dd3b28_pre</t>
+  </si>
+  <si>
+    <t>63c54053d14cc248d3bffebd_pre</t>
+  </si>
+  <si>
+    <t>650c42b04e90f6c176d20f48_pre</t>
+  </si>
+  <si>
+    <t>611ba1976cd48fdde1f9edd3_pre</t>
+  </si>
+  <si>
+    <t>59a426b35fd74b0001abfa4f_pre</t>
+  </si>
+  <si>
+    <t>5bf4033ff719c9000153d38e_pre</t>
+  </si>
+  <si>
+    <t>6480b160d51d051b42f67b3d_pre</t>
+  </si>
+  <si>
+    <t>5aad4225811b2000016f6ed1_pre</t>
+  </si>
+  <si>
+    <t>5e9f28299286a70a21369a87_pre</t>
+  </si>
+  <si>
+    <t>655f017761462616d393ed61_pre</t>
+  </si>
+  <si>
+    <t>6458f51ce9dfaceaf66923b7_pre</t>
+  </si>
+  <si>
+    <t>6568ad4a9ad5cefdb6e70dc7_pre</t>
+  </si>
+  <si>
+    <t>6516f474d21c67a9a5bbb712_pre</t>
+  </si>
+  <si>
+    <t>604d17eb4931a500d6e0a3d3_pre</t>
+  </si>
+  <si>
+    <t>655906b1346b2b209cd19772_pre</t>
+  </si>
+  <si>
+    <t>64369636de5954c6029e89b4_pre</t>
+  </si>
+  <si>
+    <t>6519d311acb10856b9cff800_pre</t>
+  </si>
+  <si>
+    <t>6571d06ee2f60c04ca775e78_pre</t>
+  </si>
+  <si>
+    <t>653671ae2ac8d502b52b1bb3_pre</t>
+  </si>
+  <si>
+    <t>60fd15295d6b2a3711cafbd2_pre</t>
+  </si>
+  <si>
+    <t>651758fd2a0e6965260a89fc_pre</t>
+  </si>
+  <si>
+    <t>6427068bce4fc1aa335ad025_pre</t>
+  </si>
+  <si>
+    <t>5dd08cf019eecb169dc131ba_pre</t>
+  </si>
+  <si>
+    <t>627bbf69ab2788507bc421a2_pre</t>
+  </si>
+  <si>
+    <t>5ebe6e4a226f3b1c53cd0626_pre</t>
+  </si>
+  <si>
+    <t>63d02bd28e37a2abe1006c61_pre</t>
+  </si>
+  <si>
+    <t>652d1a0830b934d1643b80c5_pre</t>
+  </si>
+  <si>
+    <t>6517e9bc213462dc2254bd24_pre</t>
+  </si>
+  <si>
+    <t>650ff7a187874a12d765b5ef_pre</t>
+  </si>
+  <si>
+    <t>65170d2924df1aca5e1b075b_pre</t>
+  </si>
+  <si>
+    <t>6517283ed2294dbc8561979d_pre</t>
+  </si>
+  <si>
+    <t>65367487f0d1c1607d3665c9_pre</t>
+  </si>
+  <si>
+    <t>654e379c8578beb912aee2ff_pre</t>
+  </si>
+  <si>
+    <t>6039b30f86b21c537bfb9448_pre</t>
+  </si>
+  <si>
+    <t>656c50a4c053d63a280ad6d0_pre</t>
+  </si>
+  <si>
+    <t>6536973604f263f3c70495bf_pre</t>
+  </si>
+  <si>
+    <t>654a45fc528885d395cd5cab_pre</t>
+  </si>
+  <si>
+    <t>5c9fd46cfd19090012b4ac8b_pre</t>
+  </si>
+  <si>
+    <t>646219bb0b91a6f3327e39fb_pre</t>
+  </si>
+  <si>
+    <t>6384d76e3da4c98dc29e390b_pre</t>
+  </si>
+  <si>
+    <t>6521569041baced19add37bc_pre</t>
+  </si>
+  <si>
+    <t>5da727bfc2a70a0011a128e0_pre</t>
+  </si>
+  <si>
+    <t>5de81f0edb424d7965702d2d_pre</t>
+  </si>
+  <si>
+    <t>64f1e6cd05138cd766340792_pre</t>
+  </si>
+  <si>
+    <t>64fee13e6324ea4884bcc9db_pre</t>
+  </si>
+  <si>
+    <t>6505c50f48dfd793a7787b8a_pre</t>
+  </si>
+  <si>
+    <t>63eb38339e72d01818aeb71b_pre</t>
+  </si>
+  <si>
+    <t>65313217ba43953a5e06fcae_pre</t>
+  </si>
+  <si>
+    <t>6571e455af2e5eae9adea54a_pre</t>
+  </si>
+  <si>
+    <t>6123c4f8e486767a57db9afe_pre</t>
+  </si>
+  <si>
+    <t>650c2a3e5ae50ab8668448de_pre</t>
+  </si>
+  <si>
+    <t>653d060aaf01dfc1443ad299_pre</t>
+  </si>
+  <si>
+    <t>650a5cc55e8ddf8bae0b81fb_pre</t>
+  </si>
+  <si>
+    <t>640b7f3428d986ad3da9ebcf_pre</t>
+  </si>
+  <si>
+    <t>653bb9c18fa69d049372d45f_pre</t>
+  </si>
+  <si>
+    <t>5ed0f0bb34177d0009582f38_pre</t>
+  </si>
+  <si>
+    <t>604d26915c5dc2a98d18c7fd_pre</t>
+  </si>
+  <si>
+    <t>5dd5855018beb6544df7f797_pre</t>
+  </si>
+  <si>
+    <t>63c33a62f56571779a295a6f_pre</t>
+  </si>
+  <si>
+    <t>653bbdbd990bb0039d427925_pre</t>
+  </si>
+  <si>
+    <t>5f298b2b7823df0a46e25d81_pre</t>
+  </si>
+  <si>
+    <t>6559eb6c636ef499cb5e1f85_pre</t>
+  </si>
+  <si>
+    <t>653be644c2d5f2b6d285699e_pre</t>
+  </si>
+  <si>
+    <t>5edc8e2eaa0f2295a0fcef85_pre</t>
+  </si>
+  <si>
+    <t>646b607e88557c2ff4f0de85_pre</t>
+  </si>
+  <si>
+    <t>5fb42f807e81960acbfdb22e_pre</t>
+  </si>
+  <si>
+    <t>62ed054b4bf00da20ea22dc2_pre</t>
+  </si>
+  <si>
+    <t>629756625dc7cf458e36151f_pre</t>
+  </si>
+  <si>
+    <t>650455b9cde6207c1ebd732b_pre</t>
+  </si>
+  <si>
+    <t>603a80b01bb75f608c3dbb0d_pre</t>
+  </si>
+  <si>
+    <t>65410b3f1de864e712bb267d_pre</t>
+  </si>
+  <si>
+    <t>62c42b020ddc9564f77e2e24_pre</t>
+  </si>
+  <si>
+    <t>6053d1011605ac6f3164bc99_pre</t>
+  </si>
+  <si>
+    <t>65170641ac562bb61fb8e647_pre</t>
+  </si>
+  <si>
+    <t>652680aaf06124cc46807a30_pre</t>
+  </si>
+  <si>
+    <t>655b4ea3ab2c763e739cb199_pre</t>
+  </si>
+  <si>
+    <t>6525ab791fb0b3aaf866d7c7_pre</t>
+  </si>
+  <si>
+    <t>591a1f4800a5650001276188_pre</t>
+  </si>
+  <si>
+    <t>655c754ee949a617a358b8c5_pre</t>
+  </si>
+  <si>
+    <t>6304a2502fbdd7626ed9c2ac_pre</t>
+  </si>
+  <si>
+    <t>652fe4a08d5ecae18fc4fe31_pre</t>
+  </si>
+  <si>
+    <t>6543aeb6dd91d965fc3df508_pre</t>
+  </si>
+  <si>
+    <t>6536b3467fc9c8f7dbabcf51_pre</t>
+  </si>
+  <si>
+    <t>653d07d22dd9d12c6e7b8082_pre</t>
+  </si>
+  <si>
+    <t>6538ef6ac2e74e7d85a136ca_pre</t>
+  </si>
+  <si>
+    <t>63b6be975097f6e31872fc0e_pre</t>
+  </si>
+  <si>
+    <t>6544ea06d33e1704f993f76f_pre</t>
+  </si>
+  <si>
+    <t>60207652caa62b6a34ff96dc_pre</t>
+  </si>
+  <si>
+    <t>610905a730569ffea2fbdd0b_pre</t>
+  </si>
+  <si>
+    <t>5a942689b5e2110001c67d93_pre</t>
+  </si>
+  <si>
+    <t>645b8b2128bbb68d29778068_pre</t>
+  </si>
+  <si>
+    <t>6516d3c10cc8996984d514f4_pre</t>
+  </si>
+  <si>
+    <t>604b169fe4b7991ec08da3a6_pre</t>
+  </si>
+  <si>
+    <t>6569ffc2439eb88f22d4e8bc_pre</t>
+  </si>
+  <si>
+    <t>5fcf9f17f5a7c20ba38e9cc9_pre</t>
+  </si>
+  <si>
+    <t>64ff13ded28d546281ffb6b5_pre</t>
+  </si>
+  <si>
+    <t>6544fd5d0fb2eaaf83e2ddc9_pre</t>
+  </si>
+  <si>
+    <t>63fd0b137e38c72ea19176aa_pre</t>
+  </si>
+  <si>
+    <t>653a50254cd0995ce9fed45e_pre</t>
+  </si>
+  <si>
+    <t>651ec655d2ef1a3ba8e64470_pre</t>
+  </si>
+  <si>
+    <t>5a7fab56f49c9a0001f3549e_pre</t>
+  </si>
+  <si>
+    <t>6554d1f1fda70c02063f51bd_pre</t>
+  </si>
+  <si>
+    <t>6552628d0dfe6b458c390708_pre</t>
+  </si>
+  <si>
+    <t>5b21646bdf28a7000166f4dc_pre</t>
+  </si>
+  <si>
+    <t>6568ccd0468b7384e18af74b_pre</t>
+  </si>
+  <si>
+    <t>6480b08b4e783b4c327cf4a8_pre</t>
+  </si>
+  <si>
+    <t>6505e770a24e4561f219381e_pre</t>
+  </si>
+  <si>
+    <t>653adf50c2b4d95715fa0383_pre</t>
+  </si>
+  <si>
+    <t>63dfd4fb58435f30c7e5b04b_pre</t>
+  </si>
+  <si>
+    <t>65526268c396c0c75dcefdf2_pre</t>
+  </si>
+  <si>
+    <t>6560c1ff0b97f1d037b3c2dd_pre</t>
+  </si>
+  <si>
+    <t>6521ac4e830108f7281e8644_pre</t>
+  </si>
+  <si>
+    <t>606b94352e103bc54d43321b_pre</t>
+  </si>
+  <si>
+    <t>64e74f0c7ba1863371602661_pre</t>
+  </si>
+  <si>
+    <t>6532825749ca31d35c5cc482_pre</t>
+  </si>
+  <si>
+    <t>63b87d2c9edd47ad702413a1_pre</t>
+  </si>
+  <si>
+    <t>5f32d5f107d49607c3f6cf7a_pre</t>
+  </si>
+  <si>
+    <t>6429682ff18d08f9eed7d9e7_pre</t>
+  </si>
+  <si>
+    <t>643c243ff0ef4cb25c20a392_pre</t>
+  </si>
+  <si>
+    <t>63cf5dcd6dbd0452632b58bb_pre</t>
+  </si>
+  <si>
+    <t>617082143afa2b9f049f8b3b_pre</t>
+  </si>
+  <si>
+    <t>647e2500ac34cb60b8e1348d_pre</t>
+  </si>
+  <si>
+    <t>61574c44d4bd510e680f9d7a_pre</t>
+  </si>
+  <si>
+    <t>6516ff4cda6f1e36fd05b1cc_pre</t>
+  </si>
+  <si>
+    <t>5f4cde1cbfcaa81fc4dbf57d_pre</t>
+  </si>
+  <si>
+    <t>6561ff666e87c03638f8fb11_pre</t>
+  </si>
+  <si>
+    <t>64539733186ad1764e4c2b74_pre</t>
+  </si>
+  <si>
+    <t>63cfbea470ab1bba9db30082_pre</t>
+  </si>
+  <si>
+    <t>65034478b7a228b2bdfdca5c_pre</t>
+  </si>
+  <si>
+    <t>6526b4db08c36959a00e69c4_pre</t>
+  </si>
+  <si>
+    <t>6537d0d238ce085ea079c318_pre</t>
+  </si>
+  <si>
+    <t>6570908f385d595d5df25c68_pre</t>
+  </si>
+  <si>
+    <t>652156df21a8be7bb4c6f4e7_pre</t>
+  </si>
+  <si>
+    <t>616b2d4ff5ffb8b86c08661b_pre</t>
+  </si>
+  <si>
+    <t>65426792dac360c44e4908a7_pre</t>
+  </si>
+  <si>
+    <t>65772f25af9bdd7c3ae47af5_pre</t>
+  </si>
+  <si>
+    <t>652d2a7b11d97787933195c6_pre</t>
+  </si>
+  <si>
+    <t>6516d85620c0017a8db27afc_pre</t>
+  </si>
+  <si>
+    <t>654a76de0874380f590ca432_pre</t>
+  </si>
+  <si>
+    <t>63eb514012c203a7a2146262_pre</t>
+  </si>
+  <si>
+    <t>6046b9bf731b0611fe4d0159_pre</t>
+  </si>
+  <si>
+    <t>5f5494aa76d6147f7ca89533_pre</t>
+  </si>
+  <si>
+    <t>5e5fbff6de7bcc2fc7f396db_pre</t>
+  </si>
+  <si>
+    <t>613b5e02f007dc6d30164fb3_pre</t>
+  </si>
+  <si>
+    <t>64f1e17e5439f81a8eade6c2_pre</t>
+  </si>
+  <si>
+    <t>5bceffb6a69cc50001d42ea5_pre</t>
+  </si>
+  <si>
+    <t>60fd19bb0d1f1d54adccc4fa_pre</t>
   </si>
 </sst>
 </file>
@@ -2359,7 +2359,7 @@
         <v>0.346153846153848</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.42351046698872785</v>
+        <v>-0.42351046698872846</v>
       </c>
       <c r="AD2"/>
       <c r="AE2" t="n">
@@ -2434,7 +2434,7 @@
         <v>0.5549242424242424</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6239337138699432</v>
+        <v>0.623933713869943</v>
       </c>
       <c r="L3" t="n">
         <v>1.4137931034482758</v>
@@ -2488,7 +2488,7 @@
         <v>-0.276995305164319</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.542677448337826</v>
+        <v>-0.5426774483378263</v>
       </c>
       <c r="AD3"/>
       <c r="AE3" t="n">
@@ -2563,7 +2563,7 @@
         <v>0.41983471074380163</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5123849057548832</v>
+        <v>0.5123849057548829</v>
       </c>
       <c r="L4" t="n">
         <v>5.5</v>
@@ -2617,7 +2617,7 @@
         <v>0.5693779904306233</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.6853932584269661</v>
+        <v>-0.6853932584269666</v>
       </c>
       <c r="AD4"/>
       <c r="AE4" t="n">
@@ -2692,7 +2692,7 @@
         <v>0.571969696969697</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5689883197538613</v>
+        <v>0.5689883197538611</v>
       </c>
       <c r="L5" t="n">
         <v>1.6956521739130435</v>
@@ -2821,7 +2821,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5876751203535703</v>
+        <v>0.5876751203535702</v>
       </c>
       <c r="L6" t="n">
         <v>1.0</v>
@@ -2875,7 +2875,7 @@
         <v>-0.837587006960557</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.9882491186839014</v>
+        <v>-0.9882491186839015</v>
       </c>
       <c r="AD6" t="n">
         <v>2.0</v>
@@ -3133,7 +3133,7 @@
         <v>0.19031141868512277</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.4810126582278478</v>
+        <v>-0.48101265822784856</v>
       </c>
       <c r="AD8"/>
       <c r="AE8" t="n">
@@ -3262,7 +3262,7 @@
         <v>0.06114398422090713</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.5974358974358973</v>
+        <v>-0.5974358974358971</v>
       </c>
       <c r="AD9"/>
       <c r="AE9" t="n">
@@ -3391,7 +3391,7 @@
         <v>-0.4545454545454547</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.875</v>
+        <v>-0.8749999999999998</v>
       </c>
       <c r="AD10"/>
       <c r="AE10" t="n">
@@ -3466,7 +3466,7 @@
         <v>0.5444444444444444</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5463907883734854</v>
+        <v>0.5463907883734856</v>
       </c>
       <c r="L11" t="n">
         <v>1.75</v>
@@ -3520,7 +3520,7 @@
         <v>-0.2499999999999994</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.9783197831978322</v>
+        <v>-0.9783197831978324</v>
       </c>
       <c r="AD11" t="n">
         <v>2.0</v>
@@ -3595,7 +3595,7 @@
         <v>0.39551357733175924</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5831410357625657</v>
+        <v>0.5831410357625655</v>
       </c>
       <c r="L12" t="n">
         <v>1.8333333333333333</v>
@@ -3649,7 +3649,7 @@
         <v>-0.22051282051282015</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.3122807017543855</v>
+        <v>-0.3122807017543858</v>
       </c>
       <c r="AD12" t="n">
         <v>2.0</v>
@@ -3724,7 +3724,7 @@
         <v>0.6045364891518737</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7089184579677151</v>
+        <v>0.7089184579677156</v>
       </c>
       <c r="L13" t="n">
         <v>3.3125</v>
@@ -3778,7 +3778,7 @@
         <v>-0.14035087719298253</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.7333333333333333</v>
+        <v>-0.7333333333333331</v>
       </c>
       <c r="AD13"/>
       <c r="AE13" t="n">
@@ -3853,7 +3853,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7503994041344021</v>
+        <v>0.7503994041344019</v>
       </c>
       <c r="L14" t="n">
         <v>2.5416666666666665</v>
@@ -3907,7 +3907,7 @@
         <v>0.822222222222221</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.9224489795918367</v>
+        <v>-0.9224489795918362</v>
       </c>
       <c r="AD14"/>
       <c r="AE14" t="n">
@@ -3982,7 +3982,7 @@
         <v>0.5957613814756672</v>
       </c>
       <c r="K15" t="n">
-        <v>0.648599735957307</v>
+        <v>0.6485997359573067</v>
       </c>
       <c r="L15" t="n">
         <v>2.3793103448275863</v>
@@ -4036,7 +4036,7 @@
         <v>-0.1965811965811966</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.5858407079646019</v>
+        <v>-0.5858407079646016</v>
       </c>
       <c r="AD15"/>
       <c r="AE15" t="n">
@@ -4111,7 +4111,7 @@
         <v>0.5088757396449705</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6666137163722712</v>
+        <v>0.6666137163722706</v>
       </c>
       <c r="L16" t="n">
         <v>1.380952380952381</v>
@@ -4165,7 +4165,7 @@
         <v>-0.16417910447761183</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.6124031007751938</v>
+        <v>-0.6124031007751946</v>
       </c>
       <c r="AD16"/>
       <c r="AE16" t="n">
@@ -4294,7 +4294,7 @@
         <v>-0.5319148936170214</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.7904509283819631</v>
+        <v>-0.7904509283819628</v>
       </c>
       <c r="AD17"/>
       <c r="AE17" t="n">
@@ -4369,7 +4369,7 @@
         <v>0.592382154882155</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6336532010599384</v>
+        <v>0.6336532010599382</v>
       </c>
       <c r="L18" t="n">
         <v>2.225</v>
@@ -4423,7 +4423,7 @@
         <v>-0.0680628272251309</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.26488095238095205</v>
+        <v>-0.26488095238095244</v>
       </c>
       <c r="AD18"/>
       <c r="AE18" t="n">
@@ -4498,7 +4498,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6589640700188709</v>
+        <v>0.6589640700188711</v>
       </c>
       <c r="L19" t="n">
         <v>1.4545454545454546</v>
@@ -4552,7 +4552,7 @@
         <v>-0.444444444444444</v>
       </c>
       <c r="AC19" t="n">
-        <v>-0.3408450704225352</v>
+        <v>-0.34084507042253465</v>
       </c>
       <c r="AD19"/>
       <c r="AE19" t="n">
@@ -4627,7 +4627,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7503994041344019</v>
+        <v>0.7503994041344021</v>
       </c>
       <c r="L20" t="n">
         <v>1.5</v>
@@ -4681,7 +4681,7 @@
         <v>-0.615384615384616</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.9224489795918367</v>
+        <v>-0.9224489795918362</v>
       </c>
       <c r="AD20" t="n">
         <v>2.0</v>
@@ -4756,7 +4756,7 @@
         <v>0.375</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5302559999458106</v>
+        <v>0.5302559999458109</v>
       </c>
       <c r="L21" t="n">
         <v>1.7435897435897436</v>
@@ -4810,7 +4810,7 @@
         <v>-0.34615384615384664</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.7342799188640976</v>
+        <v>-0.7342799188640978</v>
       </c>
       <c r="AD21"/>
       <c r="AE21" t="n">
@@ -4885,7 +4885,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5876751203535704</v>
+        <v>0.5876751203535707</v>
       </c>
       <c r="L22" t="n">
         <v>1.5</v>
@@ -4939,7 +4939,7 @@
         <v>-0.4412532637075718</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.9882491186839014</v>
+        <v>-0.9882491186839015</v>
       </c>
       <c r="AD22"/>
       <c r="AE22" t="n">
@@ -5014,7 +5014,7 @@
         <v>0.6306818181818182</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7150518630750038</v>
+        <v>0.7150518630750041</v>
       </c>
       <c r="L23" t="n">
         <v>1.6111111111111112</v>
@@ -5068,7 +5068,7 @@
         <v>-0.4655647382920098</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.8047223994894707</v>
+        <v>-0.8047223994894696</v>
       </c>
       <c r="AD23"/>
       <c r="AE23" t="n">
@@ -5143,7 +5143,7 @@
         <v>0.47603305785123967</v>
       </c>
       <c r="K24" t="n">
-        <v>0.569856181251246</v>
+        <v>0.5698561812512465</v>
       </c>
       <c r="L24" t="n">
         <v>2.1379310344827585</v>
@@ -5197,7 +5197,7 @@
         <v>-0.019271948608136375</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.32222222222222185</v>
+        <v>-0.32222222222222346</v>
       </c>
       <c r="AD24"/>
       <c r="AE24" t="n">
@@ -5272,7 +5272,7 @@
         <v>0.5505050505050505</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6969774225128945</v>
+        <v>0.6969774225128943</v>
       </c>
       <c r="L25" t="n">
         <v>2.3333333333333335</v>
@@ -5326,7 +5326,7 @@
         <v>-0.08108108108108118</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.33704735376044553</v>
+        <v>-0.33704735376044476</v>
       </c>
       <c r="AD25"/>
       <c r="AE25" t="n">
@@ -5401,7 +5401,7 @@
         <v>0.5444444444444444</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5463907883734856</v>
+        <v>0.5463907883734855</v>
       </c>
       <c r="L26" t="n">
         <v>2.25</v>
@@ -5455,7 +5455,7 @@
         <v>-0.46718146718146786</v>
       </c>
       <c r="AC26" t="n">
-        <v>-0.9783197831978322</v>
+        <v>-0.9783197831978324</v>
       </c>
       <c r="AD26"/>
       <c r="AE26" t="n">
@@ -5530,7 +5530,7 @@
         <v>0.4780319535221496</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7790594869655472</v>
+        <v>0.7790594869655474</v>
       </c>
       <c r="L27" t="n">
         <v>1.3548387096774193</v>
@@ -5659,7 +5659,7 @@
         <v>0.5170454545454546</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5975282977967517</v>
+        <v>0.5975282977967518</v>
       </c>
       <c r="L28" t="n">
         <v>2.739130434782609</v>
@@ -5713,7 +5713,7 @@
         <v>-0.34615384615384603</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.9844660194174759</v>
+        <v>-0.9844660194174761</v>
       </c>
       <c r="AD28" t="n">
         <v>2.0</v>
@@ -5788,7 +5788,7 @@
         <v>0.5955555555555555</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6557866581553319</v>
+        <v>0.6557866581553323</v>
       </c>
       <c r="L29" t="n">
         <v>1.3846153846153846</v>
@@ -5842,7 +5842,7 @@
         <v>-0.40740740740740733</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.7600000000000005</v>
+        <v>-0.7600000000000006</v>
       </c>
       <c r="AD29"/>
       <c r="AE29" t="n">
@@ -5917,7 +5917,7 @@
         <v>0.6883830455259027</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7670059672747956</v>
+        <v>0.7670059672747958</v>
       </c>
       <c r="L30" t="n">
         <v>1.4615384615384615</v>
@@ -5971,7 +5971,7 @@
         <v>0.505300353356888</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.9444444444444444</v>
+        <v>-0.9444444444444448</v>
       </c>
       <c r="AD30" t="n">
         <v>2.0</v>
@@ -6046,7 +6046,7 @@
         <v>0.5669191919191919</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6860648098775033</v>
+        <v>0.6860648098775027</v>
       </c>
       <c r="L31" t="n">
         <v>1.619047619047619</v>
@@ -6175,7 +6175,7 @@
         <v>0.540495867768595</v>
       </c>
       <c r="K32" t="n">
-        <v>0.5879745215473358</v>
+        <v>0.587974521547336</v>
       </c>
       <c r="L32" t="n">
         <v>1.6521739130434783</v>
@@ -6229,7 +6229,7 @@
         <v>-0.27272727272727293</v>
       </c>
       <c r="AC32" t="n">
-        <v>-0.6176470588235299</v>
+        <v>-0.617647058823529</v>
       </c>
       <c r="AD32" t="n">
         <v>3.0</v>
@@ -6304,7 +6304,7 @@
         <v>0.5642105263157895</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7344728262044621</v>
+        <v>0.7344728262044616</v>
       </c>
       <c r="L33" t="n">
         <v>2.0821917808219177</v>
@@ -6358,7 +6358,7 @@
         <v>0.6477219351808365</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.2987012987012986</v>
+        <v>-0.29870129870129813</v>
       </c>
       <c r="AD33" t="n">
         <v>2.0</v>
@@ -6433,7 +6433,7 @@
         <v>0.31630892255892257</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5537677899801897</v>
+        <v>0.5537677899801902</v>
       </c>
       <c r="L34" t="n">
         <v>7.02970297029703</v>
@@ -6487,7 +6487,7 @@
         <v>-0.008403361344535882</v>
       </c>
       <c r="AC34" t="n">
-        <v>-0.3680000000000003</v>
+        <v>-0.36799999999999894</v>
       </c>
       <c r="AD34"/>
       <c r="AE34" t="n">
@@ -6562,7 +6562,7 @@
         <v>0.6743079584775087</v>
       </c>
       <c r="K35" t="n">
-        <v>0.7165282052231965</v>
+        <v>0.7165282052231963</v>
       </c>
       <c r="L35" t="n">
         <v>3.311111111111111</v>
@@ -6616,7 +6616,7 @@
         <v>0.2735042735042735</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.38727524204702624</v>
+        <v>-0.38727524204702696</v>
       </c>
       <c r="AD35"/>
       <c r="AE35" t="n">
@@ -6691,7 +6691,7 @@
         <v>0.5707166179755971</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7706074640207384</v>
+        <v>0.7706074640207362</v>
       </c>
       <c r="L36" t="n">
         <v>1.7878787878787878</v>
@@ -6745,7 +6745,7 @@
         <v>0.39964264443120867</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.861880133860663</v>
+        <v>-0.8618801338606629</v>
       </c>
       <c r="AD36"/>
       <c r="AE36" t="n">
@@ -6820,7 +6820,7 @@
         <v>0.5149136577708007</v>
       </c>
       <c r="K37" t="n">
-        <v>0.6151762894188576</v>
+        <v>0.6151762894188575</v>
       </c>
       <c r="L37" t="n">
         <v>1.434782608695652</v>
@@ -6874,7 +6874,7 @@
         <v>-0.14754098360655651</v>
       </c>
       <c r="AC37" t="n">
-        <v>-0.5555555555555556</v>
+        <v>-0.5555555555555546</v>
       </c>
       <c r="AD37"/>
       <c r="AE37" t="n">
@@ -6949,7 +6949,7 @@
         <v>0.48148148148148145</v>
       </c>
       <c r="K38" t="n">
-        <v>0.527544408738466</v>
+        <v>0.5275444087384661</v>
       </c>
       <c r="L38" t="n">
         <v>1.3</v>
@@ -7003,7 +7003,7 @@
         <v>-0.36986301369863045</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.9642857142857149</v>
+        <v>-0.9642857142857155</v>
       </c>
       <c r="AD38" t="n">
         <v>2.0</v>
@@ -7078,7 +7078,7 @@
         <v>0.7247474747474747</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7092774324386929</v>
+        <v>0.709277432438693</v>
       </c>
       <c r="L39" t="n">
         <v>2.8947368421052633</v>
@@ -7132,7 +7132,7 @@
         <v>-0.521276595744681</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.828125</v>
+        <v>-0.8281250000000003</v>
       </c>
       <c r="AD39"/>
       <c r="AE39" t="n">
@@ -7261,7 +7261,7 @@
         <v>-0.5423728813559318</v>
       </c>
       <c r="AC40" t="n">
-        <v>-0.9929119905493207</v>
+        <v>-0.9929119905493199</v>
       </c>
       <c r="AD40"/>
       <c r="AE40" t="n">
@@ -7390,7 +7390,7 @@
         <v>0.6271637816245006</v>
       </c>
       <c r="AC41" t="n">
-        <v>-0.25730994152046804</v>
+        <v>-0.25730994152046677</v>
       </c>
       <c r="AD41"/>
       <c r="AE41" t="n">
@@ -7465,7 +7465,7 @@
         <v>0.5688888888888889</v>
       </c>
       <c r="K42" t="n">
-        <v>0.6680090650144592</v>
+        <v>0.6680090650144591</v>
       </c>
       <c r="L42" t="n">
         <v>2.1875</v>
@@ -7519,7 +7519,7 @@
         <v>0.11392405063291171</v>
       </c>
       <c r="AC42" t="n">
-        <v>-0.3513513513513516</v>
+        <v>-0.35135135135134987</v>
       </c>
       <c r="AD42"/>
       <c r="AE42" t="n">
@@ -7594,7 +7594,7 @@
         <v>0.15222222222222223</v>
       </c>
       <c r="K43" t="n">
-        <v>0.36002364913831847</v>
+        <v>0.3600236491383182</v>
       </c>
       <c r="L43" t="n">
         <v>3.688888888888889</v>
@@ -7648,7 +7648,7 @@
         <v>-0.13873473917869042</v>
       </c>
       <c r="AC43" t="n">
-        <v>-0.3571428571428559</v>
+        <v>-0.3571428571428544</v>
       </c>
       <c r="AD43" t="n">
         <v>4.0</v>
@@ -7723,7 +7723,7 @@
         <v>0.6679292929292929</v>
       </c>
       <c r="K44" t="n">
-        <v>0.7292701713218203</v>
+        <v>0.7292701713218204</v>
       </c>
       <c r="L44" t="n">
         <v>1.2777777777777777</v>
@@ -7777,7 +7777,7 @@
         <v>0.3779904306220097</v>
       </c>
       <c r="AC44" t="n">
-        <v>-0.6549413735343389</v>
+        <v>-0.6549413735343385</v>
       </c>
       <c r="AD44"/>
       <c r="AE44" t="n">
@@ -7852,7 +7852,7 @@
         <v>0.5305785123966942</v>
       </c>
       <c r="K45" t="n">
-        <v>0.6239577903951072</v>
+        <v>0.6239577903951071</v>
       </c>
       <c r="L45" t="n">
         <v>4.086956521739131</v>
@@ -7981,7 +7981,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5876751203535704</v>
+        <v>0.5876751203535705</v>
       </c>
       <c r="L46" t="n">
         <v>1.8823529411764706</v>
@@ -8035,7 +8035,7 @@
         <v>-0.6000000000000001</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.9882491186839014</v>
+        <v>-0.9882491186839015</v>
       </c>
       <c r="AD46" t="n">
         <v>2.0</v>
@@ -8110,7 +8110,7 @@
         <v>0.6232741617357002</v>
       </c>
       <c r="K47" t="n">
-        <v>0.7124784733822332</v>
+        <v>0.7124784733822337</v>
       </c>
       <c r="L47" t="n">
         <v>1.4090909090909092</v>
@@ -8164,7 +8164,7 @@
         <v>-0.3769470404984427</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.6056547619047619</v>
+        <v>-0.6056547619047618</v>
       </c>
       <c r="AD47"/>
       <c r="AE47" t="n">
@@ -8368,7 +8368,7 @@
         <v>0.5542406311637081</v>
       </c>
       <c r="K49" t="n">
-        <v>0.5814868443938437</v>
+        <v>0.5814868443938439</v>
       </c>
       <c r="L49" t="n">
         <v>2.6666666666666665</v>
@@ -8551,7 +8551,7 @@
         <v>-0.590361445783132</v>
       </c>
       <c r="AC50" t="n">
-        <v>-0.9224489795918367</v>
+        <v>-0.9224489795918362</v>
       </c>
       <c r="AD50"/>
       <c r="AE50" t="n">
@@ -8626,7 +8626,7 @@
         <v>0.3952020202020202</v>
       </c>
       <c r="K51" t="n">
-        <v>0.6741270607693666</v>
+        <v>0.6741270607693665</v>
       </c>
       <c r="L51" t="n">
         <v>2.840909090909091</v>
@@ -8680,7 +8680,7 @@
         <v>0.05691056910569063</v>
       </c>
       <c r="AC51" t="n">
-        <v>-0.48429319371727647</v>
+        <v>-0.484293193717277</v>
       </c>
       <c r="AD51"/>
       <c r="AE51" t="n">
@@ -8755,7 +8755,7 @@
         <v>0.427651515151515</v>
       </c>
       <c r="K52" t="n">
-        <v>0.5779846603424768</v>
+        <v>0.577984660342477</v>
       </c>
       <c r="L52" t="n">
         <v>2.761904761904762</v>
@@ -8809,7 +8809,7 @@
         <v>-0.12087912087912274</v>
       </c>
       <c r="AC52" t="n">
-        <v>-0.7346938775510204</v>
+        <v>-0.7346938775510192</v>
       </c>
       <c r="AD52" t="n">
         <v>2.0</v>
@@ -8938,7 +8938,7 @@
         <v>0.06382978723404263</v>
       </c>
       <c r="AC53" t="n">
-        <v>-0.3139356814701384</v>
+        <v>-0.31393568147013884</v>
       </c>
       <c r="AD53"/>
       <c r="AE53" t="n">
@@ -9067,7 +9067,7 @@
         <v>-0.615384615384616</v>
       </c>
       <c r="AC54" t="n">
-        <v>-0.9224489795918367</v>
+        <v>-0.9224489795918362</v>
       </c>
       <c r="AD54" t="n">
         <v>2.0</v>
@@ -9142,7 +9142,7 @@
         <v>0.3685950413223141</v>
       </c>
       <c r="K55" t="n">
-        <v>0.46634927952018695</v>
+        <v>0.46634927952018634</v>
       </c>
       <c r="L55" t="n">
         <v>3.4074074074074074</v>
@@ -9196,7 +9196,7 @@
         <v>0.0</v>
       </c>
       <c r="AC55" t="n">
-        <v>-0.38670694864048283</v>
+        <v>-0.3867069486404831</v>
       </c>
       <c r="AD55"/>
       <c r="AE55" t="n">
@@ -9271,7 +9271,7 @@
         <v>0.48444444444444446</v>
       </c>
       <c r="K56" t="n">
-        <v>0.5361560968173988</v>
+        <v>0.5361560968173985</v>
       </c>
       <c r="L56" t="n">
         <v>4.0</v>
@@ -9325,7 +9325,7 @@
         <v>-0.09090909090909091</v>
       </c>
       <c r="AC56" t="n">
-        <v>-0.6363636363636365</v>
+        <v>-0.6363636363636361</v>
       </c>
       <c r="AD56"/>
       <c r="AE56" t="n">
@@ -9400,7 +9400,7 @@
         <v>0.5207100591715976</v>
       </c>
       <c r="K57" t="n">
-        <v>0.7319858598225935</v>
+        <v>0.7319858598225933</v>
       </c>
       <c r="L57" t="n">
         <v>1.4705882352941178</v>
@@ -9454,7 +9454,7 @@
         <v>-0.5958549222797926</v>
       </c>
       <c r="AC57" t="n">
-        <v>-0.6438709677419356</v>
+        <v>-0.6438709677419358</v>
       </c>
       <c r="AD57" t="n">
         <v>3.0</v>
@@ -9529,7 +9529,7 @@
         <v>0.5435606060606061</v>
       </c>
       <c r="K58" t="n">
-        <v>0.5000659719012392</v>
+        <v>0.5000659719012398</v>
       </c>
       <c r="L58" t="n">
         <v>2.1142857142857143</v>
@@ -9658,7 +9658,7 @@
         <v>0.5444444444444444</v>
       </c>
       <c r="K59" t="n">
-        <v>0.5463907883734858</v>
+        <v>0.5463907883734855</v>
       </c>
       <c r="L59" t="n">
         <v>2.6666666666666665</v>
@@ -9712,7 +9712,7 @@
         <v>-0.5625000000000008</v>
       </c>
       <c r="AC59" t="n">
-        <v>-0.9783197831978322</v>
+        <v>-0.9783197831978324</v>
       </c>
       <c r="AD59"/>
       <c r="AE59" t="n">
@@ -9841,7 +9841,7 @@
         <v>-0.590361445783132</v>
       </c>
       <c r="AC60" t="n">
-        <v>-0.9224489795918367</v>
+        <v>-0.9224489795918362</v>
       </c>
       <c r="AD60"/>
       <c r="AE60" t="n">
@@ -9916,7 +9916,7 @@
         <v>0.7311616954474097</v>
       </c>
       <c r="K61" t="n">
-        <v>0.7783152414918428</v>
+        <v>0.7783152414918431</v>
       </c>
       <c r="L61" t="n">
         <v>2.2</v>
@@ -9970,7 +9970,7 @@
         <v>-0.24165554072096104</v>
       </c>
       <c r="AC61" t="n">
-        <v>-0.4317573595004461</v>
+        <v>-0.4317573595004459</v>
       </c>
       <c r="AD61" t="n">
         <v>2.0</v>
@@ -10045,7 +10045,7 @@
         <v>0.47008547008547</v>
       </c>
       <c r="K62" t="n">
-        <v>0.6940693357949076</v>
+        <v>0.6940693357949077</v>
       </c>
       <c r="L62" t="n">
         <v>1.6</v>
@@ -10228,7 +10228,7 @@
         <v>-0.6470588235294116</v>
       </c>
       <c r="AC63" t="n">
-        <v>-0.7723132969034613</v>
+        <v>-0.772313296903461</v>
       </c>
       <c r="AD63"/>
       <c r="AE63" t="n">
@@ -10303,7 +10303,7 @@
         <v>0.41792929292929293</v>
       </c>
       <c r="K64" t="n">
-        <v>0.50119246234378</v>
+        <v>0.5011924623437799</v>
       </c>
       <c r="L64" t="n">
         <v>2.05</v>
@@ -10357,7 +10357,7 @@
         <v>0.10179640718562863</v>
       </c>
       <c r="AC64" t="n">
-        <v>-0.35483870967742015</v>
+        <v>-0.35483870967741926</v>
       </c>
       <c r="AD64" t="n">
         <v>3.0</v>
@@ -10432,7 +10432,7 @@
         <v>0.6711111111111111</v>
       </c>
       <c r="K65" t="n">
-        <v>0.7291671489030338</v>
+        <v>0.7291671489030339</v>
       </c>
       <c r="L65" t="n">
         <v>2.1</v>
@@ -10486,7 +10486,7 @@
         <v>0.7979797979797977</v>
       </c>
       <c r="AC65" t="n">
-        <v>-0.8859649122807021</v>
+        <v>-0.8859649122807024</v>
       </c>
       <c r="AD65"/>
       <c r="AE65" t="n">
@@ -10615,7 +10615,7 @@
         <v>-0.27868852459016447</v>
       </c>
       <c r="AC66" t="n">
-        <v>-0.8232468780019213</v>
+        <v>-0.8232468780019212</v>
       </c>
       <c r="AD66"/>
       <c r="AE66" t="n">
@@ -10690,7 +10690,7 @@
         <v>0.4190778533635676</v>
       </c>
       <c r="K67" t="n">
-        <v>0.6431167773064627</v>
+        <v>0.6431167773064648</v>
       </c>
       <c r="L67" t="n">
         <v>5.260416666666667</v>
@@ -10744,7 +10744,7 @@
         <v>0.6446837146702554</v>
       </c>
       <c r="AC67" t="n">
-        <v>-0.2972322503008419</v>
+        <v>-0.29723225030084066</v>
       </c>
       <c r="AD67"/>
       <c r="AE67" t="n">
@@ -10819,7 +10819,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K68" t="n">
-        <v>0.5876751203535702</v>
+        <v>0.5876751203535705</v>
       </c>
       <c r="L68" t="n">
         <v>1.8235294117647058</v>
@@ -10873,7 +10873,7 @@
         <v>0.4805194805194794</v>
       </c>
       <c r="AC68" t="n">
-        <v>-0.9882491186839014</v>
+        <v>-0.9882491186839015</v>
       </c>
       <c r="AD68" t="n">
         <v>2.0</v>
@@ -10948,7 +10948,7 @@
         <v>0.5443786982248521</v>
       </c>
       <c r="K69" t="n">
-        <v>0.5941641498719119</v>
+        <v>0.5941641498719121</v>
       </c>
       <c r="L69" t="n">
         <v>1.4285714285714286</v>
@@ -11077,7 +11077,7 @@
         <v>0.6088888888888889</v>
       </c>
       <c r="K70" t="n">
-        <v>0.6533878071413063</v>
+        <v>0.6533878071413061</v>
       </c>
       <c r="L70" t="n">
         <v>1.1666666666666667</v>
@@ -11131,7 +11131,7 @@
         <v>-0.2908777969018933</v>
       </c>
       <c r="AC70" t="n">
-        <v>-0.6767764298093584</v>
+        <v>-0.6767764298093587</v>
       </c>
       <c r="AD70" t="n">
         <v>2.0</v>
@@ -11206,7 +11206,7 @@
         <v>0.5119949494949495</v>
       </c>
       <c r="K71" t="n">
-        <v>0.7072557308151463</v>
+        <v>0.7072557308151466</v>
       </c>
       <c r="L71" t="n">
         <v>2.138888888888889</v>
@@ -11335,7 +11335,7 @@
         <v>0.3380801209372638</v>
       </c>
       <c r="K72" t="n">
-        <v>0.5993148357115514</v>
+        <v>0.5993148357115518</v>
       </c>
       <c r="L72" t="n">
         <v>3.3255813953488373</v>
@@ -11389,7 +11389,7 @@
         <v>0.08814589665653526</v>
       </c>
       <c r="AC72" t="n">
-        <v>-0.8014613252708491</v>
+        <v>-0.8014613252708486</v>
       </c>
       <c r="AD72"/>
       <c r="AE72" t="n">
@@ -11464,7 +11464,7 @@
         <v>0.6607495069033531</v>
       </c>
       <c r="K73" t="n">
-        <v>0.6834720486951733</v>
+        <v>0.683472048695173</v>
       </c>
       <c r="L73" t="n">
         <v>1.6956521739130435</v>
@@ -11518,7 +11518,7 @@
         <v>-0.40334128878281694</v>
       </c>
       <c r="AC73" t="n">
-        <v>-0.5033557046979867</v>
+        <v>-0.5033557046979854</v>
       </c>
       <c r="AD73"/>
       <c r="AE73" t="n">
@@ -11593,7 +11593,7 @@
         <v>0.5309343434343434</v>
       </c>
       <c r="K74" t="n">
-        <v>0.6724191809139025</v>
+        <v>0.6724191809139017</v>
       </c>
       <c r="L74" t="n">
         <v>3.2790697674418605</v>
@@ -11647,7 +11647,7 @@
         <v>0.6267190569744598</v>
       </c>
       <c r="AC74" t="n">
-        <v>-0.5774253731343291</v>
+        <v>-0.5774253731343288</v>
       </c>
       <c r="AD74" t="n">
         <v>2.0</v>
@@ -11722,7 +11722,7 @@
         <v>0.5151515151515151</v>
       </c>
       <c r="K75" t="n">
-        <v>0.7204348544233165</v>
+        <v>0.7204348544233162</v>
       </c>
       <c r="L75" t="n">
         <v>3.217391304347826</v>
@@ -11776,7 +11776,7 @@
         <v>-0.17391304347826014</v>
       </c>
       <c r="AC75" t="n">
-        <v>-0.5652173913043478</v>
+        <v>-0.5652173913043482</v>
       </c>
       <c r="AD75" t="n">
         <v>2.0</v>
@@ -11905,7 +11905,7 @@
         <v>0.26315789473684364</v>
       </c>
       <c r="AC76" t="n">
-        <v>-0.8117647058823532</v>
+        <v>-0.811764705882353</v>
       </c>
       <c r="AD76" t="n">
         <v>2.0</v>
@@ -11980,7 +11980,7 @@
         <v>0.5568181818181818</v>
       </c>
       <c r="K77" t="n">
-        <v>0.734866726617274</v>
+        <v>0.7348667266172743</v>
       </c>
       <c r="L77" t="n">
         <v>3.5357142857142856</v>
@@ -12109,7 +12109,7 @@
         <v>0.583044982698962</v>
       </c>
       <c r="K78" t="n">
-        <v>0.6977956124795663</v>
+        <v>0.6977956124795657</v>
       </c>
       <c r="L78" t="n">
         <v>2.4146341463414633</v>
@@ -12163,7 +12163,7 @@
         <v>0.37391304347826065</v>
       </c>
       <c r="AC78" t="n">
-        <v>-0.579728059332509</v>
+        <v>-0.5797280593325106</v>
       </c>
       <c r="AD78"/>
       <c r="AE78" t="n">
@@ -12238,7 +12238,7 @@
         <v>0.5871271585557299</v>
       </c>
       <c r="K79" t="n">
-        <v>0.6122818944340567</v>
+        <v>0.6122818944340568</v>
       </c>
       <c r="L79" t="n">
         <v>1.5666666666666667</v>
@@ -12292,7 +12292,7 @@
         <v>-0.2877583465818759</v>
       </c>
       <c r="AC79" t="n">
-        <v>-0.613372093023256</v>
+        <v>-0.6133720930232558</v>
       </c>
       <c r="AD79"/>
       <c r="AE79" t="n">
@@ -12367,7 +12367,7 @@
         <v>0.540495867768595</v>
       </c>
       <c r="K80" t="n">
-        <v>0.7194489972394091</v>
+        <v>0.7194489972394088</v>
       </c>
       <c r="L80" t="n">
         <v>1.4210526315789473</v>
@@ -12421,7 +12421,7 @@
         <v>-0.2903225806451613</v>
       </c>
       <c r="AC80" t="n">
-        <v>-0.19083969465648892</v>
+        <v>-0.19083969465648692</v>
       </c>
       <c r="AD80"/>
       <c r="AE80" t="n">
@@ -12496,7 +12496,7 @@
         <v>0.6578125</v>
       </c>
       <c r="K81" t="n">
-        <v>0.6947587760390114</v>
+        <v>0.6947587760390111</v>
       </c>
       <c r="L81" t="n">
         <v>1.32</v>
@@ -12550,7 +12550,7 @@
         <v>0.5405405405405408</v>
       </c>
       <c r="AC81" t="n">
-        <v>-0.1676767676767675</v>
+        <v>-0.1676767676767678</v>
       </c>
       <c r="AD81" t="n">
         <v>2.0</v>
@@ -12625,7 +12625,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K82" t="n">
-        <v>0.5876751203535701</v>
+        <v>0.5876751203535706</v>
       </c>
       <c r="L82" t="n">
         <v>1.5714285714285714</v>
@@ -12679,7 +12679,7 @@
         <v>0.4805194805194794</v>
       </c>
       <c r="AC82" t="n">
-        <v>-0.9882491186839014</v>
+        <v>-0.9882491186839015</v>
       </c>
       <c r="AD82"/>
       <c r="AE82" t="n">
@@ -12754,7 +12754,7 @@
         <v>0.5871212121212122</v>
       </c>
       <c r="K83" t="n">
-        <v>0.6409540843727307</v>
+        <v>0.6409540843727309</v>
       </c>
       <c r="L83" t="n">
         <v>1.588235294117647</v>
@@ -12808,7 +12808,7 @@
         <v>0.40909090909090856</v>
       </c>
       <c r="AC83" t="n">
-        <v>-0.598705501618123</v>
+        <v>-0.5987055016181236</v>
       </c>
       <c r="AD83" t="n">
         <v>2.0</v>
@@ -12937,7 +12937,7 @@
         <v>-0.02739726027397277</v>
       </c>
       <c r="AC84" t="n">
-        <v>-0.9750120134550694</v>
+        <v>-0.975012013455069</v>
       </c>
       <c r="AD84" t="n">
         <v>2.0</v>
@@ -13012,7 +13012,7 @@
         <v>0.6029040404040404</v>
       </c>
       <c r="K85" t="n">
-        <v>0.6568956134016286</v>
+        <v>0.6568956134016287</v>
       </c>
       <c r="L85" t="n">
         <v>1.8461538461538463</v>
@@ -13066,7 +13066,7 @@
         <v>0.4264705882352931</v>
       </c>
       <c r="AC85" t="n">
-        <v>-0.9690376569037653</v>
+        <v>-0.9690376569037656</v>
       </c>
       <c r="AD85" t="n">
         <v>2.0</v>
@@ -13195,7 +13195,7 @@
         <v>-0.6000000000000001</v>
       </c>
       <c r="AC86" t="n">
-        <v>-0.9882491186839014</v>
+        <v>-0.9882491186839015</v>
       </c>
       <c r="AD86" t="n">
         <v>2.0</v>
@@ -13270,7 +13270,7 @@
         <v>0.30871212121212116</v>
       </c>
       <c r="K87" t="n">
-        <v>0.49651330570513574</v>
+        <v>0.4965133057051361</v>
       </c>
       <c r="L87" t="n">
         <v>4.52054794520548</v>
@@ -13324,7 +13324,7 @@
         <v>0.14893617021276584</v>
       </c>
       <c r="AC87" t="n">
-        <v>-0.40077821011673165</v>
+        <v>-0.400778210116731</v>
       </c>
       <c r="AD87"/>
       <c r="AE87" t="n">
@@ -13399,7 +13399,7 @@
         <v>0.5831517792302106</v>
       </c>
       <c r="K88" t="n">
-        <v>0.736709323304264</v>
+        <v>0.7367093233042641</v>
       </c>
       <c r="L88" t="n">
         <v>2.381818181818182</v>
@@ -13453,7 +13453,7 @@
         <v>-1.7763568394002536E-15</v>
       </c>
       <c r="AC88" t="n">
-        <v>-0.5629268292682925</v>
+        <v>-0.5629268292682934</v>
       </c>
       <c r="AD88"/>
       <c r="AE88" t="n">
@@ -13528,7 +13528,7 @@
         <v>0.4768445839874411</v>
       </c>
       <c r="K89" t="n">
-        <v>0.6412873504122641</v>
+        <v>0.6412873504122635</v>
       </c>
       <c r="L89" t="n">
         <v>3.5</v>
@@ -13786,7 +13786,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K91" t="n">
-        <v>0.7503994041344025</v>
+        <v>0.7503994041344022</v>
       </c>
       <c r="L91" t="n">
         <v>1.4166666666666667</v>
@@ -13840,7 +13840,7 @@
         <v>-0.8620689655172403</v>
       </c>
       <c r="AC91" t="n">
-        <v>-0.9224489795918367</v>
+        <v>-0.9224489795918362</v>
       </c>
       <c r="AD91"/>
       <c r="AE91" t="n">
@@ -13915,7 +13915,7 @@
         <v>0.30793650793650795</v>
       </c>
       <c r="K92" t="n">
-        <v>0.5133587615283302</v>
+        <v>0.5133587615283306</v>
       </c>
       <c r="L92" t="n">
         <v>2.6444444444444444</v>
@@ -13969,7 +13969,7 @@
         <v>0.25274725274725246</v>
       </c>
       <c r="AC92" t="n">
-        <v>-0.5297450424929188</v>
+        <v>-0.5297450424929191</v>
       </c>
       <c r="AD92" t="n">
         <v>2.0</v>
@@ -14044,7 +14044,7 @@
         <v>0.6243686868686869</v>
       </c>
       <c r="K93" t="n">
-        <v>0.6884015413442998</v>
+        <v>0.6884015413442999</v>
       </c>
       <c r="L93" t="n">
         <v>1.6571428571428573</v>
@@ -14098,7 +14098,7 @@
         <v>-0.6759776536312855</v>
       </c>
       <c r="AC93" t="n">
-        <v>-0.6436781609195401</v>
+        <v>-0.64367816091954</v>
       </c>
       <c r="AD93" t="n">
         <v>7.0</v>
@@ -14173,7 +14173,7 @@
         <v>0.6201888162672476</v>
       </c>
       <c r="K94" t="n">
-        <v>0.803500082837949</v>
+        <v>0.8035000828379488</v>
       </c>
       <c r="L94" t="n">
         <v>3.0434782608695654</v>
@@ -14227,7 +14227,7 @@
         <v>0.2462077012835475</v>
       </c>
       <c r="AC94" t="n">
-        <v>-0.5308571428571429</v>
+        <v>-0.530857142857143</v>
       </c>
       <c r="AD94" t="n">
         <v>2.0</v>
@@ -14302,7 +14302,7 @@
         <v>0.7460753532182104</v>
       </c>
       <c r="K95" t="n">
-        <v>0.7659900814231756</v>
+        <v>0.7659900814231754</v>
       </c>
       <c r="L95" t="n">
         <v>3.4</v>
@@ -14431,7 +14431,7 @@
         <v>0.3851010101010101</v>
       </c>
       <c r="K96" t="n">
-        <v>0.6367668552836966</v>
+        <v>0.6367668552836968</v>
       </c>
       <c r="L96" t="n">
         <v>1.8333333333333333</v>
@@ -14560,7 +14560,7 @@
         <v>0.5388540031397174</v>
       </c>
       <c r="K97" t="n">
-        <v>0.6698156988970376</v>
+        <v>0.6698156988970377</v>
       </c>
       <c r="L97" t="n">
         <v>2.0833333333333335</v>
@@ -14689,7 +14689,7 @@
         <v>0.4431818181818182</v>
       </c>
       <c r="K98" t="n">
-        <v>0.7366277355810059</v>
+        <v>0.7366277355810052</v>
       </c>
       <c r="L98" t="n">
         <v>3.3333333333333335</v>
@@ -14743,7 +14743,7 @@
         <v>0.4805194805194794</v>
       </c>
       <c r="AC98" t="n">
-        <v>-0.68561872909699</v>
+        <v>-0.6856187290969904</v>
       </c>
       <c r="AD98" t="n">
         <v>2.0</v>
@@ -14818,7 +14818,7 @@
         <v>0.523989898989899</v>
       </c>
       <c r="K99" t="n">
-        <v>0.733345285814605</v>
+        <v>0.7333452858146052</v>
       </c>
       <c r="L99" t="n">
         <v>1.6206896551724137</v>
@@ -15001,7 +15001,7 @@
         <v>0.13879003558718697</v>
       </c>
       <c r="AC100" t="n">
-        <v>-0.6949685534591191</v>
+        <v>-0.694968553459119</v>
       </c>
       <c r="AD100"/>
       <c r="AE100" t="n">
@@ -15076,7 +15076,7 @@
         <v>0.6957070707070707</v>
       </c>
       <c r="K101" t="n">
-        <v>0.6952215599621799</v>
+        <v>0.69522155996218</v>
       </c>
       <c r="L101" t="n">
         <v>1.85</v>
@@ -15130,7 +15130,7 @@
         <v>-0.3619047619047624</v>
       </c>
       <c r="AC101" t="n">
-        <v>-0.6970711297071127</v>
+        <v>-0.6970711297071128</v>
       </c>
       <c r="AD101" t="n">
         <v>2.0</v>
@@ -15205,7 +15205,7 @@
         <v>0.32007575757575757</v>
       </c>
       <c r="K102" t="n">
-        <v>0.5575331000518126</v>
+        <v>0.5575331000518123</v>
       </c>
       <c r="L102" t="n">
         <v>2.3157894736842106</v>
@@ -15259,7 +15259,7 @@
         <v>0.13043478260869532</v>
       </c>
       <c r="AC102" t="n">
-        <v>-0.38307552320291083</v>
+        <v>-0.383075523202912</v>
       </c>
       <c r="AD102" t="n">
         <v>6.0</v>
@@ -15334,7 +15334,7 @@
         <v>0.5950413223140496</v>
       </c>
       <c r="K103" t="n">
-        <v>0.7636558774525602</v>
+        <v>0.7636558774525601</v>
       </c>
       <c r="L103" t="n">
         <v>1.9545454545454546</v>
@@ -15463,7 +15463,7 @@
         <v>0.10858956916099773</v>
       </c>
       <c r="K104" t="n">
-        <v>0.3172448330481039</v>
+        <v>0.3172448330481043</v>
       </c>
       <c r="L104" t="n">
         <v>4.586466165413534</v>
@@ -15592,7 +15592,7 @@
         <v>0.44427001569858715</v>
       </c>
       <c r="K105" t="n">
-        <v>0.6286245873483653</v>
+        <v>0.6286245873483656</v>
       </c>
       <c r="L105" t="n">
         <v>2.9302325581395348</v>
@@ -15646,7 +15646,7 @@
         <v>-0.07547169811321</v>
       </c>
       <c r="AC105" t="n">
-        <v>-0.12000000000000002</v>
+        <v>-0.11999999999999936</v>
       </c>
       <c r="AD105"/>
       <c r="AE105" t="n">
@@ -15773,7 +15773,7 @@
         <v>-0.20422535211267703</v>
       </c>
       <c r="AC106" t="n">
-        <v>-0.5079365079365078</v>
+        <v>-0.5079365079365072</v>
       </c>
       <c r="AD106"/>
       <c r="AE106" t="n">
@@ -15848,7 +15848,7 @@
         <v>0.5321969696969697</v>
       </c>
       <c r="K107" t="n">
-        <v>0.7051532762746365</v>
+        <v>0.7051532762746362</v>
       </c>
       <c r="L107" t="n">
         <v>1.6857142857142857</v>
@@ -15902,7 +15902,7 @@
         <v>-0.15384615384615388</v>
       </c>
       <c r="AC107" t="n">
-        <v>-0.3964285714285716</v>
+        <v>-0.39642857142857185</v>
       </c>
       <c r="AD107" t="n">
         <v>2.0</v>
@@ -16106,7 +16106,7 @@
         <v>0.5119949494949495</v>
       </c>
       <c r="K109" t="n">
-        <v>0.6635512895573338</v>
+        <v>0.6635512895573341</v>
       </c>
       <c r="L109" t="n">
         <v>1.5757575757575757</v>
@@ -16160,7 +16160,7 @@
         <v>-0.4848484848484847</v>
       </c>
       <c r="AC109" t="n">
-        <v>-0.8891566265060236</v>
+        <v>-0.8891566265060239</v>
       </c>
       <c r="AD109" t="n">
         <v>3.0</v>
@@ -16235,7 +16235,7 @@
         <v>0.63510101010101</v>
       </c>
       <c r="K110" t="n">
-        <v>0.7523172964895065</v>
+        <v>0.7523172964895063</v>
       </c>
       <c r="L110" t="n">
         <v>3.142857142857143</v>
@@ -16289,7 +16289,7 @@
         <v>-0.3917525773195887</v>
       </c>
       <c r="AC110" t="n">
-        <v>-0.7413162705667274</v>
+        <v>-0.7413162705667277</v>
       </c>
       <c r="AD110" t="n">
         <v>2.0</v>
@@ -16364,7 +16364,7 @@
         <v>0.4696969696969697</v>
       </c>
       <c r="K111" t="n">
-        <v>0.6496922600715602</v>
+        <v>0.6496922600715603</v>
       </c>
       <c r="L111" t="n">
         <v>2.4242424242424243</v>
@@ -16418,7 +16418,7 @@
         <v>0.213793103448276</v>
       </c>
       <c r="AC111" t="n">
-        <v>-0.07407407407407407</v>
+        <v>-0.07407407407407378</v>
       </c>
       <c r="AD111" t="n">
         <v>2.0</v>
@@ -16493,7 +16493,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K112" t="n">
-        <v>0.5876751203535702</v>
+        <v>0.5876751203535706</v>
       </c>
       <c r="L112" t="n">
         <v>1.52</v>
@@ -16547,7 +16547,7 @@
         <v>-0.6000000000000001</v>
       </c>
       <c r="AC112" t="n">
-        <v>-0.9882491186839014</v>
+        <v>-0.9882491186839015</v>
       </c>
       <c r="AD112"/>
       <c r="AE112" t="n">
@@ -16622,7 +16622,7 @@
         <v>0.42003367003367</v>
       </c>
       <c r="K113" t="n">
-        <v>0.5586914518729814</v>
+        <v>0.5586914518729812</v>
       </c>
       <c r="L113" t="n">
         <v>2.1846153846153844</v>
@@ -16676,7 +16676,7 @@
         <v>0.054892601431978084</v>
       </c>
       <c r="AC113" t="n">
-        <v>-0.28398384925975756</v>
+        <v>-0.28398384925975745</v>
       </c>
       <c r="AD113"/>
       <c r="AE113" t="n">
@@ -16751,7 +16751,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K114" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535702</v>
       </c>
       <c r="L114" t="n">
         <v>2.8</v>
@@ -16805,7 +16805,7 @@
         <v>-0.6000000000000001</v>
       </c>
       <c r="AC114" t="n">
-        <v>-0.9882491186839014</v>
+        <v>-0.9882491186839015</v>
       </c>
       <c r="AD114"/>
       <c r="AE114" t="n">
@@ -16934,7 +16934,7 @@
         <v>0.5601173020527838</v>
       </c>
       <c r="AC115" t="n">
-        <v>-0.6159860990443092</v>
+        <v>-0.6159860990443088</v>
       </c>
       <c r="AD115"/>
       <c r="AE115" t="n">
@@ -17009,7 +17009,7 @@
         <v>0.6742424242424242</v>
       </c>
       <c r="K116" t="n">
-        <v>0.5739699008713615</v>
+        <v>0.5739699008713619</v>
       </c>
       <c r="L116" t="n">
         <v>2.4</v>
@@ -17063,7 +17063,7 @@
         <v>-0.6982892690513214</v>
       </c>
       <c r="AC116" t="n">
-        <v>-0.5378787878787876</v>
+        <v>-0.5378787878787875</v>
       </c>
       <c r="AD116" t="n">
         <v>5.0</v>
@@ -17192,7 +17192,7 @@
         <v>-0.4864864864864862</v>
       </c>
       <c r="AC117" t="n">
-        <v>-0.7599999999999991</v>
+        <v>-0.7600000000000013</v>
       </c>
       <c r="AD117" t="n">
         <v>3.0</v>
@@ -17267,7 +17267,7 @@
         <v>0.523989898989899</v>
       </c>
       <c r="K118" t="n">
-        <v>0.7146893795229597</v>
+        <v>0.7146893795229594</v>
       </c>
       <c r="L118" t="n">
         <v>2.3846153846153846</v>
@@ -17450,7 +17450,7 @@
         <v>0.44186046511628047</v>
       </c>
       <c r="AC119" t="n">
-        <v>-0.9224489795918367</v>
+        <v>-0.9224489795918362</v>
       </c>
       <c r="AD119" t="n">
         <v>2.0</v>
@@ -17579,7 +17579,7 @@
         <v>-0.590361445783132</v>
       </c>
       <c r="AC120" t="n">
-        <v>-0.9224489795918367</v>
+        <v>-0.9224489795918362</v>
       </c>
       <c r="AD120"/>
       <c r="AE120" t="n">
@@ -17654,7 +17654,7 @@
         <v>0.5641025641025641</v>
       </c>
       <c r="K121" t="n">
-        <v>0.6452581025770664</v>
+        <v>0.6452581025770666</v>
       </c>
       <c r="L121" t="n">
         <v>2.6</v>
@@ -17783,7 +17783,7 @@
         <v>0.5849867724867724</v>
       </c>
       <c r="K122" t="n">
-        <v>0.7551377062685437</v>
+        <v>0.7551377062685428</v>
       </c>
       <c r="L122" t="n">
         <v>2.061224489795918</v>
@@ -17837,7 +17837,7 @@
         <v>0.23298327499027635</v>
       </c>
       <c r="AC122" t="n">
-        <v>-0.26872026045579783</v>
+        <v>-0.2687202604557985</v>
       </c>
       <c r="AD122" t="n">
         <v>2.0</v>
@@ -17912,7 +17912,7 @@
         <v>0.5422222222222223</v>
       </c>
       <c r="K123" t="n">
-        <v>0.6381119018901548</v>
+        <v>0.6381119018901549</v>
       </c>
       <c r="L123" t="n">
         <v>2.142857142857143</v>
@@ -17966,7 +17966,7 @@
         <v>0.36363636363636354</v>
       </c>
       <c r="AC123" t="n">
-        <v>-0.36824324324324276</v>
+        <v>-0.3682432432432442</v>
       </c>
       <c r="AD123" t="n">
         <v>2.0</v>
@@ -18041,7 +18041,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K124" t="n">
-        <v>0.5876751203535707</v>
+        <v>0.58767512035357</v>
       </c>
       <c r="L124" t="n">
         <v>1.5714285714285714</v>
@@ -18095,7 +18095,7 @@
         <v>0.4805194805194794</v>
       </c>
       <c r="AC124" t="n">
-        <v>-0.9882491186839014</v>
+        <v>-0.9882491186839015</v>
       </c>
       <c r="AD124" t="n">
         <v>2.0</v>
@@ -18170,7 +18170,7 @@
         <v>0.5066666666666667</v>
       </c>
       <c r="K125" t="n">
-        <v>0.5816584263908336</v>
+        <v>0.5816584263908325</v>
       </c>
       <c r="L125" t="n">
         <v>2.2916666666666665</v>
@@ -18224,7 +18224,7 @@
         <v>0.5871313672922258</v>
       </c>
       <c r="AC125" t="n">
-        <v>-0.833333333333333</v>
+        <v>-0.8333333333333338</v>
       </c>
       <c r="AD125" t="n">
         <v>2.0</v>
@@ -18299,7 +18299,7 @@
         <v>0.6073232323232324</v>
       </c>
       <c r="K126" t="n">
-        <v>0.6509486017579401</v>
+        <v>0.6509486017579393</v>
       </c>
       <c r="L126" t="n">
         <v>1.6470588235294117</v>
@@ -18428,7 +18428,7 @@
         <v>0.4897959183673469</v>
       </c>
       <c r="K127" t="n">
-        <v>0.7149242141069743</v>
+        <v>0.7149242141069745</v>
       </c>
       <c r="L127" t="n">
         <v>1.9047619047619047</v>
@@ -18557,7 +18557,7 @@
         <v>0.5684826100338565</v>
       </c>
       <c r="K128" t="n">
-        <v>0.7155827599682921</v>
+        <v>0.7155827599682947</v>
       </c>
       <c r="L128" t="n">
         <v>2.875</v>
@@ -18611,7 +18611,7 @@
         <v>0.2247377139701835</v>
       </c>
       <c r="AC128" t="n">
-        <v>-0.512234255916566</v>
+        <v>-0.5122342559165657</v>
       </c>
       <c r="AD128"/>
       <c r="AE128" t="n">
@@ -18815,7 +18815,7 @@
         <v>0.25570586820586816</v>
       </c>
       <c r="K130" t="n">
-        <v>0.3337674828751594</v>
+        <v>0.3337674828751591</v>
       </c>
       <c r="L130" t="n">
         <v>2.517857142857143</v>
@@ -18869,7 +18869,7 @@
         <v>0.5324675324675326</v>
       </c>
       <c r="AC130" t="n">
-        <v>-0.22981366459627287</v>
+        <v>-0.22981366459627858</v>
       </c>
       <c r="AD130" t="n">
         <v>3.0</v>
@@ -18944,7 +18944,7 @@
         <v>0.45524691358024694</v>
       </c>
       <c r="K131" t="n">
-        <v>0.4956351539101175</v>
+        <v>0.4956351539101178</v>
       </c>
       <c r="L131" t="n">
         <v>3.5714285714285716</v>
@@ -18998,7 +18998,7 @@
         <v>0.32735426008968677</v>
       </c>
       <c r="AC131" t="n">
-        <v>-0.4150943396226411</v>
+        <v>-0.41509433962264036</v>
       </c>
       <c r="AD131" t="n">
         <v>3.0</v>
@@ -19073,7 +19073,7 @@
         <v>0.4012345679012346</v>
       </c>
       <c r="K132" t="n">
-        <v>0.5706662038348004</v>
+        <v>0.570666203834801</v>
       </c>
       <c r="L132" t="n">
         <v>1.2857142857142858</v>
@@ -19127,7 +19127,7 @@
         <v>-0.42352941176470565</v>
       </c>
       <c r="AC132" t="n">
-        <v>-0.5399999999999995</v>
+        <v>-0.5400000000000014</v>
       </c>
       <c r="AD132" t="n">
         <v>3.0</v>
@@ -19202,7 +19202,7 @@
         <v>0.540495867768595</v>
       </c>
       <c r="K133" t="n">
-        <v>0.587974521547336</v>
+        <v>0.5879745215473361</v>
       </c>
       <c r="L133" t="n">
         <v>1.619047619047619</v>
@@ -19256,7 +19256,7 @@
         <v>0.7411764705882361</v>
       </c>
       <c r="AC133" t="n">
-        <v>-0.6176470588235299</v>
+        <v>-0.617647058823529</v>
       </c>
       <c r="AD133" t="n">
         <v>4.0</v>
@@ -19331,7 +19331,7 @@
         <v>0.4723809523809524</v>
       </c>
       <c r="K134" t="n">
-        <v>0.6599352246598525</v>
+        <v>0.6599352246598524</v>
       </c>
       <c r="L134" t="n">
         <v>1.763157894736842</v>
@@ -19460,7 +19460,7 @@
         <v>0.7229199372056515</v>
       </c>
       <c r="K135" t="n">
-        <v>0.7085449778358615</v>
+        <v>0.7085449778358618</v>
       </c>
       <c r="L135" t="n">
         <v>3.2708333333333335</v>
@@ -19514,7 +19514,7 @@
         <v>0.4041339985744833</v>
       </c>
       <c r="AC135" t="n">
-        <v>-0.39159384103204337</v>
+        <v>-0.3915938410320439</v>
       </c>
       <c r="AD135" t="n">
         <v>5.0</v>
@@ -19589,7 +19589,7 @@
         <v>0.5890151515151515</v>
       </c>
       <c r="K136" t="n">
-        <v>0.7090782071298444</v>
+        <v>0.7090782071298439</v>
       </c>
       <c r="L136" t="n">
         <v>1.5517241379310345</v>
@@ -19643,7 +19643,7 @@
         <v>0.8564593301435417</v>
       </c>
       <c r="AC136" t="n">
-        <v>-0.6454689984101752</v>
+        <v>-0.6454689984101758</v>
       </c>
       <c r="AD136" t="n">
         <v>2.0</v>
@@ -19718,7 +19718,7 @@
         <v>0.4948559670781894</v>
       </c>
       <c r="K137" t="n">
-        <v>0.45203440887737656</v>
+        <v>0.4520344088773761</v>
       </c>
       <c r="L137" t="n">
         <v>2.0</v>
@@ -19847,7 +19847,7 @@
         <v>0.566984126984127</v>
       </c>
       <c r="K138" t="n">
-        <v>0.732030392526777</v>
+        <v>0.7320303925267772</v>
       </c>
       <c r="L138" t="n">
         <v>3.1666666666666665</v>
@@ -19901,7 +19901,7 @@
         <v>0.0937996820349762</v>
       </c>
       <c r="AC138" t="n">
-        <v>-0.3116591928251123</v>
+        <v>-0.31165919282511184</v>
       </c>
       <c r="AD138"/>
       <c r="AE138" t="n">
@@ -19976,7 +19976,7 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="K139" t="n">
-        <v>0.6781292256774814</v>
+        <v>0.6781292256774808</v>
       </c>
       <c r="L139" t="n">
         <v>3.130434782608696</v>
@@ -20030,7 +20030,7 @@
         <v>-0.0024570024570025263</v>
       </c>
       <c r="AC139" t="n">
-        <v>-0.5697674418604652</v>
+        <v>-0.5697674418604649</v>
       </c>
       <c r="AD139" t="n">
         <v>2.0</v>
@@ -20105,7 +20105,7 @@
         <v>0.44002525252525254</v>
       </c>
       <c r="K140" t="n">
-        <v>0.6316313081674266</v>
+        <v>0.6316313081674267</v>
       </c>
       <c r="L140" t="n">
         <v>2.257142857142857</v>
@@ -20159,7 +20159,7 @@
         <v>-0.1122625215889462</v>
       </c>
       <c r="AC140" t="n">
-        <v>0.03750000000000018</v>
+        <v>0.03749999999999913</v>
       </c>
       <c r="AD140"/>
       <c r="AE140" t="n">
@@ -20288,7 +20288,7 @@
         <v>0.6514745308310996</v>
       </c>
       <c r="AC141" t="n">
-        <v>-0.6507936507936508</v>
+        <v>-0.65079365079365</v>
       </c>
       <c r="AD141" t="n">
         <v>3.0</v>
@@ -20363,7 +20363,7 @@
         <v>0.5738636363636364</v>
       </c>
       <c r="K142" t="n">
-        <v>0.6084726494563822</v>
+        <v>0.608472649456382</v>
       </c>
       <c r="L142" t="n">
         <v>1.4</v>
@@ -20546,7 +20546,7 @@
         <v>-0.8620689655172403</v>
       </c>
       <c r="AC143" t="n">
-        <v>-0.8502994011976052</v>
+        <v>-0.8502994011976053</v>
       </c>
       <c r="AD143" t="n">
         <v>3.0</v>
@@ -20621,7 +20621,7 @@
         <v>0.4447731755424063</v>
       </c>
       <c r="K144" t="n">
-        <v>0.6906559137776304</v>
+        <v>0.6906559137776305</v>
       </c>
       <c r="L144" t="n">
         <v>2.2051282051282053</v>
@@ -20675,7 +20675,7 @@
         <v>0.279999999999998</v>
       </c>
       <c r="AC144" t="n">
-        <v>-0.6624685138539042</v>
+        <v>-0.6624685138539043</v>
       </c>
       <c r="AD144" t="n">
         <v>3.0</v>
@@ -20750,7 +20750,7 @@
         <v>1.0</v>
       </c>
       <c r="K145" t="n">
-        <v>0.76833752096446</v>
+        <v>0.7683375209644601</v>
       </c>
       <c r="L145" t="n">
         <v>2.793103448275862</v>
@@ -20875,7 +20875,7 @@
         <v>0.5901041666666667</v>
       </c>
       <c r="K146" t="n">
-        <v>0.5875468512296674</v>
+        <v>0.587546851229667</v>
       </c>
       <c r="L146" t="n">
         <v>3.3137254901960786</v>
@@ -20929,7 +20929,7 @@
         <v>0.6177062374245478</v>
       </c>
       <c r="AC146" t="n">
-        <v>-0.4555669050051076</v>
+        <v>-0.45556690500510777</v>
       </c>
       <c r="AD146"/>
       <c r="AE146" t="n">
@@ -21058,7 +21058,7 @@
         <v>-0.6000000000000001</v>
       </c>
       <c r="AC147" t="n">
-        <v>-0.9882491186839014</v>
+        <v>-0.9882491186839015</v>
       </c>
       <c r="AD147" t="n">
         <v>2.0</v>
@@ -21133,7 +21133,7 @@
         <v>0.5039246467817896</v>
       </c>
       <c r="K148" t="n">
-        <v>0.6575429501898368</v>
+        <v>0.6575429501898363</v>
       </c>
       <c r="L148" t="n">
         <v>3.15</v>
@@ -21187,7 +21187,7 @@
         <v>0.7054698457223</v>
       </c>
       <c r="AC148" t="n">
-        <v>-0.7884108867427565</v>
+        <v>-0.7884108867427562</v>
       </c>
       <c r="AD148" t="n">
         <v>3.0</v>
@@ -21262,7 +21262,7 @@
         <v>0.4660493827160494</v>
       </c>
       <c r="K149" t="n">
-        <v>0.5348559786120487</v>
+        <v>0.5348559786120486</v>
       </c>
       <c r="L149" t="n">
         <v>1.3571428571428572</v>
@@ -21316,7 +21316,7 @@
         <v>0.34306569343065696</v>
       </c>
       <c r="AC149" t="n">
-        <v>-0.7999999999999998</v>
+        <v>-0.8000000000000009</v>
       </c>
       <c r="AD149"/>
       <c r="AE149" t="n">
@@ -21391,7 +21391,7 @@
         <v>0.6640625</v>
       </c>
       <c r="K150" t="n">
-        <v>0.8065624356453037</v>
+        <v>0.8065624356453039</v>
       </c>
       <c r="L150" t="n">
         <v>1.7837837837837838</v>
@@ -21520,7 +21520,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="K151" t="n">
-        <v>0.6268519134342817</v>
+        <v>0.6268519134342816</v>
       </c>
       <c r="L151" t="n">
         <v>3.0344827586206895</v>
@@ -21574,7 +21574,7 @@
         <v>-0.5738498789346241</v>
       </c>
       <c r="AC151" t="n">
-        <v>-0.8707983193277316</v>
+        <v>-0.8707983193277312</v>
       </c>
       <c r="AD151" t="n">
         <v>2.0</v>
@@ -21649,7 +21649,7 @@
         <v>0.6115702479338843</v>
       </c>
       <c r="K152" t="n">
-        <v>0.641587837591801</v>
+        <v>0.6415878375918007</v>
       </c>
       <c r="L152" t="n">
         <v>3.413793103448276</v>
@@ -21703,7 +21703,7 @@
         <v>-0.2475247524752482</v>
       </c>
       <c r="AC152" t="n">
-        <v>-0.9366240097501526</v>
+        <v>-0.9366240097501515</v>
       </c>
       <c r="AD152" t="n">
         <v>2.0</v>
@@ -21903,7 +21903,7 @@
         <v>0.5700757575757576</v>
       </c>
       <c r="K154" t="n">
-        <v>0.6520856219376469</v>
+        <v>0.6520856219376466</v>
       </c>
       <c r="L154" t="n">
         <v>3.21875</v>
@@ -22030,7 +22030,7 @@
         <v>0.7209595959595959</v>
       </c>
       <c r="K155" t="n">
-        <v>0.7539578260896124</v>
+        <v>0.7539578260896125</v>
       </c>
       <c r="L155" t="n">
         <v>2.375</v>
@@ -22159,7 +22159,7 @@
         <v>0.5044191919191919</v>
       </c>
       <c r="K156" t="n">
-        <v>0.6427389230910836</v>
+        <v>0.6427389230910838</v>
       </c>
       <c r="L156" t="n">
         <v>2.1538461538461537</v>
@@ -22213,7 +22213,7 @@
         <v>0.16981132075471783</v>
       </c>
       <c r="AC156" t="n">
-        <v>-0.8409448818897639</v>
+        <v>-0.840944881889764</v>
       </c>
       <c r="AD156"/>
       <c r="AE156" t="n">
@@ -22288,7 +22288,7 @@
         <v>0.5488888888888889</v>
       </c>
       <c r="K157" t="n">
-        <v>0.6371126306987883</v>
+        <v>0.6371126306987887</v>
       </c>
       <c r="L157" t="n">
         <v>2.25</v>
@@ -22342,7 +22342,7 @@
         <v>-0.36986301369863045</v>
       </c>
       <c r="AC157" t="n">
-        <v>-0.7921146953405016</v>
+        <v>-0.792114695340502</v>
       </c>
       <c r="AD157" t="n">
         <v>3.0</v>
@@ -22471,7 +22471,7 @@
         <v>0.0687361419068749</v>
       </c>
       <c r="AC158" t="n">
-        <v>-0.9844660194174759</v>
+        <v>-0.9844660194174761</v>
       </c>
       <c r="AD158" t="n">
         <v>2.0</v>
@@ -22600,7 +22600,7 @@
         <v>-0.138755980861245</v>
       </c>
       <c r="AC159" t="n">
-        <v>-0.4687499999999999</v>
+        <v>-0.4687500000000001</v>
       </c>
       <c r="AD159"/>
       <c r="AE159" t="n">
@@ -22675,7 +22675,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K160" t="n">
-        <v>0.5876751203535701</v>
+        <v>0.5876751203535705</v>
       </c>
       <c r="L160" t="n">
         <v>1.4</v>
@@ -22729,7 +22729,7 @@
         <v>-0.7297297297297296</v>
       </c>
       <c r="AC160" t="n">
-        <v>-0.9882491186839014</v>
+        <v>-0.9882491186839015</v>
       </c>
       <c r="AD160" t="n">
         <v>2.0</v>
@@ -22804,7 +22804,7 @@
         <v>0.5997474747474747</v>
       </c>
       <c r="K161" t="n">
-        <v>0.7263315264302915</v>
+        <v>0.7263315264302916</v>
       </c>
       <c r="L161" t="n">
         <v>2.3461538461538463</v>
@@ -22858,7 +22858,7 @@
         <v>0.3069306930693066</v>
       </c>
       <c r="AC161" t="n">
-        <v>-0.7468123861566489</v>
+        <v>-0.7468123861566486</v>
       </c>
       <c r="AD161" t="n">
         <v>2.0</v>
@@ -22933,7 +22933,7 @@
         <v>0.39173553719008264</v>
       </c>
       <c r="K162" t="n">
-        <v>0.6383479422507067</v>
+        <v>0.638347942250707</v>
       </c>
       <c r="L162" t="n">
         <v>2.933333333333333</v>
@@ -22987,7 +22987,7 @@
         <v>0.623471882640587</v>
       </c>
       <c r="AC162" t="n">
-        <v>-0.6991869918699187</v>
+        <v>-0.6991869918699213</v>
       </c>
       <c r="AD162"/>
       <c r="AE162" t="n">
@@ -23062,7 +23062,7 @@
         <v>0.5867768595041323</v>
       </c>
       <c r="K163" t="n">
-        <v>0.6644869838125746</v>
+        <v>0.6644869838125749</v>
       </c>
       <c r="L163" t="n">
         <v>1.5806451612903225</v>
@@ -23191,7 +23191,7 @@
         <v>0.3256883885345424</v>
       </c>
       <c r="K164" t="n">
-        <v>0.6427897696765311</v>
+        <v>0.6427897696765309</v>
       </c>
       <c r="L164" t="n">
         <v>4.3446808510638295</v>
@@ -23245,7 +23245,7 @@
         <v>-0.6864459712679579</v>
       </c>
       <c r="AC164" t="n">
-        <v>-0.6083765112262521</v>
+        <v>-0.6083765112262524</v>
       </c>
       <c r="AD164"/>
       <c r="AE164" t="n">
@@ -23374,7 +23374,7 @@
         <v>-0.71007371007371</v>
       </c>
       <c r="AC165" t="n">
-        <v>-0.9224489795918367</v>
+        <v>-0.9224489795918362</v>
       </c>
       <c r="AD165"/>
       <c r="AE165" t="n">
@@ -23449,7 +23449,7 @@
         <v>0.5694444444444444</v>
       </c>
       <c r="K166" t="n">
-        <v>0.7295283117584025</v>
+        <v>0.729528311758403</v>
       </c>
       <c r="L166" t="n">
         <v>1.8636363636363635</v>
@@ -23503,7 +23503,7 @@
         <v>0.0730643402399123</v>
       </c>
       <c r="AC166" t="n">
-        <v>-0.6746268656716422</v>
+        <v>-0.6746268656716424</v>
       </c>
       <c r="AD166"/>
       <c r="AE166" t="n">
@@ -23578,7 +23578,7 @@
         <v>0.44666666666666666</v>
       </c>
       <c r="K167" t="n">
-        <v>0.5138798723099932</v>
+        <v>0.513879872309993</v>
       </c>
       <c r="L167" t="n">
         <v>1.72</v>
@@ -23632,7 +23632,7 @@
         <v>-0.2764505119453922</v>
       </c>
       <c r="AC167" t="n">
-        <v>-0.8906249999999996</v>
+        <v>-0.8906249999999997</v>
       </c>
       <c r="AD167" t="n">
         <v>2.0</v>
@@ -23707,7 +23707,7 @@
         <v>0.5069444444444444</v>
       </c>
       <c r="K168" t="n">
-        <v>0.6272376357723489</v>
+        <v>0.627237635772349</v>
       </c>
       <c r="L168" t="n">
         <v>3.111111111111111</v>
@@ -23761,7 +23761,7 @@
         <v>-0.621505376344086</v>
       </c>
       <c r="AC168" t="n">
-        <v>-0.774373259052925</v>
+        <v>-0.7743732590529255</v>
       </c>
       <c r="AD168"/>
       <c r="AE168" t="n">
@@ -23836,7 +23836,7 @@
         <v>0.6055226824457594</v>
       </c>
       <c r="K169" t="n">
-        <v>0.7672855417890349</v>
+        <v>0.7672855417890352</v>
       </c>
       <c r="L169" t="n">
         <v>1.8611111111111112</v>
@@ -23965,7 +23965,7 @@
         <v>0.37037037037037035</v>
       </c>
       <c r="K170" t="n">
-        <v>0.43324632030047006</v>
+        <v>0.43324632030046983</v>
       </c>
       <c r="L170" t="n">
         <v>2.1578947368421053</v>
@@ -24017,7 +24017,7 @@
       </c>
       <c r="AB170"/>
       <c r="AC170" t="n">
-        <v>-0.5624999999999991</v>
+        <v>-0.5624999999999987</v>
       </c>
       <c r="AD170"/>
       <c r="AE170" t="n">
@@ -24092,7 +24092,7 @@
         <v>0.3541273299443234</v>
       </c>
       <c r="K171" t="n">
-        <v>0.5429630923949836</v>
+        <v>0.5429630923949837</v>
       </c>
       <c r="L171" t="n">
         <v>4.90990990990991</v>
@@ -24146,7 +24146,7 @@
         <v>0.09848484848484725</v>
       </c>
       <c r="AC171" t="n">
-        <v>-0.44149765990639617</v>
+        <v>-0.44149765990639683</v>
       </c>
       <c r="AD171" t="n">
         <v>2.0</v>
@@ -24221,7 +24221,7 @@
         <v>0.5453648915187377</v>
       </c>
       <c r="K172" t="n">
-        <v>0.6833458460264668</v>
+        <v>0.6833458460264671</v>
       </c>
       <c r="L172" t="n">
         <v>1.125</v>
@@ -24275,7 +24275,7 @@
         <v>-0.4989293361884378</v>
       </c>
       <c r="AC172" t="n">
-        <v>-0.8014184397163119</v>
+        <v>-0.8014184397163123</v>
       </c>
       <c r="AD172" t="n">
         <v>3.0</v>
@@ -24350,7 +24350,7 @@
         <v>0.5448232323232324</v>
       </c>
       <c r="K173" t="n">
-        <v>0.6113783877660205</v>
+        <v>0.6113783877660212</v>
       </c>
       <c r="L173" t="n">
         <v>1.105263157894737</v>
@@ -24533,7 +24533,7 @@
         <v>-0.6000000000000001</v>
       </c>
       <c r="AC174" t="n">
-        <v>-0.9882491186839014</v>
+        <v>-0.9882491186839015</v>
       </c>
       <c r="AD174" t="n">
         <v>2.0</v>
@@ -24608,7 +24608,7 @@
         <v>0.5820707070707071</v>
       </c>
       <c r="K175" t="n">
-        <v>0.6749707165392151</v>
+        <v>0.6749707165392155</v>
       </c>
       <c r="L175" t="n">
         <v>2.5</v>
@@ -24662,7 +24662,7 @@
         <v>-0.5745526838966204</v>
       </c>
       <c r="AC175" t="n">
-        <v>-0.8502994011976052</v>
+        <v>-0.8502994011976053</v>
       </c>
       <c r="AD175" t="n">
         <v>3.0</v>
@@ -24737,7 +24737,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="K176" t="n">
-        <v>0.5497246451155328</v>
+        <v>0.5497246451155324</v>
       </c>
       <c r="L176" t="n">
         <v>1.1875</v>
@@ -24791,7 +24791,7 @@
         <v>-0.18465227817745797</v>
       </c>
       <c r="AC176" t="n">
-        <v>-0.5689655172413792</v>
+        <v>-0.5689655172413799</v>
       </c>
       <c r="AD176"/>
       <c r="AE176" t="n">
@@ -24866,7 +24866,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K177" t="n">
-        <v>0.7503994041344025</v>
+        <v>0.7503994041344021</v>
       </c>
       <c r="L177" t="n">
         <v>3.8666666666666667</v>
@@ -24920,7 +24920,7 @@
         <v>-0.7536534446764092</v>
       </c>
       <c r="AC177" t="n">
-        <v>-0.9224489795918367</v>
+        <v>-0.9224489795918362</v>
       </c>
       <c r="AD177" t="n">
         <v>2.0</v>
@@ -25307,7 +25307,7 @@
         <v>-0.547511312217195</v>
       </c>
       <c r="AC180" t="n">
-        <v>-0.9338842975206612</v>
+        <v>-0.9338842975206609</v>
       </c>
       <c r="AD180" t="n">
         <v>2.0</v>
@@ -25382,7 +25382,7 @@
         <v>0.5069033530571992</v>
       </c>
       <c r="K181" t="n">
-        <v>0.6247556789684459</v>
+        <v>0.624755678968446</v>
       </c>
       <c r="L181" t="n">
         <v>3.36</v>
@@ -25436,7 +25436,7 @@
         <v>0.5555555555555568</v>
       </c>
       <c r="AC181" t="n">
-        <v>-0.7021276595744682</v>
+        <v>-0.7021276595744679</v>
       </c>
       <c r="AD181" t="n">
         <v>2.0</v>
@@ -25511,7 +25511,7 @@
         <v>0.6214876033057851</v>
       </c>
       <c r="K182" t="n">
-        <v>0.6848446400614068</v>
+        <v>0.6848446400614063</v>
       </c>
       <c r="L182" t="n">
         <v>1.4210526315789473</v>
@@ -25565,7 +25565,7 @@
         <v>-0.5767918088737204</v>
       </c>
       <c r="AC182" t="n">
-        <v>-0.9616666666666671</v>
+        <v>-0.9616666666666669</v>
       </c>
       <c r="AD182"/>
       <c r="AE182" t="n">
@@ -25640,7 +25640,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K183" t="n">
-        <v>0.5876751203535706</v>
+        <v>0.5876751203535707</v>
       </c>
       <c r="L183" t="n">
         <v>1.6470588235294117</v>
@@ -25694,7 +25694,7 @@
         <v>0.4805194805194794</v>
       </c>
       <c r="AC183" t="n">
-        <v>-0.9882491186839014</v>
+        <v>-0.9882491186839015</v>
       </c>
       <c r="AD183"/>
       <c r="AE183" t="n">
@@ -25769,7 +25769,7 @@
         <v>0.5640625</v>
       </c>
       <c r="K184" t="n">
-        <v>0.8081356852470567</v>
+        <v>0.8081356852470566</v>
       </c>
       <c r="L184" t="n">
         <v>1.7906976744186047</v>
@@ -25823,7 +25823,7 @@
         <v>-0.24816446402349523</v>
       </c>
       <c r="AC184" t="n">
-        <v>-0.5945165945165944</v>
+        <v>-0.5945165945165943</v>
       </c>
       <c r="AD184"/>
       <c r="AE184" t="n">
@@ -26027,7 +26027,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K186" t="n">
-        <v>0.5876751203535707</v>
+        <v>0.5876751203535705</v>
       </c>
       <c r="L186" t="n">
         <v>2.25</v>
@@ -26081,7 +26081,7 @@
         <v>0.8321678321678349</v>
       </c>
       <c r="AC186" t="n">
-        <v>-0.9882491186839014</v>
+        <v>-0.9882491186839015</v>
       </c>
       <c r="AD186"/>
       <c r="AE186" t="n">
@@ -26156,7 +26156,7 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="K187" t="n">
-        <v>0.6781292256774814</v>
+        <v>0.6781292256774812</v>
       </c>
       <c r="L187" t="n">
         <v>2.206896551724138</v>
@@ -26210,7 +26210,7 @@
         <v>-0.8571428571428575</v>
       </c>
       <c r="AC187" t="n">
-        <v>-0.5697674418604652</v>
+        <v>-0.5697674418604649</v>
       </c>
       <c r="AD187" t="n">
         <v>2.0</v>
@@ -26285,7 +26285,7 @@
         <v>0.4012698412698413</v>
       </c>
       <c r="K188" t="n">
-        <v>0.5183013813232815</v>
+        <v>0.5183013813232812</v>
       </c>
       <c r="L188" t="n">
         <v>3.3714285714285714</v>
@@ -26339,7 +26339,7 @@
         <v>0.501048218029352</v>
       </c>
       <c r="AC188" t="n">
-        <v>-0.34210526315789447</v>
+        <v>-0.342105263157894</v>
       </c>
       <c r="AD188" t="n">
         <v>2.0</v>
@@ -26414,7 +26414,7 @@
         <v>0.5378787878787878</v>
       </c>
       <c r="K189" t="n">
-        <v>0.5855959513156896</v>
+        <v>0.5855959513156894</v>
       </c>
       <c r="L189" t="n">
         <v>3.033333333333333</v>
@@ -26468,7 +26468,7 @@
         <v>-0.21212121212121235</v>
       </c>
       <c r="AC189" t="n">
-        <v>-0.7216274089935764</v>
+        <v>-0.7216274089935751</v>
       </c>
       <c r="AD189" t="n">
         <v>2.0</v>
@@ -26543,7 +26543,7 @@
         <v>0.5669421487603306</v>
       </c>
       <c r="K190" t="n">
-        <v>0.6516486685308231</v>
+        <v>0.6516486685308229</v>
       </c>
       <c r="L190" t="n">
         <v>3.3421052631578947</v>
@@ -26597,7 +26597,7 @@
         <v>-0.02484472049689457</v>
       </c>
       <c r="AC190" t="n">
-        <v>-0.5200764818355641</v>
+        <v>-0.5200764818355638</v>
       </c>
       <c r="AD190" t="n">
         <v>7.0</v>
@@ -26672,7 +26672,7 @@
         <v>0.601010101010101</v>
       </c>
       <c r="K191" t="n">
-        <v>0.596222449591005</v>
+        <v>0.5962224495910049</v>
       </c>
       <c r="L191" t="n">
         <v>1.6785714285714286</v>
@@ -26726,7 +26726,7 @@
         <v>-0.8620689655172403</v>
       </c>
       <c r="AC191" t="n">
-        <v>-0.7759999999999998</v>
+        <v>-0.7759999999999996</v>
       </c>
       <c r="AD191" t="n">
         <v>4.0</v>
@@ -26801,7 +26801,7 @@
         <v>0.7000726216412491</v>
       </c>
       <c r="K192" t="n">
-        <v>0.7917764071627921</v>
+        <v>0.7917764071627924</v>
       </c>
       <c r="L192" t="n">
         <v>1.9411764705882353</v>
@@ -26930,7 +26930,7 @@
         <v>0.547008547008547</v>
       </c>
       <c r="K193" t="n">
-        <v>0.6399873791912948</v>
+        <v>0.639987379191295</v>
       </c>
       <c r="L193" t="n">
         <v>6.049180327868853</v>
@@ -26984,7 +26984,7 @@
         <v>0.3160621761658019</v>
       </c>
       <c r="AC193" t="n">
-        <v>-0.43750000000000006</v>
+        <v>-0.43749999999999983</v>
       </c>
       <c r="AD193" t="n">
         <v>2.0</v>
@@ -27059,7 +27059,7 @@
         <v>0.6291913214990138</v>
       </c>
       <c r="K194" t="n">
-        <v>0.6176761724687961</v>
+        <v>0.6176761724687962</v>
       </c>
       <c r="L194" t="n">
         <v>1.95</v>
@@ -27188,7 +27188,7 @@
         <v>0.628099173553719</v>
       </c>
       <c r="K195" t="n">
-        <v>0.620449651874637</v>
+        <v>0.6204496518746373</v>
       </c>
       <c r="L195" t="n">
         <v>1.9</v>
@@ -27242,7 +27242,7 @@
         <v>0.0962343096234286</v>
       </c>
       <c r="AC195" t="n">
-        <v>-0.7462686567164176</v>
+        <v>-0.7462686567164174</v>
       </c>
       <c r="AD195" t="n">
         <v>3.0</v>
@@ -27317,7 +27317,7 @@
         <v>0.523989898989899</v>
       </c>
       <c r="K196" t="n">
-        <v>0.5979708817508216</v>
+        <v>0.5979708817508215</v>
       </c>
       <c r="L196" t="n">
         <v>2.64</v>
@@ -27446,7 +27446,7 @@
         <v>0.6264462809917355</v>
       </c>
       <c r="K197" t="n">
-        <v>0.681310669990703</v>
+        <v>0.6813106699907031</v>
       </c>
       <c r="L197" t="n">
         <v>1.631578947368421</v>
@@ -27500,7 +27500,7 @@
         <v>0.32653061224489777</v>
       </c>
       <c r="AC197" t="n">
-        <v>-0.4903225806451612</v>
+        <v>-0.4903225806451609</v>
       </c>
       <c r="AD197" t="n">
         <v>4.0</v>
@@ -27573,7 +27573,7 @@
         <v>0.5138888888888888</v>
       </c>
       <c r="K198" t="n">
-        <v>0.5802094782772227</v>
+        <v>0.5802094782772225</v>
       </c>
       <c r="L198" t="n">
         <v>1.7857142857142858</v>
@@ -27627,7 +27627,7 @@
         <v>0.4392523364485981</v>
       </c>
       <c r="AC198" t="n">
-        <v>-0.5517241379310343</v>
+        <v>-0.5517241379310366</v>
       </c>
       <c r="AD198" t="n">
         <v>2.0</v>
@@ -27756,7 +27756,7 @@
         <v>0.13513513513513492</v>
       </c>
       <c r="AC199" t="n">
-        <v>-0.6387665198237884</v>
+        <v>-0.6387665198237888</v>
       </c>
       <c r="AD199" t="n">
         <v>2.0</v>
@@ -27831,7 +27831,7 @@
         <v>0.6733333333333333</v>
       </c>
       <c r="K200" t="n">
-        <v>0.6189101001411758</v>
+        <v>0.6189101001411754</v>
       </c>
       <c r="L200" t="n">
         <v>3.5</v>
@@ -27885,7 +27885,7 @@
         <v>-0.5014836795252229</v>
       </c>
       <c r="AC200" t="n">
-        <v>-0.8562499999999998</v>
+        <v>-0.8562499999999996</v>
       </c>
       <c r="AD200" t="n">
         <v>2.0</v>
@@ -27960,7 +27960,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K201" t="n">
-        <v>0.5876751203535703</v>
+        <v>0.5876751203535705</v>
       </c>
       <c r="L201" t="n">
         <v>2.0</v>
@@ -28014,7 +28014,7 @@
         <v>0.4805194805194794</v>
       </c>
       <c r="AC201" t="n">
-        <v>-0.9882491186839014</v>
+        <v>-0.9882491186839015</v>
       </c>
       <c r="AD201" t="n">
         <v>2.0</v>
@@ -28089,7 +28089,7 @@
         <v>0.595679012345679</v>
       </c>
       <c r="K202" t="n">
-        <v>0.653685529929022</v>
+        <v>0.6536855299290224</v>
       </c>
       <c r="L202" t="n">
         <v>1.5</v>
@@ -28143,7 +28143,7 @@
         <v>-0.547511312217195</v>
       </c>
       <c r="AC202" t="n">
-        <v>-0.9338842975206612</v>
+        <v>-0.9338842975206609</v>
       </c>
       <c r="AD202" t="n">
         <v>2.0</v>
@@ -28218,7 +28218,7 @@
         <v>0.5621301775147929</v>
       </c>
       <c r="K203" t="n">
-        <v>0.6111111111111115</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L203" t="n">
         <v>2.0</v>
@@ -28272,7 +28272,7 @@
         <v>0.2708333333333331</v>
       </c>
       <c r="AC203" t="n">
-        <v>-0.9876543209876544</v>
+        <v>-0.9876543209876549</v>
       </c>
       <c r="AD203" t="n">
         <v>2.0</v>
@@ -28347,7 +28347,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K204" t="n">
-        <v>0.5876751203535706</v>
+        <v>0.5876751203535708</v>
       </c>
       <c r="L204" t="n">
         <v>1.5714285714285714</v>
@@ -28401,7 +28401,7 @@
         <v>0.5966386554621839</v>
       </c>
       <c r="AC204" t="n">
-        <v>-0.9882491186839014</v>
+        <v>-0.9882491186839015</v>
       </c>
       <c r="AD204" t="n">
         <v>2.0</v>
@@ -28476,7 +28476,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K205" t="n">
-        <v>0.7503994041344021</v>
+        <v>0.7503994041344022</v>
       </c>
       <c r="L205" t="n">
         <v>1.6</v>
@@ -28530,7 +28530,7 @@
         <v>-0.590361445783132</v>
       </c>
       <c r="AC205" t="n">
-        <v>-0.9224489795918367</v>
+        <v>-0.9224489795918362</v>
       </c>
       <c r="AD205" t="n">
         <v>2.0</v>
@@ -28605,7 +28605,7 @@
         <v>0.48226643598615915</v>
       </c>
       <c r="K206" t="n">
-        <v>0.6684156331758153</v>
+        <v>0.6684156331758154</v>
       </c>
       <c r="L206" t="n">
         <v>1.7272727272727273</v>
@@ -28659,7 +28659,7 @@
         <v>-0.0982658959537569</v>
       </c>
       <c r="AC206" t="n">
-        <v>-0.4704347826086959</v>
+        <v>-0.4704347826086963</v>
       </c>
       <c r="AD206" t="n">
         <v>2.0</v>
@@ -28788,7 +28788,7 @@
         <v>-0.5412844036697244</v>
       </c>
       <c r="AC207" t="n">
-        <v>-0.7216274089935764</v>
+        <v>-0.7216274089935751</v>
       </c>
       <c r="AD207" t="n">
         <v>2.0</v>
@@ -28863,7 +28863,7 @@
         <v>0.6837121212121212</v>
       </c>
       <c r="K208" t="n">
-        <v>0.6531633817950978</v>
+        <v>0.6531633817950977</v>
       </c>
       <c r="L208" t="n">
         <v>1.5238095238095237</v>
@@ -28992,7 +28992,7 @@
         <v>0.52465483234714</v>
       </c>
       <c r="K209" t="n">
-        <v>0.7002847398183252</v>
+        <v>0.7002847398183248</v>
       </c>
       <c r="L209" t="n">
         <v>1.793103448275862</v>
@@ -29046,7 +29046,7 @@
         <v>-0.24468085106382878</v>
       </c>
       <c r="AC209" t="n">
-        <v>-0.0612244897959187</v>
+        <v>-0.06122448979591793</v>
       </c>
       <c r="AD209" t="n">
         <v>2.0</v>
@@ -29175,7 +29175,7 @@
         <v>0.45864661654135314</v>
       </c>
       <c r="AC210" t="n">
-        <v>-0.4237288135593215</v>
+        <v>-0.42372881355932407</v>
       </c>
       <c r="AD210" t="n">
         <v>2.0</v>
@@ -29250,7 +29250,7 @@
         <v>0.5738636363636364</v>
       </c>
       <c r="K211" t="n">
-        <v>0.6084726494563821</v>
+        <v>0.6084726494563822</v>
       </c>
       <c r="L211" t="n">
         <v>1.4090909090909092</v>
@@ -29379,7 +29379,7 @@
         <v>0.6942800788954635</v>
       </c>
       <c r="K212" t="n">
-        <v>0.7798570058713882</v>
+        <v>0.7798570058713881</v>
       </c>
       <c r="L212" t="n">
         <v>2.03125</v>
@@ -29433,7 +29433,7 @@
         <v>0.8412698412698412</v>
       </c>
       <c r="AC212" t="n">
-        <v>-0.7423806785508911</v>
+        <v>-0.7423806785508913</v>
       </c>
       <c r="AD212" t="n">
         <v>2.0</v>
@@ -29508,7 +29508,7 @@
         <v>0.8037475345167653</v>
       </c>
       <c r="K213" t="n">
-        <v>0.7987446642949498</v>
+        <v>0.79874466429495</v>
       </c>
       <c r="L213" t="n">
         <v>1.6486486486486487</v>
@@ -29562,7 +29562,7 @@
         <v>-0.7960526315789483</v>
       </c>
       <c r="AC213" t="n">
-        <v>-0.7964519140989726</v>
+        <v>-0.7964519140989728</v>
       </c>
       <c r="AD213" t="n">
         <v>2.0</v>
@@ -29691,7 +29691,7 @@
         <v>0.4767441860465115</v>
       </c>
       <c r="AC214" t="n">
-        <v>-0.9073518379594899</v>
+        <v>-0.9073518379594895</v>
       </c>
       <c r="AD214" t="n">
         <v>2.0</v>
@@ -29820,7 +29820,7 @@
         <v>-0.615384615384616</v>
       </c>
       <c r="AC215" t="n">
-        <v>-0.9224489795918367</v>
+        <v>-0.9224489795918362</v>
       </c>
       <c r="AD215" t="n">
         <v>2.0</v>
@@ -29895,7 +29895,7 @@
         <v>0.5256198347107438</v>
       </c>
       <c r="K216" t="n">
-        <v>0.6551138098567635</v>
+        <v>0.6551138098567636</v>
       </c>
       <c r="L216" t="n">
         <v>1.1428571428571428</v>
@@ -29949,7 +29949,7 @@
         <v>0.6141479099678451</v>
       </c>
       <c r="AC216" t="n">
-        <v>-0.7540603248259866</v>
+        <v>-0.7540603248259862</v>
       </c>
       <c r="AD216" t="n">
         <v>3.0</v>
@@ -30024,7 +30024,7 @@
         <v>0.5505050505050505</v>
       </c>
       <c r="K217" t="n">
-        <v>0.499332546466107</v>
+        <v>0.4993325464661073</v>
       </c>
       <c r="L217" t="n">
         <v>4.206896551724138</v>

--- a/Analyses/main study/outputs/01_dataPreperation/final/networkIndicators_pre_final.xlsx
+++ b/Analyses/main study/outputs/01_dataPreperation/final/networkIndicators_pre_final.xlsx
@@ -2305,7 +2305,7 @@
         <v>0.5540657439446367</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6639416425497979</v>
+        <v>0.6639416425497984</v>
       </c>
       <c r="L2" t="n">
         <v>2.5</v>
@@ -2434,7 +2434,7 @@
         <v>0.5549242424242424</v>
       </c>
       <c r="K3" t="n">
-        <v>0.623933713869943</v>
+        <v>0.6239337138699432</v>
       </c>
       <c r="L3" t="n">
         <v>1.4137931034482758</v>
@@ -2563,7 +2563,7 @@
         <v>0.41983471074380163</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5123849057548829</v>
+        <v>0.5123849057548833</v>
       </c>
       <c r="L4" t="n">
         <v>5.5</v>
@@ -2692,7 +2692,7 @@
         <v>0.571969696969697</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5689883197538611</v>
+        <v>0.5689883197538612</v>
       </c>
       <c r="L5" t="n">
         <v>1.6956521739130435</v>
@@ -2821,7 +2821,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5876751203535702</v>
+        <v>0.5876751203535703</v>
       </c>
       <c r="L6" t="n">
         <v>1.0</v>
@@ -3079,7 +3079,7 @@
         <v>0.48422090729783035</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5240781715789964</v>
+        <v>0.5240781715789962</v>
       </c>
       <c r="L8" t="n">
         <v>3.0526315789473686</v>
@@ -3337,7 +3337,7 @@
         <v>0.9722222222222222</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7311064553717899</v>
+        <v>0.7311064553717902</v>
       </c>
       <c r="L10" t="n">
         <v>1.5833333333333333</v>
@@ -3466,7 +3466,7 @@
         <v>0.5444444444444444</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5463907883734856</v>
+        <v>0.5463907883734858</v>
       </c>
       <c r="L11" t="n">
         <v>1.75</v>
@@ -3724,7 +3724,7 @@
         <v>0.6045364891518737</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7089184579677156</v>
+        <v>0.7089184579677155</v>
       </c>
       <c r="L13" t="n">
         <v>3.3125</v>
@@ -3853,7 +3853,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7503994041344019</v>
+        <v>0.7503994041344022</v>
       </c>
       <c r="L14" t="n">
         <v>2.5416666666666665</v>
@@ -3982,7 +3982,7 @@
         <v>0.5957613814756672</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6485997359573067</v>
+        <v>0.6485997359573065</v>
       </c>
       <c r="L15" t="n">
         <v>2.3793103448275863</v>
@@ -4240,7 +4240,7 @@
         <v>0.7314814814814815</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7431858936322674</v>
+        <v>0.7431858936322675</v>
       </c>
       <c r="L17" t="n">
         <v>2.9375</v>
@@ -4369,7 +4369,7 @@
         <v>0.592382154882155</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6336532010599382</v>
+        <v>0.6336532010599384</v>
       </c>
       <c r="L18" t="n">
         <v>2.225</v>
@@ -4498,7 +4498,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6589640700188711</v>
+        <v>0.6589640700188715</v>
       </c>
       <c r="L19" t="n">
         <v>1.4545454545454546</v>
@@ -4627,7 +4627,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7503994041344021</v>
+        <v>0.7503994041344022</v>
       </c>
       <c r="L20" t="n">
         <v>1.5</v>
@@ -5014,7 +5014,7 @@
         <v>0.6306818181818182</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7150518630750041</v>
+        <v>0.7150518630750042</v>
       </c>
       <c r="L23" t="n">
         <v>1.6111111111111112</v>
@@ -5143,7 +5143,7 @@
         <v>0.47603305785123967</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5698561812512465</v>
+        <v>0.5698561812512466</v>
       </c>
       <c r="L24" t="n">
         <v>2.1379310344827585</v>
@@ -5272,7 +5272,7 @@
         <v>0.5505050505050505</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6969774225128943</v>
+        <v>0.6969774225128949</v>
       </c>
       <c r="L25" t="n">
         <v>2.3333333333333335</v>
@@ -5530,7 +5530,7 @@
         <v>0.4780319535221496</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7790594869655474</v>
+        <v>0.7790594869655468</v>
       </c>
       <c r="L27" t="n">
         <v>1.3548387096774193</v>
@@ -5659,7 +5659,7 @@
         <v>0.5170454545454546</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5975282977967518</v>
+        <v>0.5975282977967521</v>
       </c>
       <c r="L28" t="n">
         <v>2.739130434782609</v>
@@ -5788,7 +5788,7 @@
         <v>0.5955555555555555</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6557866581553323</v>
+        <v>0.6557866581553319</v>
       </c>
       <c r="L29" t="n">
         <v>1.3846153846153846</v>
@@ -5917,7 +5917,7 @@
         <v>0.6883830455259027</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7670059672747958</v>
+        <v>0.7670059672747954</v>
       </c>
       <c r="L30" t="n">
         <v>1.4615384615384615</v>
@@ -6046,7 +6046,7 @@
         <v>0.5669191919191919</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6860648098775027</v>
+        <v>0.686064809877503</v>
       </c>
       <c r="L31" t="n">
         <v>1.619047619047619</v>
@@ -6304,7 +6304,7 @@
         <v>0.5642105263157895</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7344728262044616</v>
+        <v>0.7344728262044615</v>
       </c>
       <c r="L33" t="n">
         <v>2.0821917808219177</v>
@@ -6433,7 +6433,7 @@
         <v>0.31630892255892257</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5537677899801902</v>
+        <v>0.5537677899801898</v>
       </c>
       <c r="L34" t="n">
         <v>7.02970297029703</v>
@@ -6562,7 +6562,7 @@
         <v>0.6743079584775087</v>
       </c>
       <c r="K35" t="n">
-        <v>0.7165282052231963</v>
+        <v>0.7165282052231967</v>
       </c>
       <c r="L35" t="n">
         <v>3.311111111111111</v>
@@ -6691,7 +6691,7 @@
         <v>0.5707166179755971</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7706074640207362</v>
+        <v>0.7706074640207372</v>
       </c>
       <c r="L36" t="n">
         <v>1.7878787878787878</v>
@@ -6820,7 +6820,7 @@
         <v>0.5149136577708007</v>
       </c>
       <c r="K37" t="n">
-        <v>0.6151762894188575</v>
+        <v>0.6151762894188576</v>
       </c>
       <c r="L37" t="n">
         <v>1.434782608695652</v>
@@ -6949,7 +6949,7 @@
         <v>0.48148148148148145</v>
       </c>
       <c r="K38" t="n">
-        <v>0.5275444087384661</v>
+        <v>0.5275444087384663</v>
       </c>
       <c r="L38" t="n">
         <v>1.3</v>
@@ -7078,7 +7078,7 @@
         <v>0.7247474747474747</v>
       </c>
       <c r="K39" t="n">
-        <v>0.709277432438693</v>
+        <v>0.7092774324386933</v>
       </c>
       <c r="L39" t="n">
         <v>2.8947368421052633</v>
@@ -7465,7 +7465,7 @@
         <v>0.5688888888888889</v>
       </c>
       <c r="K42" t="n">
-        <v>0.6680090650144591</v>
+        <v>0.6680090650144588</v>
       </c>
       <c r="L42" t="n">
         <v>2.1875</v>
@@ -7723,7 +7723,7 @@
         <v>0.6679292929292929</v>
       </c>
       <c r="K44" t="n">
-        <v>0.7292701713218204</v>
+        <v>0.7292701713218203</v>
       </c>
       <c r="L44" t="n">
         <v>1.2777777777777777</v>
@@ -8110,7 +8110,7 @@
         <v>0.6232741617357002</v>
       </c>
       <c r="K47" t="n">
-        <v>0.7124784733822337</v>
+        <v>0.7124784733822335</v>
       </c>
       <c r="L47" t="n">
         <v>1.4090909090909092</v>
@@ -8239,7 +8239,7 @@
         <v>0.4740973312401884</v>
       </c>
       <c r="K48" t="n">
-        <v>0.6105152539206347</v>
+        <v>0.6105152539206345</v>
       </c>
       <c r="L48" t="n">
         <v>3.0588235294117645</v>
@@ -8368,7 +8368,7 @@
         <v>0.5542406311637081</v>
       </c>
       <c r="K49" t="n">
-        <v>0.5814868443938439</v>
+        <v>0.5814868443938436</v>
       </c>
       <c r="L49" t="n">
         <v>2.6666666666666665</v>
@@ -8497,7 +8497,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K50" t="n">
-        <v>0.7503994041344022</v>
+        <v>0.7503994041344021</v>
       </c>
       <c r="L50" t="n">
         <v>2.230769230769231</v>
@@ -8626,7 +8626,7 @@
         <v>0.3952020202020202</v>
       </c>
       <c r="K51" t="n">
-        <v>0.6741270607693665</v>
+        <v>0.6741270607693662</v>
       </c>
       <c r="L51" t="n">
         <v>2.840909090909091</v>
@@ -8884,7 +8884,7 @@
         <v>0.41179496489953993</v>
       </c>
       <c r="K53" t="n">
-        <v>0.6884792154861872</v>
+        <v>0.6884792154861873</v>
       </c>
       <c r="L53" t="n">
         <v>3.073394495412844</v>
@@ -9142,7 +9142,7 @@
         <v>0.3685950413223141</v>
       </c>
       <c r="K55" t="n">
-        <v>0.46634927952018634</v>
+        <v>0.4663492795201867</v>
       </c>
       <c r="L55" t="n">
         <v>3.4074074074074074</v>
@@ -9271,7 +9271,7 @@
         <v>0.48444444444444446</v>
       </c>
       <c r="K56" t="n">
-        <v>0.5361560968173985</v>
+        <v>0.5361560968173988</v>
       </c>
       <c r="L56" t="n">
         <v>4.0</v>
@@ -9400,7 +9400,7 @@
         <v>0.5207100591715976</v>
       </c>
       <c r="K57" t="n">
-        <v>0.7319858598225933</v>
+        <v>0.7319858598225931</v>
       </c>
       <c r="L57" t="n">
         <v>1.4705882352941178</v>
@@ -9529,7 +9529,7 @@
         <v>0.5435606060606061</v>
       </c>
       <c r="K58" t="n">
-        <v>0.5000659719012398</v>
+        <v>0.5000659719012395</v>
       </c>
       <c r="L58" t="n">
         <v>2.1142857142857143</v>
@@ -9916,7 +9916,7 @@
         <v>0.7311616954474097</v>
       </c>
       <c r="K61" t="n">
-        <v>0.7783152414918431</v>
+        <v>0.7783152414918428</v>
       </c>
       <c r="L61" t="n">
         <v>2.2</v>
@@ -10045,7 +10045,7 @@
         <v>0.47008547008547</v>
       </c>
       <c r="K62" t="n">
-        <v>0.6940693357949077</v>
+        <v>0.6940693357949076</v>
       </c>
       <c r="L62" t="n">
         <v>1.6</v>
@@ -10174,7 +10174,7 @@
         <v>0.5631313131313131</v>
       </c>
       <c r="K63" t="n">
-        <v>0.6715310873992878</v>
+        <v>0.6715310873992876</v>
       </c>
       <c r="L63" t="n">
         <v>1.7142857142857142</v>
@@ -10303,7 +10303,7 @@
         <v>0.41792929292929293</v>
       </c>
       <c r="K64" t="n">
-        <v>0.5011924623437799</v>
+        <v>0.5011924623437801</v>
       </c>
       <c r="L64" t="n">
         <v>2.05</v>
@@ -10432,7 +10432,7 @@
         <v>0.6711111111111111</v>
       </c>
       <c r="K65" t="n">
-        <v>0.7291671489030339</v>
+        <v>0.7291671489030338</v>
       </c>
       <c r="L65" t="n">
         <v>2.1</v>
@@ -10561,7 +10561,7 @@
         <v>0.6654040404040404</v>
       </c>
       <c r="K66" t="n">
-        <v>0.7635469567479614</v>
+        <v>0.7635469567479611</v>
       </c>
       <c r="L66" t="n">
         <v>2.8275862068965516</v>
@@ -10690,7 +10690,7 @@
         <v>0.4190778533635676</v>
       </c>
       <c r="K67" t="n">
-        <v>0.6431167773064648</v>
+        <v>0.6431167773064643</v>
       </c>
       <c r="L67" t="n">
         <v>5.260416666666667</v>
@@ -10819,7 +10819,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K68" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535701</v>
       </c>
       <c r="L68" t="n">
         <v>1.8235294117647058</v>
@@ -10948,7 +10948,7 @@
         <v>0.5443786982248521</v>
       </c>
       <c r="K69" t="n">
-        <v>0.5941641498719121</v>
+        <v>0.5941641498719119</v>
       </c>
       <c r="L69" t="n">
         <v>1.4285714285714286</v>
@@ -11077,7 +11077,7 @@
         <v>0.6088888888888889</v>
       </c>
       <c r="K70" t="n">
-        <v>0.6533878071413061</v>
+        <v>0.6533878071413058</v>
       </c>
       <c r="L70" t="n">
         <v>1.1666666666666667</v>
@@ -11206,7 +11206,7 @@
         <v>0.5119949494949495</v>
       </c>
       <c r="K71" t="n">
-        <v>0.7072557308151466</v>
+        <v>0.7072557308151464</v>
       </c>
       <c r="L71" t="n">
         <v>2.138888888888889</v>
@@ -11464,7 +11464,7 @@
         <v>0.6607495069033531</v>
       </c>
       <c r="K73" t="n">
-        <v>0.683472048695173</v>
+        <v>0.6834720486951736</v>
       </c>
       <c r="L73" t="n">
         <v>1.6956521739130435</v>
@@ -11593,7 +11593,7 @@
         <v>0.5309343434343434</v>
       </c>
       <c r="K74" t="n">
-        <v>0.6724191809139017</v>
+        <v>0.6724191809139027</v>
       </c>
       <c r="L74" t="n">
         <v>3.2790697674418605</v>
@@ -11851,7 +11851,7 @@
         <v>0.6016528925619835</v>
       </c>
       <c r="K76" t="n">
-        <v>0.6070742359959973</v>
+        <v>0.607074235995998</v>
       </c>
       <c r="L76" t="n">
         <v>3.6285714285714286</v>
@@ -11980,7 +11980,7 @@
         <v>0.5568181818181818</v>
       </c>
       <c r="K77" t="n">
-        <v>0.7348667266172743</v>
+        <v>0.7348667266172739</v>
       </c>
       <c r="L77" t="n">
         <v>3.5357142857142856</v>
@@ -12109,7 +12109,7 @@
         <v>0.583044982698962</v>
       </c>
       <c r="K78" t="n">
-        <v>0.6977956124795657</v>
+        <v>0.6977956124795645</v>
       </c>
       <c r="L78" t="n">
         <v>2.4146341463414633</v>
@@ -12238,7 +12238,7 @@
         <v>0.5871271585557299</v>
       </c>
       <c r="K79" t="n">
-        <v>0.6122818944340568</v>
+        <v>0.6122818944340562</v>
       </c>
       <c r="L79" t="n">
         <v>1.5666666666666667</v>
@@ -12367,7 +12367,7 @@
         <v>0.540495867768595</v>
       </c>
       <c r="K80" t="n">
-        <v>0.7194489972394088</v>
+        <v>0.7194489972394094</v>
       </c>
       <c r="L80" t="n">
         <v>1.4210526315789473</v>
@@ -12625,7 +12625,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K82" t="n">
-        <v>0.5876751203535706</v>
+        <v>0.5876751203535704</v>
       </c>
       <c r="L82" t="n">
         <v>1.5714285714285714</v>
@@ -12754,7 +12754,7 @@
         <v>0.5871212121212122</v>
       </c>
       <c r="K83" t="n">
-        <v>0.6409540843727309</v>
+        <v>0.6409540843727306</v>
       </c>
       <c r="L83" t="n">
         <v>1.588235294117647</v>
@@ -12883,7 +12883,7 @@
         <v>0.5542929292929293</v>
       </c>
       <c r="K84" t="n">
-        <v>0.6310514720678653</v>
+        <v>0.6310514720678655</v>
       </c>
       <c r="L84" t="n">
         <v>2.5283018867924527</v>
@@ -13012,7 +13012,7 @@
         <v>0.6029040404040404</v>
       </c>
       <c r="K85" t="n">
-        <v>0.6568956134016287</v>
+        <v>0.6568956134016286</v>
       </c>
       <c r="L85" t="n">
         <v>1.8461538461538463</v>
@@ -13141,7 +13141,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K86" t="n">
-        <v>0.5876751203535707</v>
+        <v>0.5876751203535706</v>
       </c>
       <c r="L86" t="n">
         <v>2.8</v>
@@ -13270,7 +13270,7 @@
         <v>0.30871212121212116</v>
       </c>
       <c r="K87" t="n">
-        <v>0.4965133057051361</v>
+        <v>0.49651330570513574</v>
       </c>
       <c r="L87" t="n">
         <v>4.52054794520548</v>
@@ -13399,7 +13399,7 @@
         <v>0.5831517792302106</v>
       </c>
       <c r="K88" t="n">
-        <v>0.7367093233042641</v>
+        <v>0.7367093233042643</v>
       </c>
       <c r="L88" t="n">
         <v>2.381818181818182</v>
@@ -13528,7 +13528,7 @@
         <v>0.4768445839874411</v>
       </c>
       <c r="K89" t="n">
-        <v>0.6412873504122635</v>
+        <v>0.641287350412264</v>
       </c>
       <c r="L89" t="n">
         <v>3.5</v>
@@ -13657,7 +13657,7 @@
         <v>0.6445707070707071</v>
       </c>
       <c r="K90" t="n">
-        <v>0.5602897572581598</v>
+        <v>0.56028975725816</v>
       </c>
       <c r="L90" t="n">
         <v>2.62</v>
@@ -13915,7 +13915,7 @@
         <v>0.30793650793650795</v>
       </c>
       <c r="K92" t="n">
-        <v>0.5133587615283306</v>
+        <v>0.5133587615283307</v>
       </c>
       <c r="L92" t="n">
         <v>2.6444444444444444</v>
@@ -14173,7 +14173,7 @@
         <v>0.6201888162672476</v>
       </c>
       <c r="K94" t="n">
-        <v>0.8035000828379488</v>
+        <v>0.803500082837949</v>
       </c>
       <c r="L94" t="n">
         <v>3.0434782608695654</v>
@@ -14431,7 +14431,7 @@
         <v>0.3851010101010101</v>
       </c>
       <c r="K96" t="n">
-        <v>0.6367668552836968</v>
+        <v>0.636766855283697</v>
       </c>
       <c r="L96" t="n">
         <v>1.8333333333333333</v>
@@ -14560,7 +14560,7 @@
         <v>0.5388540031397174</v>
       </c>
       <c r="K97" t="n">
-        <v>0.6698156988970377</v>
+        <v>0.6698156988970378</v>
       </c>
       <c r="L97" t="n">
         <v>2.0833333333333335</v>
@@ -14689,7 +14689,7 @@
         <v>0.4431818181818182</v>
       </c>
       <c r="K98" t="n">
-        <v>0.7366277355810052</v>
+        <v>0.7366277355810041</v>
       </c>
       <c r="L98" t="n">
         <v>3.3333333333333335</v>
@@ -14818,7 +14818,7 @@
         <v>0.523989898989899</v>
       </c>
       <c r="K99" t="n">
-        <v>0.7333452858146052</v>
+        <v>0.7333452858146046</v>
       </c>
       <c r="L99" t="n">
         <v>1.6206896551724137</v>
@@ -15334,7 +15334,7 @@
         <v>0.5950413223140496</v>
       </c>
       <c r="K103" t="n">
-        <v>0.7636558774525601</v>
+        <v>0.7636558774525604</v>
       </c>
       <c r="L103" t="n">
         <v>1.9545454545454546</v>
@@ -15463,7 +15463,7 @@
         <v>0.10858956916099773</v>
       </c>
       <c r="K104" t="n">
-        <v>0.3172448330481043</v>
+        <v>0.3172448330481044</v>
       </c>
       <c r="L104" t="n">
         <v>4.586466165413534</v>
@@ -15592,7 +15592,7 @@
         <v>0.44427001569858715</v>
       </c>
       <c r="K105" t="n">
-        <v>0.6286245873483656</v>
+        <v>0.6286245873483657</v>
       </c>
       <c r="L105" t="n">
         <v>2.9302325581395348</v>
@@ -15719,7 +15719,7 @@
         <v>0.45523809523809516</v>
       </c>
       <c r="K106" t="n">
-        <v>0.6740935269973216</v>
+        <v>0.674093526997322</v>
       </c>
       <c r="L106" t="n">
         <v>2.6444444444444444</v>
@@ -15848,7 +15848,7 @@
         <v>0.5321969696969697</v>
       </c>
       <c r="K107" t="n">
-        <v>0.7051532762746362</v>
+        <v>0.7051532762746359</v>
       </c>
       <c r="L107" t="n">
         <v>1.6857142857142857</v>
@@ -16106,7 +16106,7 @@
         <v>0.5119949494949495</v>
       </c>
       <c r="K109" t="n">
-        <v>0.6635512895573341</v>
+        <v>0.6635512895573339</v>
       </c>
       <c r="L109" t="n">
         <v>1.5757575757575757</v>
@@ -16235,7 +16235,7 @@
         <v>0.63510101010101</v>
       </c>
       <c r="K110" t="n">
-        <v>0.7523172964895063</v>
+        <v>0.7523172964895065</v>
       </c>
       <c r="L110" t="n">
         <v>3.142857142857143</v>
@@ -16364,7 +16364,7 @@
         <v>0.4696969696969697</v>
       </c>
       <c r="K111" t="n">
-        <v>0.6496922600715603</v>
+        <v>0.6496922600715602</v>
       </c>
       <c r="L111" t="n">
         <v>2.4242424242424243</v>
@@ -16493,7 +16493,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K112" t="n">
-        <v>0.5876751203535706</v>
+        <v>0.5876751203535707</v>
       </c>
       <c r="L112" t="n">
         <v>1.52</v>
@@ -16751,7 +16751,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K114" t="n">
-        <v>0.5876751203535702</v>
+        <v>0.58767512035357</v>
       </c>
       <c r="L114" t="n">
         <v>2.8</v>
@@ -16880,7 +16880,7 @@
         <v>0.63510101010101</v>
       </c>
       <c r="K115" t="n">
-        <v>0.7623493219734783</v>
+        <v>0.7623493219734784</v>
       </c>
       <c r="L115" t="n">
         <v>1.9333333333333333</v>
@@ -17009,7 +17009,7 @@
         <v>0.6742424242424242</v>
       </c>
       <c r="K116" t="n">
-        <v>0.5739699008713619</v>
+        <v>0.5739699008713611</v>
       </c>
       <c r="L116" t="n">
         <v>2.4</v>
@@ -17138,7 +17138,7 @@
         <v>0.32407407407407407</v>
       </c>
       <c r="K117" t="n">
-        <v>0.4609477527835929</v>
+        <v>0.46094775278359257</v>
       </c>
       <c r="L117" t="n">
         <v>1.4444444444444444</v>
@@ -17267,7 +17267,7 @@
         <v>0.523989898989899</v>
       </c>
       <c r="K118" t="n">
-        <v>0.7146893795229594</v>
+        <v>0.7146893795229592</v>
       </c>
       <c r="L118" t="n">
         <v>2.3846153846153846</v>
@@ -17525,7 +17525,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K120" t="n">
-        <v>0.7503994041344021</v>
+        <v>0.7503994041344019</v>
       </c>
       <c r="L120" t="n">
         <v>1.4545454545454546</v>
@@ -17783,7 +17783,7 @@
         <v>0.5849867724867724</v>
       </c>
       <c r="K122" t="n">
-        <v>0.7551377062685428</v>
+        <v>0.7551377062685442</v>
       </c>
       <c r="L122" t="n">
         <v>2.061224489795918</v>
@@ -17912,7 +17912,7 @@
         <v>0.5422222222222223</v>
       </c>
       <c r="K123" t="n">
-        <v>0.6381119018901549</v>
+        <v>0.6381119018901557</v>
       </c>
       <c r="L123" t="n">
         <v>2.142857142857143</v>
@@ -18041,7 +18041,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K124" t="n">
-        <v>0.58767512035357</v>
+        <v>0.5876751203535706</v>
       </c>
       <c r="L124" t="n">
         <v>1.5714285714285714</v>
@@ -18170,7 +18170,7 @@
         <v>0.5066666666666667</v>
       </c>
       <c r="K125" t="n">
-        <v>0.5816584263908325</v>
+        <v>0.5816584263908329</v>
       </c>
       <c r="L125" t="n">
         <v>2.2916666666666665</v>
@@ -18299,7 +18299,7 @@
         <v>0.6073232323232324</v>
       </c>
       <c r="K126" t="n">
-        <v>0.6509486017579393</v>
+        <v>0.6509486017579401</v>
       </c>
       <c r="L126" t="n">
         <v>1.6470588235294117</v>
@@ -18428,7 +18428,7 @@
         <v>0.4897959183673469</v>
       </c>
       <c r="K127" t="n">
-        <v>0.7149242141069745</v>
+        <v>0.7149242141069743</v>
       </c>
       <c r="L127" t="n">
         <v>1.9047619047619047</v>
@@ -18557,7 +18557,7 @@
         <v>0.5684826100338565</v>
       </c>
       <c r="K128" t="n">
-        <v>0.7155827599682947</v>
+        <v>0.715582759968293</v>
       </c>
       <c r="L128" t="n">
         <v>2.875</v>
@@ -18815,7 +18815,7 @@
         <v>0.25570586820586816</v>
       </c>
       <c r="K130" t="n">
-        <v>0.3337674828751591</v>
+        <v>0.3337674828751593</v>
       </c>
       <c r="L130" t="n">
         <v>2.517857142857143</v>
@@ -19073,7 +19073,7 @@
         <v>0.4012345679012346</v>
       </c>
       <c r="K132" t="n">
-        <v>0.570666203834801</v>
+        <v>0.5706662038348004</v>
       </c>
       <c r="L132" t="n">
         <v>1.2857142857142858</v>
@@ -19202,7 +19202,7 @@
         <v>0.540495867768595</v>
       </c>
       <c r="K133" t="n">
-        <v>0.5879745215473361</v>
+        <v>0.5879745215473354</v>
       </c>
       <c r="L133" t="n">
         <v>1.619047619047619</v>
@@ -19331,7 +19331,7 @@
         <v>0.4723809523809524</v>
       </c>
       <c r="K134" t="n">
-        <v>0.6599352246598524</v>
+        <v>0.6599352246598525</v>
       </c>
       <c r="L134" t="n">
         <v>1.763157894736842</v>
@@ -19589,7 +19589,7 @@
         <v>0.5890151515151515</v>
       </c>
       <c r="K136" t="n">
-        <v>0.7090782071298439</v>
+        <v>0.7090782071298445</v>
       </c>
       <c r="L136" t="n">
         <v>1.5517241379310345</v>
@@ -19718,7 +19718,7 @@
         <v>0.4948559670781894</v>
       </c>
       <c r="K137" t="n">
-        <v>0.4520344088773761</v>
+        <v>0.45203440887737645</v>
       </c>
       <c r="L137" t="n">
         <v>2.0</v>
@@ -19847,7 +19847,7 @@
         <v>0.566984126984127</v>
       </c>
       <c r="K138" t="n">
-        <v>0.7320303925267772</v>
+        <v>0.7320303925267773</v>
       </c>
       <c r="L138" t="n">
         <v>3.1666666666666665</v>
@@ -19976,7 +19976,7 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="K139" t="n">
-        <v>0.6781292256774808</v>
+        <v>0.6781292256774812</v>
       </c>
       <c r="L139" t="n">
         <v>3.130434782608696</v>
@@ -20105,7 +20105,7 @@
         <v>0.44002525252525254</v>
       </c>
       <c r="K140" t="n">
-        <v>0.6316313081674267</v>
+        <v>0.6316313081674266</v>
       </c>
       <c r="L140" t="n">
         <v>2.257142857142857</v>
@@ -20234,7 +20234,7 @@
         <v>0.6222879684418146</v>
       </c>
       <c r="K141" t="n">
-        <v>0.6892463126536583</v>
+        <v>0.6892463126536582</v>
       </c>
       <c r="L141" t="n">
         <v>4.574468085106383</v>
@@ -20363,7 +20363,7 @@
         <v>0.5738636363636364</v>
       </c>
       <c r="K142" t="n">
-        <v>0.608472649456382</v>
+        <v>0.6084726494563827</v>
       </c>
       <c r="L142" t="n">
         <v>1.4</v>
@@ -20492,7 +20492,7 @@
         <v>0.5820707070707071</v>
       </c>
       <c r="K143" t="n">
-        <v>0.674970716539215</v>
+        <v>0.6749707165392148</v>
       </c>
       <c r="L143" t="n">
         <v>2.4</v>
@@ -20621,7 +20621,7 @@
         <v>0.4447731755424063</v>
       </c>
       <c r="K144" t="n">
-        <v>0.6906559137776305</v>
+        <v>0.69065591377763</v>
       </c>
       <c r="L144" t="n">
         <v>2.2051282051282053</v>
@@ -20750,7 +20750,7 @@
         <v>1.0</v>
       </c>
       <c r="K145" t="n">
-        <v>0.7683375209644601</v>
+        <v>0.76833752096446</v>
       </c>
       <c r="L145" t="n">
         <v>2.793103448275862</v>
@@ -20875,7 +20875,7 @@
         <v>0.5901041666666667</v>
       </c>
       <c r="K146" t="n">
-        <v>0.587546851229667</v>
+        <v>0.5875468512296672</v>
       </c>
       <c r="L146" t="n">
         <v>3.3137254901960786</v>
@@ -21133,7 +21133,7 @@
         <v>0.5039246467817896</v>
       </c>
       <c r="K148" t="n">
-        <v>0.6575429501898363</v>
+        <v>0.6575429501898368</v>
       </c>
       <c r="L148" t="n">
         <v>3.15</v>
@@ -21262,7 +21262,7 @@
         <v>0.4660493827160494</v>
       </c>
       <c r="K149" t="n">
-        <v>0.5348559786120486</v>
+        <v>0.5348559786120484</v>
       </c>
       <c r="L149" t="n">
         <v>1.3571428571428572</v>
@@ -21391,7 +21391,7 @@
         <v>0.6640625</v>
       </c>
       <c r="K150" t="n">
-        <v>0.8065624356453039</v>
+        <v>0.8065624356453043</v>
       </c>
       <c r="L150" t="n">
         <v>1.7837837837837838</v>
@@ -21520,7 +21520,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="K151" t="n">
-        <v>0.6268519134342816</v>
+        <v>0.6268519134342817</v>
       </c>
       <c r="L151" t="n">
         <v>3.0344827586206895</v>
@@ -21649,7 +21649,7 @@
         <v>0.6115702479338843</v>
       </c>
       <c r="K152" t="n">
-        <v>0.6415878375918007</v>
+        <v>0.6415878375918009</v>
       </c>
       <c r="L152" t="n">
         <v>3.413793103448276</v>
@@ -21778,7 +21778,7 @@
         <v>0.8148148148148148</v>
       </c>
       <c r="K153" t="n">
-        <v>0.6624524600823034</v>
+        <v>0.6624524600823029</v>
       </c>
       <c r="L153" t="n">
         <v>1.5757575757575757</v>
@@ -22030,7 +22030,7 @@
         <v>0.7209595959595959</v>
       </c>
       <c r="K155" t="n">
-        <v>0.7539578260896125</v>
+        <v>0.7539578260896124</v>
       </c>
       <c r="L155" t="n">
         <v>2.375</v>
@@ -22159,7 +22159,7 @@
         <v>0.5044191919191919</v>
       </c>
       <c r="K156" t="n">
-        <v>0.6427389230910838</v>
+        <v>0.6427389230910836</v>
       </c>
       <c r="L156" t="n">
         <v>2.1538461538461537</v>
@@ -22288,7 +22288,7 @@
         <v>0.5488888888888889</v>
       </c>
       <c r="K157" t="n">
-        <v>0.6371126306987887</v>
+        <v>0.6371126306987882</v>
       </c>
       <c r="L157" t="n">
         <v>2.25</v>
@@ -22417,7 +22417,7 @@
         <v>0.5170454545454546</v>
       </c>
       <c r="K158" t="n">
-        <v>0.5975282977967518</v>
+        <v>0.5975282977967514</v>
       </c>
       <c r="L158" t="n">
         <v>3.5294117647058822</v>
@@ -22546,7 +22546,7 @@
         <v>0.46055226824457596</v>
       </c>
       <c r="K159" t="n">
-        <v>0.560388788423756</v>
+        <v>0.5603887884237558</v>
       </c>
       <c r="L159" t="n">
         <v>1.6388888888888888</v>
@@ -22675,7 +22675,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K160" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535707</v>
       </c>
       <c r="L160" t="n">
         <v>1.4</v>
@@ -22804,7 +22804,7 @@
         <v>0.5997474747474747</v>
       </c>
       <c r="K161" t="n">
-        <v>0.7263315264302916</v>
+        <v>0.7263315264302915</v>
       </c>
       <c r="L161" t="n">
         <v>2.3461538461538463</v>
@@ -22933,7 +22933,7 @@
         <v>0.39173553719008264</v>
       </c>
       <c r="K162" t="n">
-        <v>0.638347942250707</v>
+        <v>0.6383479422507066</v>
       </c>
       <c r="L162" t="n">
         <v>2.933333333333333</v>
@@ -23062,7 +23062,7 @@
         <v>0.5867768595041323</v>
       </c>
       <c r="K163" t="n">
-        <v>0.6644869838125749</v>
+        <v>0.6644869838125746</v>
       </c>
       <c r="L163" t="n">
         <v>1.5806451612903225</v>
@@ -23191,7 +23191,7 @@
         <v>0.3256883885345424</v>
       </c>
       <c r="K164" t="n">
-        <v>0.6427897696765309</v>
+        <v>0.6427897696765311</v>
       </c>
       <c r="L164" t="n">
         <v>4.3446808510638295</v>
@@ -23449,7 +23449,7 @@
         <v>0.5694444444444444</v>
       </c>
       <c r="K166" t="n">
-        <v>0.729528311758403</v>
+        <v>0.729528311758402</v>
       </c>
       <c r="L166" t="n">
         <v>1.8636363636363635</v>
@@ -23578,7 +23578,7 @@
         <v>0.44666666666666666</v>
       </c>
       <c r="K167" t="n">
-        <v>0.513879872309993</v>
+        <v>0.5138798723099929</v>
       </c>
       <c r="L167" t="n">
         <v>1.72</v>
@@ -23965,7 +23965,7 @@
         <v>0.37037037037037035</v>
       </c>
       <c r="K170" t="n">
-        <v>0.43324632030046983</v>
+        <v>0.43324632030047017</v>
       </c>
       <c r="L170" t="n">
         <v>2.1578947368421053</v>
@@ -24092,7 +24092,7 @@
         <v>0.3541273299443234</v>
       </c>
       <c r="K171" t="n">
-        <v>0.5429630923949837</v>
+        <v>0.5429630923949835</v>
       </c>
       <c r="L171" t="n">
         <v>4.90990990990991</v>
@@ -24221,7 +24221,7 @@
         <v>0.5453648915187377</v>
       </c>
       <c r="K172" t="n">
-        <v>0.6833458460264671</v>
+        <v>0.6833458460264664</v>
       </c>
       <c r="L172" t="n">
         <v>1.125</v>
@@ -24350,7 +24350,7 @@
         <v>0.5448232323232324</v>
       </c>
       <c r="K173" t="n">
-        <v>0.6113783877660212</v>
+        <v>0.6113783877660217</v>
       </c>
       <c r="L173" t="n">
         <v>1.105263157894737</v>
@@ -24479,7 +24479,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K174" t="n">
-        <v>0.5876751203535707</v>
+        <v>0.5876751203535702</v>
       </c>
       <c r="L174" t="n">
         <v>3.1904761904761907</v>
@@ -24608,7 +24608,7 @@
         <v>0.5820707070707071</v>
       </c>
       <c r="K175" t="n">
-        <v>0.6749707165392155</v>
+        <v>0.6749707165392148</v>
       </c>
       <c r="L175" t="n">
         <v>2.5</v>
@@ -24737,7 +24737,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="K176" t="n">
-        <v>0.5497246451155324</v>
+        <v>0.5497246451155328</v>
       </c>
       <c r="L176" t="n">
         <v>1.1875</v>
@@ -24866,7 +24866,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K177" t="n">
-        <v>0.7503994041344021</v>
+        <v>0.7503994041344019</v>
       </c>
       <c r="L177" t="n">
         <v>3.8666666666666667</v>
@@ -24995,7 +24995,7 @@
         <v>0.5542929292929293</v>
       </c>
       <c r="K178" t="n">
-        <v>0.7437212953676028</v>
+        <v>0.7437212953676031</v>
       </c>
       <c r="L178" t="n">
         <v>1.8518518518518519</v>
@@ -25253,7 +25253,7 @@
         <v>0.595679012345679</v>
       </c>
       <c r="K180" t="n">
-        <v>0.6536855299290221</v>
+        <v>0.653685529929022</v>
       </c>
       <c r="L180" t="n">
         <v>1.4375</v>
@@ -25382,7 +25382,7 @@
         <v>0.5069033530571992</v>
       </c>
       <c r="K181" t="n">
-        <v>0.624755678968446</v>
+        <v>0.6247556789684462</v>
       </c>
       <c r="L181" t="n">
         <v>3.36</v>
@@ -25511,7 +25511,7 @@
         <v>0.6214876033057851</v>
       </c>
       <c r="K182" t="n">
-        <v>0.6848446400614063</v>
+        <v>0.6848446400614066</v>
       </c>
       <c r="L182" t="n">
         <v>1.4210526315789473</v>
@@ -25640,7 +25640,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K183" t="n">
-        <v>0.5876751203535707</v>
+        <v>0.5876751203535706</v>
       </c>
       <c r="L183" t="n">
         <v>1.6470588235294117</v>
@@ -25898,7 +25898,7 @@
         <v>0.5498737373737373</v>
       </c>
       <c r="K185" t="n">
-        <v>0.5921570582603476</v>
+        <v>0.5921570582603474</v>
       </c>
       <c r="L185" t="n">
         <v>1.6153846153846154</v>
@@ -26027,7 +26027,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K186" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535704</v>
       </c>
       <c r="L186" t="n">
         <v>2.25</v>
@@ -26285,7 +26285,7 @@
         <v>0.4012698412698413</v>
       </c>
       <c r="K188" t="n">
-        <v>0.5183013813232812</v>
+        <v>0.5183013813232815</v>
       </c>
       <c r="L188" t="n">
         <v>3.3714285714285714</v>
@@ -26414,7 +26414,7 @@
         <v>0.5378787878787878</v>
       </c>
       <c r="K189" t="n">
-        <v>0.5855959513156894</v>
+        <v>0.5855959513156896</v>
       </c>
       <c r="L189" t="n">
         <v>3.033333333333333</v>
@@ -26543,7 +26543,7 @@
         <v>0.5669421487603306</v>
       </c>
       <c r="K190" t="n">
-        <v>0.6516486685308229</v>
+        <v>0.6516486685308234</v>
       </c>
       <c r="L190" t="n">
         <v>3.3421052631578947</v>
@@ -26672,7 +26672,7 @@
         <v>0.601010101010101</v>
       </c>
       <c r="K191" t="n">
-        <v>0.5962224495910049</v>
+        <v>0.596222449591005</v>
       </c>
       <c r="L191" t="n">
         <v>1.6785714285714286</v>
@@ -26801,7 +26801,7 @@
         <v>0.7000726216412491</v>
       </c>
       <c r="K192" t="n">
-        <v>0.7917764071627924</v>
+        <v>0.7917764071627922</v>
       </c>
       <c r="L192" t="n">
         <v>1.9411764705882353</v>
@@ -26930,7 +26930,7 @@
         <v>0.547008547008547</v>
       </c>
       <c r="K193" t="n">
-        <v>0.639987379191295</v>
+        <v>0.6399873791912948</v>
       </c>
       <c r="L193" t="n">
         <v>6.049180327868853</v>
@@ -27059,7 +27059,7 @@
         <v>0.6291913214990138</v>
       </c>
       <c r="K194" t="n">
-        <v>0.6176761724687962</v>
+        <v>0.6176761724687966</v>
       </c>
       <c r="L194" t="n">
         <v>1.95</v>
@@ -27188,7 +27188,7 @@
         <v>0.628099173553719</v>
       </c>
       <c r="K195" t="n">
-        <v>0.6204496518746373</v>
+        <v>0.6204496518746371</v>
       </c>
       <c r="L195" t="n">
         <v>1.9</v>
@@ -27446,7 +27446,7 @@
         <v>0.6264462809917355</v>
       </c>
       <c r="K197" t="n">
-        <v>0.6813106699907031</v>
+        <v>0.6813106699907032</v>
       </c>
       <c r="L197" t="n">
         <v>1.631578947368421</v>
@@ -27573,7 +27573,7 @@
         <v>0.5138888888888888</v>
       </c>
       <c r="K198" t="n">
-        <v>0.5802094782772225</v>
+        <v>0.580209478277223</v>
       </c>
       <c r="L198" t="n">
         <v>1.7857142857142858</v>
@@ -27702,7 +27702,7 @@
         <v>0.48484848484848486</v>
       </c>
       <c r="K199" t="n">
-        <v>0.5462159949252697</v>
+        <v>0.5462159949252694</v>
       </c>
       <c r="L199" t="n">
         <v>3.2413793103448274</v>
@@ -28089,7 +28089,7 @@
         <v>0.595679012345679</v>
       </c>
       <c r="K202" t="n">
-        <v>0.6536855299290224</v>
+        <v>0.6536855299290221</v>
       </c>
       <c r="L202" t="n">
         <v>1.5</v>
@@ -28218,7 +28218,7 @@
         <v>0.5621301775147929</v>
       </c>
       <c r="K203" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.6111111111111114</v>
       </c>
       <c r="L203" t="n">
         <v>2.0</v>
@@ -28476,7 +28476,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K205" t="n">
-        <v>0.7503994041344022</v>
+        <v>0.7503994041344019</v>
       </c>
       <c r="L205" t="n">
         <v>1.6</v>
@@ -28605,7 +28605,7 @@
         <v>0.48226643598615915</v>
       </c>
       <c r="K206" t="n">
-        <v>0.6684156331758154</v>
+        <v>0.6684156331758152</v>
       </c>
       <c r="L206" t="n">
         <v>1.7272727272727273</v>
@@ -28734,7 +28734,7 @@
         <v>0.6224747474747475</v>
       </c>
       <c r="K207" t="n">
-        <v>0.6337679448704804</v>
+        <v>0.6337679448704802</v>
       </c>
       <c r="L207" t="n">
         <v>1.6153846153846154</v>
@@ -28863,7 +28863,7 @@
         <v>0.6837121212121212</v>
       </c>
       <c r="K208" t="n">
-        <v>0.6531633817950977</v>
+        <v>0.6531633817950981</v>
       </c>
       <c r="L208" t="n">
         <v>1.5238095238095237</v>
@@ -28992,7 +28992,7 @@
         <v>0.52465483234714</v>
       </c>
       <c r="K209" t="n">
-        <v>0.7002847398183248</v>
+        <v>0.7002847398183253</v>
       </c>
       <c r="L209" t="n">
         <v>1.793103448275862</v>
@@ -29121,7 +29121,7 @@
         <v>0.37247474747474746</v>
       </c>
       <c r="K210" t="n">
-        <v>0.5839069883267832</v>
+        <v>0.5839069883267837</v>
       </c>
       <c r="L210" t="n">
         <v>1.7727272727272727</v>
@@ -29250,7 +29250,7 @@
         <v>0.5738636363636364</v>
       </c>
       <c r="K211" t="n">
-        <v>0.6084726494563822</v>
+        <v>0.6084726494563821</v>
       </c>
       <c r="L211" t="n">
         <v>1.4090909090909092</v>
@@ -29508,7 +29508,7 @@
         <v>0.8037475345167653</v>
       </c>
       <c r="K213" t="n">
-        <v>0.79874466429495</v>
+        <v>0.7987446642949498</v>
       </c>
       <c r="L213" t="n">
         <v>1.6486486486486487</v>
@@ -29637,7 +29637,7 @@
         <v>0.706828885400314</v>
       </c>
       <c r="K214" t="n">
-        <v>0.7465589852152268</v>
+        <v>0.7465589852152263</v>
       </c>
       <c r="L214" t="n">
         <v>2.71875</v>
@@ -29766,7 +29766,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K215" t="n">
-        <v>0.7503994041344021</v>
+        <v>0.7503994041344019</v>
       </c>
       <c r="L215" t="n">
         <v>1.8181818181818181</v>
@@ -29895,7 +29895,7 @@
         <v>0.5256198347107438</v>
       </c>
       <c r="K216" t="n">
-        <v>0.6551138098567636</v>
+        <v>0.6551138098567638</v>
       </c>
       <c r="L216" t="n">
         <v>1.1428571428571428</v>
@@ -30024,7 +30024,7 @@
         <v>0.5505050505050505</v>
       </c>
       <c r="K217" t="n">
-        <v>0.4993325464661073</v>
+        <v>0.49933254646610725</v>
       </c>
       <c r="L217" t="n">
         <v>4.206896551724138</v>

--- a/Analyses/main study/outputs/01_dataPreperation/final/networkIndicators_pre_final.xlsx
+++ b/Analyses/main study/outputs/01_dataPreperation/final/networkIndicators_pre_final.xlsx
@@ -2323,7 +2323,7 @@
         <v>0.5540657439446367</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6639416425497983</v>
+        <v>0.6639416425497979</v>
       </c>
       <c r="L2" t="n">
         <v>2.5</v>
@@ -2581,7 +2581,7 @@
         <v>0.41983471074380163</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5123849057548829</v>
+        <v>0.5123849057548828</v>
       </c>
       <c r="L4" t="n">
         <v>5.5</v>
@@ -2710,7 +2710,7 @@
         <v>0.571969696969697</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5689883197538612</v>
+        <v>0.5689883197538614</v>
       </c>
       <c r="L5" t="n">
         <v>1.6956521739130435</v>
@@ -2839,7 +2839,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5876751203535702</v>
+        <v>0.5876751203535703</v>
       </c>
       <c r="L6" t="n">
         <v>1.0</v>
@@ -2968,7 +2968,7 @@
         <v>0.6932</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7879781684831743</v>
+        <v>0.787978168483174</v>
       </c>
       <c r="L7" t="n">
         <v>1.7567567567567568</v>
@@ -3097,7 +3097,7 @@
         <v>0.48422090729783035</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5240781715789965</v>
+        <v>0.5240781715789958</v>
       </c>
       <c r="L8" t="n">
         <v>3.0526315789473686</v>
@@ -3226,7 +3226,7 @@
         <v>0.5157790927021696</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6716332265208823</v>
+        <v>0.6716332265208821</v>
       </c>
       <c r="L9" t="n">
         <v>1.6071428571428572</v>
@@ -3355,7 +3355,7 @@
         <v>0.9722222222222222</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7311064553717901</v>
+        <v>0.7311064553717898</v>
       </c>
       <c r="L10" t="n">
         <v>1.5833333333333333</v>
@@ -3484,7 +3484,7 @@
         <v>0.5444444444444444</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5463907883734858</v>
+        <v>0.5463907883734856</v>
       </c>
       <c r="L11" t="n">
         <v>1.75</v>
@@ -3613,7 +3613,7 @@
         <v>0.39551357733175924</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5831410357625654</v>
+        <v>0.5831410357625653</v>
       </c>
       <c r="L12" t="n">
         <v>1.8333333333333333</v>
@@ -3742,7 +3742,7 @@
         <v>0.6045364891518737</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7089184579677156</v>
+        <v>0.708918457967715</v>
       </c>
       <c r="L13" t="n">
         <v>3.3125</v>
@@ -3871,7 +3871,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7503994041344022</v>
+        <v>0.7503994041344025</v>
       </c>
       <c r="L14" t="n">
         <v>2.5416666666666665</v>
@@ -4000,7 +4000,7 @@
         <v>0.5957613814756672</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6485997359573065</v>
+        <v>0.6485997359573067</v>
       </c>
       <c r="L15" t="n">
         <v>2.3793103448275863</v>
@@ -4129,7 +4129,7 @@
         <v>0.5088757396449705</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6666137163722713</v>
+        <v>0.6666137163722708</v>
       </c>
       <c r="L16" t="n">
         <v>1.380952380952381</v>
@@ -4258,7 +4258,7 @@
         <v>0.7314814814814815</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7431858936322674</v>
+        <v>0.7431858936322676</v>
       </c>
       <c r="L17" t="n">
         <v>2.9375</v>
@@ -4387,7 +4387,7 @@
         <v>0.592382154882155</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6336532010599384</v>
+        <v>0.6336532010599382</v>
       </c>
       <c r="L18" t="n">
         <v>2.225</v>
@@ -4516,7 +4516,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6589640700188711</v>
+        <v>0.6589640700188715</v>
       </c>
       <c r="L19" t="n">
         <v>1.4545454545454546</v>
@@ -4645,7 +4645,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7503994041344019</v>
+        <v>0.7503994041344022</v>
       </c>
       <c r="L20" t="n">
         <v>1.5</v>
@@ -4903,7 +4903,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5876751203535702</v>
+        <v>0.5876751203535708</v>
       </c>
       <c r="L22" t="n">
         <v>1.5</v>
@@ -5032,7 +5032,7 @@
         <v>0.6306818181818182</v>
       </c>
       <c r="K23" t="n">
-        <v>0.715051863075004</v>
+        <v>0.7150518630750043</v>
       </c>
       <c r="L23" t="n">
         <v>1.6111111111111112</v>
@@ -5161,7 +5161,7 @@
         <v>0.47603305785123967</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5698561812512466</v>
+        <v>0.5698561812512465</v>
       </c>
       <c r="L24" t="n">
         <v>2.1379310344827585</v>
@@ -5290,7 +5290,7 @@
         <v>0.5505050505050505</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6969774225128949</v>
+        <v>0.6969774225128945</v>
       </c>
       <c r="L25" t="n">
         <v>2.3333333333333335</v>
@@ -5548,7 +5548,7 @@
         <v>0.4780319535221496</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7790594869655475</v>
+        <v>0.7790594869655472</v>
       </c>
       <c r="L27" t="n">
         <v>1.3548387096774193</v>
@@ -5677,7 +5677,7 @@
         <v>0.5170454545454546</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5975282977967517</v>
+        <v>0.5975282977967518</v>
       </c>
       <c r="L28" t="n">
         <v>2.739130434782609</v>
@@ -5935,7 +5935,7 @@
         <v>0.6883830455259027</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7670059672747956</v>
+        <v>0.7670059672747958</v>
       </c>
       <c r="L30" t="n">
         <v>1.4615384615384615</v>
@@ -6064,7 +6064,7 @@
         <v>0.5669191919191919</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6860648098775028</v>
+        <v>0.6860648098775032</v>
       </c>
       <c r="L31" t="n">
         <v>1.619047619047619</v>
@@ -6193,7 +6193,7 @@
         <v>0.540495867768595</v>
       </c>
       <c r="K32" t="n">
-        <v>0.5879745215473356</v>
+        <v>0.5879745215473361</v>
       </c>
       <c r="L32" t="n">
         <v>1.6521739130434783</v>
@@ -6322,7 +6322,7 @@
         <v>0.5642105263157895</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7344728262044617</v>
+        <v>0.7344728262044616</v>
       </c>
       <c r="L33" t="n">
         <v>2.0821917808219177</v>
@@ -6451,7 +6451,7 @@
         <v>0.31630892255892257</v>
       </c>
       <c r="K34" t="n">
-        <v>0.55376778998019</v>
+        <v>0.5537677899801899</v>
       </c>
       <c r="L34" t="n">
         <v>7.02970297029703</v>
@@ -6580,7 +6580,7 @@
         <v>0.6743079584775087</v>
       </c>
       <c r="K35" t="n">
-        <v>0.7165282052231964</v>
+        <v>0.7165282052231972</v>
       </c>
       <c r="L35" t="n">
         <v>3.311111111111111</v>
@@ -6709,7 +6709,7 @@
         <v>0.5707166179755971</v>
       </c>
       <c r="K36" t="n">
-        <v>0.770607464020737</v>
+        <v>0.7706074640207377</v>
       </c>
       <c r="L36" t="n">
         <v>1.7878787878787878</v>
@@ -6838,7 +6838,7 @@
         <v>0.5149136577708007</v>
       </c>
       <c r="K37" t="n">
-        <v>0.6151762894188576</v>
+        <v>0.6151762894188574</v>
       </c>
       <c r="L37" t="n">
         <v>1.434782608695652</v>
@@ -6967,7 +6967,7 @@
         <v>0.48148148148148145</v>
       </c>
       <c r="K38" t="n">
-        <v>0.5275444087384661</v>
+        <v>0.5275444087384662</v>
       </c>
       <c r="L38" t="n">
         <v>1.3</v>
@@ -7096,7 +7096,7 @@
         <v>0.7247474747474747</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7092774324386933</v>
+        <v>0.7092774324386935</v>
       </c>
       <c r="L39" t="n">
         <v>2.8947368421052633</v>
@@ -7354,7 +7354,7 @@
         <v>0.5119825708061002</v>
       </c>
       <c r="K41" t="n">
-        <v>0.6982375941135743</v>
+        <v>0.6982375941135748</v>
       </c>
       <c r="L41" t="n">
         <v>1.8387096774193548</v>
@@ -7483,7 +7483,7 @@
         <v>0.5688888888888889</v>
       </c>
       <c r="K42" t="n">
-        <v>0.6680090650144589</v>
+        <v>0.6680090650144587</v>
       </c>
       <c r="L42" t="n">
         <v>2.1875</v>
@@ -7612,7 +7612,7 @@
         <v>0.15222222222222223</v>
       </c>
       <c r="K43" t="n">
-        <v>0.3600236491383184</v>
+        <v>0.3600236491383178</v>
       </c>
       <c r="L43" t="n">
         <v>3.688888888888889</v>
@@ -7999,7 +7999,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5876751203535707</v>
+        <v>0.5876751203535705</v>
       </c>
       <c r="L46" t="n">
         <v>1.8823529411764706</v>
@@ -8128,7 +8128,7 @@
         <v>0.6232741617357002</v>
       </c>
       <c r="K47" t="n">
-        <v>0.7124784733822334</v>
+        <v>0.7124784733822335</v>
       </c>
       <c r="L47" t="n">
         <v>1.4090909090909092</v>
@@ -8644,7 +8644,7 @@
         <v>0.3952020202020202</v>
       </c>
       <c r="K51" t="n">
-        <v>0.674127060769366</v>
+        <v>0.6741270607693659</v>
       </c>
       <c r="L51" t="n">
         <v>2.840909090909091</v>
@@ -8773,7 +8773,7 @@
         <v>0.427651515151515</v>
       </c>
       <c r="K52" t="n">
-        <v>0.5779846603424766</v>
+        <v>0.577984660342477</v>
       </c>
       <c r="L52" t="n">
         <v>2.761904761904762</v>
@@ -8902,7 +8902,7 @@
         <v>0.41179496489953993</v>
       </c>
       <c r="K53" t="n">
-        <v>0.6884792154861872</v>
+        <v>0.6884792154861873</v>
       </c>
       <c r="L53" t="n">
         <v>3.073394495412844</v>
@@ -9031,7 +9031,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K54" t="n">
-        <v>0.7503994041344022</v>
+        <v>0.7503994041344025</v>
       </c>
       <c r="L54" t="n">
         <v>2.0833333333333335</v>
@@ -9160,7 +9160,7 @@
         <v>0.3685950413223141</v>
       </c>
       <c r="K55" t="n">
-        <v>0.4663492795201861</v>
+        <v>0.4663492795201865</v>
       </c>
       <c r="L55" t="n">
         <v>3.4074074074074074</v>
@@ -9289,7 +9289,7 @@
         <v>0.48444444444444446</v>
       </c>
       <c r="K56" t="n">
-        <v>0.5361560968173987</v>
+        <v>0.5361560968173985</v>
       </c>
       <c r="L56" t="n">
         <v>4.0</v>
@@ -9418,7 +9418,7 @@
         <v>0.5207100591715976</v>
       </c>
       <c r="K57" t="n">
-        <v>0.7319858598225931</v>
+        <v>0.7319858598225935</v>
       </c>
       <c r="L57" t="n">
         <v>1.4705882352941178</v>
@@ -9547,7 +9547,7 @@
         <v>0.5435606060606061</v>
       </c>
       <c r="K58" t="n">
-        <v>0.5000659719012395</v>
+        <v>0.5000659719012394</v>
       </c>
       <c r="L58" t="n">
         <v>2.1142857142857143</v>
@@ -9676,7 +9676,7 @@
         <v>0.5444444444444444</v>
       </c>
       <c r="K59" t="n">
-        <v>0.5463907883734856</v>
+        <v>0.5463907883734855</v>
       </c>
       <c r="L59" t="n">
         <v>2.6666666666666665</v>
@@ -9805,7 +9805,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K60" t="n">
-        <v>0.7503994041344025</v>
+        <v>0.7503994041344023</v>
       </c>
       <c r="L60" t="n">
         <v>3.2142857142857144</v>
@@ -9934,7 +9934,7 @@
         <v>0.7311616954474097</v>
       </c>
       <c r="K61" t="n">
-        <v>0.7783152414918431</v>
+        <v>0.7783152414918432</v>
       </c>
       <c r="L61" t="n">
         <v>2.2</v>
@@ -10192,7 +10192,7 @@
         <v>0.5631313131313131</v>
       </c>
       <c r="K63" t="n">
-        <v>0.6715310873992879</v>
+        <v>0.6715310873992878</v>
       </c>
       <c r="L63" t="n">
         <v>1.7142857142857142</v>
@@ -10321,7 +10321,7 @@
         <v>0.41792929292929293</v>
       </c>
       <c r="K64" t="n">
-        <v>0.5011924623437802</v>
+        <v>0.50119246234378</v>
       </c>
       <c r="L64" t="n">
         <v>2.05</v>
@@ -10450,7 +10450,7 @@
         <v>0.6711111111111111</v>
       </c>
       <c r="K65" t="n">
-        <v>0.729167148903034</v>
+        <v>0.7291671489030339</v>
       </c>
       <c r="L65" t="n">
         <v>2.1</v>
@@ -10579,7 +10579,7 @@
         <v>0.6654040404040404</v>
       </c>
       <c r="K66" t="n">
-        <v>0.7635469567479611</v>
+        <v>0.763546956747961</v>
       </c>
       <c r="L66" t="n">
         <v>2.8275862068965516</v>
@@ -10708,7 +10708,7 @@
         <v>0.4190778533635676</v>
       </c>
       <c r="K67" t="n">
-        <v>0.6431167773064642</v>
+        <v>0.6431167773064641</v>
       </c>
       <c r="L67" t="n">
         <v>5.260416666666667</v>
@@ -10837,7 +10837,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K68" t="n">
-        <v>0.5876751203535707</v>
+        <v>0.5876751203535705</v>
       </c>
       <c r="L68" t="n">
         <v>1.8235294117647058</v>
@@ -10966,7 +10966,7 @@
         <v>0.5443786982248521</v>
       </c>
       <c r="K69" t="n">
-        <v>0.5941641498719121</v>
+        <v>0.5941641498719122</v>
       </c>
       <c r="L69" t="n">
         <v>1.4285714285714286</v>
@@ -11095,7 +11095,7 @@
         <v>0.6088888888888889</v>
       </c>
       <c r="K70" t="n">
-        <v>0.6533878071413058</v>
+        <v>0.6533878071413061</v>
       </c>
       <c r="L70" t="n">
         <v>1.1666666666666667</v>
@@ -11224,7 +11224,7 @@
         <v>0.5119949494949495</v>
       </c>
       <c r="K71" t="n">
-        <v>0.7072557308151464</v>
+        <v>0.7072557308151466</v>
       </c>
       <c r="L71" t="n">
         <v>2.138888888888889</v>
@@ -11482,7 +11482,7 @@
         <v>0.6607495069033531</v>
       </c>
       <c r="K73" t="n">
-        <v>0.6834720486951734</v>
+        <v>0.6834720486951739</v>
       </c>
       <c r="L73" t="n">
         <v>1.6956521739130435</v>
@@ -11611,7 +11611,7 @@
         <v>0.5309343434343434</v>
       </c>
       <c r="K74" t="n">
-        <v>0.6724191809139025</v>
+        <v>0.6724191809139021</v>
       </c>
       <c r="L74" t="n">
         <v>3.2790697674418605</v>
@@ -11740,7 +11740,7 @@
         <v>0.5151515151515151</v>
       </c>
       <c r="K75" t="n">
-        <v>0.7204348544233161</v>
+        <v>0.720434854423316</v>
       </c>
       <c r="L75" t="n">
         <v>3.217391304347826</v>
@@ -11869,7 +11869,7 @@
         <v>0.6016528925619835</v>
       </c>
       <c r="K76" t="n">
-        <v>0.6070742359959977</v>
+        <v>0.6070742359959979</v>
       </c>
       <c r="L76" t="n">
         <v>3.6285714285714286</v>
@@ -11998,7 +11998,7 @@
         <v>0.5568181818181818</v>
       </c>
       <c r="K77" t="n">
-        <v>0.7348667266172737</v>
+        <v>0.7348667266172743</v>
       </c>
       <c r="L77" t="n">
         <v>3.5357142857142856</v>
@@ -12127,7 +12127,7 @@
         <v>0.583044982698962</v>
       </c>
       <c r="K78" t="n">
-        <v>0.6977956124795655</v>
+        <v>0.6977956124795643</v>
       </c>
       <c r="L78" t="n">
         <v>2.4146341463414633</v>
@@ -12256,7 +12256,7 @@
         <v>0.5871271585557299</v>
       </c>
       <c r="K79" t="n">
-        <v>0.6122818944340567</v>
+        <v>0.6122818944340562</v>
       </c>
       <c r="L79" t="n">
         <v>1.5666666666666667</v>
@@ -12514,7 +12514,7 @@
         <v>0.6578125</v>
       </c>
       <c r="K81" t="n">
-        <v>0.694758776039011</v>
+        <v>0.6947587760390116</v>
       </c>
       <c r="L81" t="n">
         <v>1.32</v>
@@ -12643,7 +12643,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K82" t="n">
-        <v>0.5876751203535706</v>
+        <v>0.5876751203535705</v>
       </c>
       <c r="L82" t="n">
         <v>1.5714285714285714</v>
@@ -12772,7 +12772,7 @@
         <v>0.5871212121212122</v>
       </c>
       <c r="K83" t="n">
-        <v>0.6409540843727298</v>
+        <v>0.6409540843727309</v>
       </c>
       <c r="L83" t="n">
         <v>1.588235294117647</v>
@@ -13030,7 +13030,7 @@
         <v>0.6029040404040404</v>
       </c>
       <c r="K85" t="n">
-        <v>0.6568956134016285</v>
+        <v>0.6568956134016284</v>
       </c>
       <c r="L85" t="n">
         <v>1.8461538461538463</v>
@@ -13159,7 +13159,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K86" t="n">
-        <v>0.5876751203535707</v>
+        <v>0.5876751203535706</v>
       </c>
       <c r="L86" t="n">
         <v>2.8</v>
@@ -13288,7 +13288,7 @@
         <v>0.30871212121212116</v>
       </c>
       <c r="K87" t="n">
-        <v>0.49651330570513585</v>
+        <v>0.4965133057051359</v>
       </c>
       <c r="L87" t="n">
         <v>4.52054794520548</v>
@@ -13417,7 +13417,7 @@
         <v>0.5831517792302106</v>
       </c>
       <c r="K88" t="n">
-        <v>0.736709323304264</v>
+        <v>0.7367093233042641</v>
       </c>
       <c r="L88" t="n">
         <v>2.381818181818182</v>
@@ -13675,7 +13675,7 @@
         <v>0.6445707070707071</v>
       </c>
       <c r="K90" t="n">
-        <v>0.5602897572581601</v>
+        <v>0.5602897572581594</v>
       </c>
       <c r="L90" t="n">
         <v>2.62</v>
@@ -13804,7 +13804,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K91" t="n">
-        <v>0.7503994041344021</v>
+        <v>0.7503994041344022</v>
       </c>
       <c r="L91" t="n">
         <v>1.4166666666666667</v>
@@ -13933,7 +13933,7 @@
         <v>0.30793650793650795</v>
       </c>
       <c r="K92" t="n">
-        <v>0.5133587615283306</v>
+        <v>0.5133587615283307</v>
       </c>
       <c r="L92" t="n">
         <v>2.6444444444444444</v>
@@ -14062,7 +14062,7 @@
         <v>0.6243686868686869</v>
       </c>
       <c r="K93" t="n">
-        <v>0.6884015413442998</v>
+        <v>0.6884015413443001</v>
       </c>
       <c r="L93" t="n">
         <v>1.6571428571428573</v>
@@ -14320,7 +14320,7 @@
         <v>0.7460753532182104</v>
       </c>
       <c r="K95" t="n">
-        <v>0.7659900814231754</v>
+        <v>0.7659900814231757</v>
       </c>
       <c r="L95" t="n">
         <v>3.4</v>
@@ -14449,7 +14449,7 @@
         <v>0.3851010101010101</v>
       </c>
       <c r="K96" t="n">
-        <v>0.6367668552836967</v>
+        <v>0.6367668552836966</v>
       </c>
       <c r="L96" t="n">
         <v>1.8333333333333333</v>
@@ -14578,7 +14578,7 @@
         <v>0.5388540031397174</v>
       </c>
       <c r="K97" t="n">
-        <v>0.6698156988970373</v>
+        <v>0.6698156988970378</v>
       </c>
       <c r="L97" t="n">
         <v>2.0833333333333335</v>
@@ -14707,7 +14707,7 @@
         <v>0.4431818181818182</v>
       </c>
       <c r="K98" t="n">
-        <v>0.7366277355810056</v>
+        <v>0.7366277355810049</v>
       </c>
       <c r="L98" t="n">
         <v>3.3333333333333335</v>
@@ -14836,7 +14836,7 @@
         <v>0.523989898989899</v>
       </c>
       <c r="K99" t="n">
-        <v>0.7333452858146042</v>
+        <v>0.7333452858146043</v>
       </c>
       <c r="L99" t="n">
         <v>1.6206896551724137</v>
@@ -14965,7 +14965,7 @@
         <v>0.46111111111111114</v>
       </c>
       <c r="K100" t="n">
-        <v>0.5780234735063566</v>
+        <v>0.5780234735063567</v>
       </c>
       <c r="L100" t="n">
         <v>1.608695652173913</v>
@@ -15094,7 +15094,7 @@
         <v>0.6957070707070707</v>
       </c>
       <c r="K101" t="n">
-        <v>0.69522155996218</v>
+        <v>0.6952215599621799</v>
       </c>
       <c r="L101" t="n">
         <v>1.85</v>
@@ -15223,7 +15223,7 @@
         <v>0.32007575757575757</v>
       </c>
       <c r="K102" t="n">
-        <v>0.5575331000518127</v>
+        <v>0.557533100051812</v>
       </c>
       <c r="L102" t="n">
         <v>2.3157894736842106</v>
@@ -15352,7 +15352,7 @@
         <v>0.5950413223140496</v>
       </c>
       <c r="K103" t="n">
-        <v>0.7636558774525605</v>
+        <v>0.7636558774525602</v>
       </c>
       <c r="L103" t="n">
         <v>1.9545454545454546</v>
@@ -15481,7 +15481,7 @@
         <v>0.10858956916099773</v>
       </c>
       <c r="K104" t="n">
-        <v>0.3172448330481043</v>
+        <v>0.3172448330481047</v>
       </c>
       <c r="L104" t="n">
         <v>4.586466165413534</v>
@@ -15737,7 +15737,7 @@
         <v>0.45523809523809516</v>
       </c>
       <c r="K106" t="n">
-        <v>0.6740935269973212</v>
+        <v>0.6740935269973216</v>
       </c>
       <c r="L106" t="n">
         <v>2.6444444444444444</v>
@@ -15866,7 +15866,7 @@
         <v>0.5321969696969697</v>
       </c>
       <c r="K107" t="n">
-        <v>0.7051532762746362</v>
+        <v>0.7051532762746361</v>
       </c>
       <c r="L107" t="n">
         <v>1.6857142857142857</v>
@@ -15995,7 +15995,7 @@
         <v>0.586031746031746</v>
       </c>
       <c r="K108" t="n">
-        <v>0.6841071345587562</v>
+        <v>0.6841071345587559</v>
       </c>
       <c r="L108" t="n">
         <v>4.219298245614035</v>
@@ -16124,7 +16124,7 @@
         <v>0.5119949494949495</v>
       </c>
       <c r="K109" t="n">
-        <v>0.663551289557334</v>
+        <v>0.6635512895573338</v>
       </c>
       <c r="L109" t="n">
         <v>1.5757575757575757</v>
@@ -16253,7 +16253,7 @@
         <v>0.63510101010101</v>
       </c>
       <c r="K110" t="n">
-        <v>0.7523172964895061</v>
+        <v>0.7523172964895063</v>
       </c>
       <c r="L110" t="n">
         <v>3.142857142857143</v>
@@ -16382,7 +16382,7 @@
         <v>0.4696969696969697</v>
       </c>
       <c r="K111" t="n">
-        <v>0.64969226007156</v>
+        <v>0.6496922600715604</v>
       </c>
       <c r="L111" t="n">
         <v>2.4242424242424243</v>
@@ -16511,7 +16511,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K112" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535706</v>
       </c>
       <c r="L112" t="n">
         <v>1.52</v>
@@ -16640,7 +16640,7 @@
         <v>0.42003367003367</v>
       </c>
       <c r="K113" t="n">
-        <v>0.5586914518729812</v>
+        <v>0.5586914518729814</v>
       </c>
       <c r="L113" t="n">
         <v>2.1846153846153844</v>
@@ -16769,7 +16769,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K114" t="n">
-        <v>0.5876751203535702</v>
+        <v>0.5876751203535705</v>
       </c>
       <c r="L114" t="n">
         <v>2.8</v>
@@ -16898,7 +16898,7 @@
         <v>0.63510101010101</v>
       </c>
       <c r="K115" t="n">
-        <v>0.7623493219734786</v>
+        <v>0.762349321973478</v>
       </c>
       <c r="L115" t="n">
         <v>1.9333333333333333</v>
@@ -17027,7 +17027,7 @@
         <v>0.6742424242424242</v>
       </c>
       <c r="K116" t="n">
-        <v>0.5739699008713616</v>
+        <v>0.5739699008713615</v>
       </c>
       <c r="L116" t="n">
         <v>2.4</v>
@@ -17285,7 +17285,7 @@
         <v>0.523989898989899</v>
       </c>
       <c r="K118" t="n">
-        <v>0.7146893795229592</v>
+        <v>0.7146893795229591</v>
       </c>
       <c r="L118" t="n">
         <v>2.3846153846153846</v>
@@ -17672,7 +17672,7 @@
         <v>0.5641025641025641</v>
       </c>
       <c r="K121" t="n">
-        <v>0.6452581025770671</v>
+        <v>0.6452581025770651</v>
       </c>
       <c r="L121" t="n">
         <v>2.6</v>
@@ -17801,7 +17801,7 @@
         <v>0.5849867724867724</v>
       </c>
       <c r="K122" t="n">
-        <v>0.7551377062685437</v>
+        <v>0.7551377062685432</v>
       </c>
       <c r="L122" t="n">
         <v>2.061224489795918</v>
@@ -17930,7 +17930,7 @@
         <v>0.5422222222222223</v>
       </c>
       <c r="K123" t="n">
-        <v>0.6381119018901551</v>
+        <v>0.6381119018901549</v>
       </c>
       <c r="L123" t="n">
         <v>2.142857142857143</v>
@@ -18317,7 +18317,7 @@
         <v>0.6073232323232324</v>
       </c>
       <c r="K126" t="n">
-        <v>0.6509486017579393</v>
+        <v>0.65094860175794</v>
       </c>
       <c r="L126" t="n">
         <v>1.6470588235294117</v>
@@ -18446,7 +18446,7 @@
         <v>0.4897959183673469</v>
       </c>
       <c r="K127" t="n">
-        <v>0.7149242141069745</v>
+        <v>0.7149242141069748</v>
       </c>
       <c r="L127" t="n">
         <v>1.9047619047619047</v>
@@ -18575,7 +18575,7 @@
         <v>0.5684826100338565</v>
       </c>
       <c r="K128" t="n">
-        <v>0.7155827599682933</v>
+        <v>0.715582759968292</v>
       </c>
       <c r="L128" t="n">
         <v>2.875</v>
@@ -18962,7 +18962,7 @@
         <v>0.45524691358024694</v>
       </c>
       <c r="K131" t="n">
-        <v>0.4956351539101176</v>
+        <v>0.4956351539101178</v>
       </c>
       <c r="L131" t="n">
         <v>3.5714285714285716</v>
@@ -19091,7 +19091,7 @@
         <v>0.4012345679012346</v>
       </c>
       <c r="K132" t="n">
-        <v>0.5706662038348005</v>
+        <v>0.5706662038348007</v>
       </c>
       <c r="L132" t="n">
         <v>1.2857142857142858</v>
@@ -19220,7 +19220,7 @@
         <v>0.540495867768595</v>
       </c>
       <c r="K133" t="n">
-        <v>0.5879745215473362</v>
+        <v>0.5879745215473359</v>
       </c>
       <c r="L133" t="n">
         <v>1.619047619047619</v>
@@ -19349,7 +19349,7 @@
         <v>0.4723809523809524</v>
       </c>
       <c r="K134" t="n">
-        <v>0.6599352246598524</v>
+        <v>0.6599352246598527</v>
       </c>
       <c r="L134" t="n">
         <v>1.763157894736842</v>
@@ -19478,7 +19478,7 @@
         <v>0.7229199372056515</v>
       </c>
       <c r="K135" t="n">
-        <v>0.7085449778358618</v>
+        <v>0.7085449778358615</v>
       </c>
       <c r="L135" t="n">
         <v>3.2708333333333335</v>
@@ -19607,7 +19607,7 @@
         <v>0.5890151515151515</v>
       </c>
       <c r="K136" t="n">
-        <v>0.7090782071298446</v>
+        <v>0.7090782071298439</v>
       </c>
       <c r="L136" t="n">
         <v>1.5517241379310345</v>
@@ -19736,7 +19736,7 @@
         <v>0.4948559670781894</v>
       </c>
       <c r="K137" t="n">
-        <v>0.4520344088773759</v>
+        <v>0.45203440887737634</v>
       </c>
       <c r="L137" t="n">
         <v>2.0</v>
@@ -19865,7 +19865,7 @@
         <v>0.49074074074074076</v>
       </c>
       <c r="K138" t="n">
-        <v>0.47115065052188554</v>
+        <v>0.47115065052188576</v>
       </c>
       <c r="L138" t="n">
         <v>2.0</v>
@@ -19986,7 +19986,7 @@
         <v>0.566984126984127</v>
       </c>
       <c r="K139" t="n">
-        <v>0.7320303925267772</v>
+        <v>0.7320303925267773</v>
       </c>
       <c r="L139" t="n">
         <v>3.1666666666666665</v>
@@ -20115,7 +20115,7 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="K140" t="n">
-        <v>0.6781292256774815</v>
+        <v>0.6781292256774814</v>
       </c>
       <c r="L140" t="n">
         <v>3.130434782608696</v>
@@ -20631,7 +20631,7 @@
         <v>0.5820707070707071</v>
       </c>
       <c r="K144" t="n">
-        <v>0.6749707165392148</v>
+        <v>0.6749707165392149</v>
       </c>
       <c r="L144" t="n">
         <v>2.4</v>
@@ -20760,7 +20760,7 @@
         <v>0.4447731755424063</v>
       </c>
       <c r="K145" t="n">
-        <v>0.6906559137776301</v>
+        <v>0.69065591377763</v>
       </c>
       <c r="L145" t="n">
         <v>2.2051282051282053</v>
@@ -20889,7 +20889,7 @@
         <v>1.0</v>
       </c>
       <c r="K146" t="n">
-        <v>0.7683375209644603</v>
+        <v>0.7683375209644601</v>
       </c>
       <c r="L146" t="n">
         <v>2.793103448275862</v>
@@ -21014,7 +21014,7 @@
         <v>0.5901041666666667</v>
       </c>
       <c r="K147" t="n">
-        <v>0.587546851229668</v>
+        <v>0.5875468512296671</v>
       </c>
       <c r="L147" t="n">
         <v>3.3137254901960786</v>
@@ -21143,7 +21143,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K148" t="n">
-        <v>0.5876751203535704</v>
+        <v>0.5876751203535703</v>
       </c>
       <c r="L148" t="n">
         <v>1.619047619047619</v>
@@ -21401,7 +21401,7 @@
         <v>0.4660493827160494</v>
       </c>
       <c r="K150" t="n">
-        <v>0.5348559786120487</v>
+        <v>0.5348559786120481</v>
       </c>
       <c r="L150" t="n">
         <v>1.3571428571428572</v>
@@ -21659,7 +21659,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="K152" t="n">
-        <v>0.6268519134342816</v>
+        <v>0.6268519134342824</v>
       </c>
       <c r="L152" t="n">
         <v>3.0344827586206895</v>
@@ -21788,7 +21788,7 @@
         <v>0.6115702479338843</v>
       </c>
       <c r="K153" t="n">
-        <v>0.6415878375918008</v>
+        <v>0.6415878375918005</v>
       </c>
       <c r="L153" t="n">
         <v>3.413793103448276</v>
@@ -21917,7 +21917,7 @@
         <v>0.8148148148148148</v>
       </c>
       <c r="K154" t="n">
-        <v>0.6624524600823033</v>
+        <v>0.662452460082303</v>
       </c>
       <c r="L154" t="n">
         <v>1.5757575757575757</v>
@@ -22042,7 +22042,7 @@
         <v>0.5700757575757576</v>
       </c>
       <c r="K155" t="n">
-        <v>0.6520856219376469</v>
+        <v>0.6520856219376466</v>
       </c>
       <c r="L155" t="n">
         <v>3.21875</v>
@@ -22298,7 +22298,7 @@
         <v>0.5044191919191919</v>
       </c>
       <c r="K157" t="n">
-        <v>0.6427389230910838</v>
+        <v>0.6427389230910836</v>
       </c>
       <c r="L157" t="n">
         <v>2.1538461538461537</v>
@@ -22427,7 +22427,7 @@
         <v>0.5488888888888889</v>
       </c>
       <c r="K158" t="n">
-        <v>0.6371126306987881</v>
+        <v>0.6371126306987885</v>
       </c>
       <c r="L158" t="n">
         <v>2.25</v>
@@ -22556,7 +22556,7 @@
         <v>0.5170454545454546</v>
       </c>
       <c r="K159" t="n">
-        <v>0.5975282977967518</v>
+        <v>0.597528297796752</v>
       </c>
       <c r="L159" t="n">
         <v>3.5294117647058822</v>
@@ -22685,7 +22685,7 @@
         <v>0.46055226824457596</v>
       </c>
       <c r="K160" t="n">
-        <v>0.5603887884237561</v>
+        <v>0.5603887884237557</v>
       </c>
       <c r="L160" t="n">
         <v>1.6388888888888888</v>
@@ -22814,7 +22814,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K161" t="n">
-        <v>0.5876751203535708</v>
+        <v>0.5876751203535706</v>
       </c>
       <c r="L161" t="n">
         <v>1.4</v>
@@ -22943,7 +22943,7 @@
         <v>0.5997474747474747</v>
       </c>
       <c r="K162" t="n">
-        <v>0.7263315264302915</v>
+        <v>0.7263315264302913</v>
       </c>
       <c r="L162" t="n">
         <v>2.3461538461538463</v>
@@ -23072,7 +23072,7 @@
         <v>0.39173553719008264</v>
       </c>
       <c r="K163" t="n">
-        <v>0.6383479422507056</v>
+        <v>0.6383479422507065</v>
       </c>
       <c r="L163" t="n">
         <v>2.933333333333333</v>
@@ -23201,7 +23201,7 @@
         <v>0.5867768595041323</v>
       </c>
       <c r="K164" t="n">
-        <v>0.6644869838125746</v>
+        <v>0.6644869838125749</v>
       </c>
       <c r="L164" t="n">
         <v>1.5806451612903225</v>
@@ -23330,7 +23330,7 @@
         <v>0.3256883885345424</v>
       </c>
       <c r="K165" t="n">
-        <v>0.6427897696765306</v>
+        <v>0.6427897696765309</v>
       </c>
       <c r="L165" t="n">
         <v>4.3446808510638295</v>
@@ -23588,7 +23588,7 @@
         <v>0.5694444444444444</v>
       </c>
       <c r="K167" t="n">
-        <v>0.7295283117584027</v>
+        <v>0.7295283117584023</v>
       </c>
       <c r="L167" t="n">
         <v>1.8636363636363635</v>
@@ -23717,7 +23717,7 @@
         <v>0.44666666666666666</v>
       </c>
       <c r="K168" t="n">
-        <v>0.5138798723099929</v>
+        <v>0.5138798723099931</v>
       </c>
       <c r="L168" t="n">
         <v>1.72</v>
@@ -23846,7 +23846,7 @@
         <v>0.5069444444444444</v>
       </c>
       <c r="K169" t="n">
-        <v>0.6272376357723487</v>
+        <v>0.6272376357723488</v>
       </c>
       <c r="L169" t="n">
         <v>3.111111111111111</v>
@@ -23975,7 +23975,7 @@
         <v>0.6055226824457594</v>
       </c>
       <c r="K170" t="n">
-        <v>0.7672855417890355</v>
+        <v>0.7672855417890349</v>
       </c>
       <c r="L170" t="n">
         <v>1.8611111111111112</v>
@@ -24104,7 +24104,7 @@
         <v>0.37037037037037035</v>
       </c>
       <c r="K171" t="n">
-        <v>0.43324632030046994</v>
+        <v>0.4332463203004697</v>
       </c>
       <c r="L171" t="n">
         <v>2.1578947368421053</v>
@@ -24231,7 +24231,7 @@
         <v>0.3541273299443234</v>
       </c>
       <c r="K172" t="n">
-        <v>0.5429630923949839</v>
+        <v>0.5429630923949836</v>
       </c>
       <c r="L172" t="n">
         <v>4.90990990990991</v>
@@ -24360,7 +24360,7 @@
         <v>0.5453648915187377</v>
       </c>
       <c r="K173" t="n">
-        <v>0.6833458460264664</v>
+        <v>0.6833458460264666</v>
       </c>
       <c r="L173" t="n">
         <v>1.125</v>
@@ -24489,7 +24489,7 @@
         <v>0.5448232323232324</v>
       </c>
       <c r="K174" t="n">
-        <v>0.6113783877660207</v>
+        <v>0.611378387766022</v>
       </c>
       <c r="L174" t="n">
         <v>1.105263157894737</v>
@@ -24618,7 +24618,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K175" t="n">
-        <v>0.5876751203535702</v>
+        <v>0.5876751203535705</v>
       </c>
       <c r="L175" t="n">
         <v>3.1904761904761907</v>
@@ -24747,7 +24747,7 @@
         <v>0.5820707070707071</v>
       </c>
       <c r="K176" t="n">
-        <v>0.6749707165392148</v>
+        <v>0.6749707165392151</v>
       </c>
       <c r="L176" t="n">
         <v>2.5</v>
@@ -24876,7 +24876,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="K177" t="n">
-        <v>0.5497246451155329</v>
+        <v>0.5497246451155321</v>
       </c>
       <c r="L177" t="n">
         <v>1.1875</v>
@@ -25005,7 +25005,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K178" t="n">
-        <v>0.7503994041344021</v>
+        <v>0.7503994041344022</v>
       </c>
       <c r="L178" t="n">
         <v>3.8666666666666667</v>
@@ -25134,7 +25134,7 @@
         <v>0.5542929292929293</v>
       </c>
       <c r="K179" t="n">
-        <v>0.7437212953676032</v>
+        <v>0.7437212953676028</v>
       </c>
       <c r="L179" t="n">
         <v>1.8518518518518519</v>
@@ -25263,7 +25263,7 @@
         <v>0.6893491124260355</v>
       </c>
       <c r="K180" t="n">
-        <v>0.7726232323304819</v>
+        <v>0.7726232323304821</v>
       </c>
       <c r="L180" t="n">
         <v>1.434782608695652</v>
@@ -25392,7 +25392,7 @@
         <v>0.595679012345679</v>
       </c>
       <c r="K181" t="n">
-        <v>0.653685529929022</v>
+        <v>0.6536855299290221</v>
       </c>
       <c r="L181" t="n">
         <v>1.4375</v>
@@ -25521,7 +25521,7 @@
         <v>0.5069033530571992</v>
       </c>
       <c r="K182" t="n">
-        <v>0.624755678968446</v>
+        <v>0.6247556789684461</v>
       </c>
       <c r="L182" t="n">
         <v>3.36</v>
@@ -25650,7 +25650,7 @@
         <v>0.6214876033057851</v>
       </c>
       <c r="K183" t="n">
-        <v>0.6848446400614066</v>
+        <v>0.6848446400614068</v>
       </c>
       <c r="L183" t="n">
         <v>1.4210526315789473</v>
@@ -25779,7 +25779,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K184" t="n">
-        <v>0.5876751203535704</v>
+        <v>0.5876751203535705</v>
       </c>
       <c r="L184" t="n">
         <v>1.6470588235294117</v>
@@ -25908,7 +25908,7 @@
         <v>0.5640625</v>
       </c>
       <c r="K185" t="n">
-        <v>0.8081356852470568</v>
+        <v>0.8081356852470569</v>
       </c>
       <c r="L185" t="n">
         <v>1.7906976744186047</v>
@@ -26037,7 +26037,7 @@
         <v>0.5498737373737373</v>
       </c>
       <c r="K186" t="n">
-        <v>0.5921570582603478</v>
+        <v>0.592157058260348</v>
       </c>
       <c r="L186" t="n">
         <v>1.6153846153846154</v>
@@ -26166,7 +26166,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K187" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535707</v>
       </c>
       <c r="L187" t="n">
         <v>2.25</v>
@@ -26295,7 +26295,7 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="K188" t="n">
-        <v>0.6781292256774811</v>
+        <v>0.6781292256774812</v>
       </c>
       <c r="L188" t="n">
         <v>2.206896551724138</v>
@@ -26424,7 +26424,7 @@
         <v>0.4012698412698413</v>
       </c>
       <c r="K189" t="n">
-        <v>0.5183013813232814</v>
+        <v>0.5183013813232813</v>
       </c>
       <c r="L189" t="n">
         <v>3.3714285714285714</v>
@@ -26553,7 +26553,7 @@
         <v>0.5378787878787878</v>
       </c>
       <c r="K190" t="n">
-        <v>0.5855959513156896</v>
+        <v>0.5855959513156898</v>
       </c>
       <c r="L190" t="n">
         <v>3.033333333333333</v>
@@ -26682,7 +26682,7 @@
         <v>0.5669421487603306</v>
       </c>
       <c r="K191" t="n">
-        <v>0.6516486685308228</v>
+        <v>0.6516486685308231</v>
       </c>
       <c r="L191" t="n">
         <v>3.3421052631578947</v>
@@ -26811,7 +26811,7 @@
         <v>0.601010101010101</v>
       </c>
       <c r="K192" t="n">
-        <v>0.5962224495910052</v>
+        <v>0.5962224495910051</v>
       </c>
       <c r="L192" t="n">
         <v>1.6785714285714286</v>
@@ -26940,7 +26940,7 @@
         <v>0.7000726216412491</v>
       </c>
       <c r="K193" t="n">
-        <v>0.7917764071627924</v>
+        <v>0.7917764071627922</v>
       </c>
       <c r="L193" t="n">
         <v>1.9411764705882353</v>
@@ -27069,7 +27069,7 @@
         <v>0.547008547008547</v>
       </c>
       <c r="K194" t="n">
-        <v>0.639987379191295</v>
+        <v>0.6399873791912948</v>
       </c>
       <c r="L194" t="n">
         <v>6.049180327868853</v>
@@ -27198,7 +27198,7 @@
         <v>0.6291913214990138</v>
       </c>
       <c r="K195" t="n">
-        <v>0.6176761724687975</v>
+        <v>0.617676172468797</v>
       </c>
       <c r="L195" t="n">
         <v>1.95</v>
@@ -27327,7 +27327,7 @@
         <v>0.628099173553719</v>
       </c>
       <c r="K196" t="n">
-        <v>0.6204496518746369</v>
+        <v>0.620449651874637</v>
       </c>
       <c r="L196" t="n">
         <v>1.9</v>
@@ -27456,7 +27456,7 @@
         <v>0.523989898989899</v>
       </c>
       <c r="K197" t="n">
-        <v>0.5979708817508215</v>
+        <v>0.5979708817508217</v>
       </c>
       <c r="L197" t="n">
         <v>2.64</v>
@@ -27585,7 +27585,7 @@
         <v>0.6264462809917355</v>
       </c>
       <c r="K198" t="n">
-        <v>0.681310669990703</v>
+        <v>0.6813106699907029</v>
       </c>
       <c r="L198" t="n">
         <v>1.631578947368421</v>
@@ -27712,7 +27712,7 @@
         <v>0.5138888888888888</v>
       </c>
       <c r="K199" t="n">
-        <v>0.5802094782772227</v>
+        <v>0.5802094782772229</v>
       </c>
       <c r="L199" t="n">
         <v>1.7857142857142858</v>
@@ -27841,7 +27841,7 @@
         <v>0.48484848484848486</v>
       </c>
       <c r="K200" t="n">
-        <v>0.5462159949252696</v>
+        <v>0.5462159949252695</v>
       </c>
       <c r="L200" t="n">
         <v>3.2413793103448274</v>
@@ -27970,7 +27970,7 @@
         <v>0.6733333333333333</v>
       </c>
       <c r="K201" t="n">
-        <v>0.6189101001411753</v>
+        <v>0.6189101001411755</v>
       </c>
       <c r="L201" t="n">
         <v>3.5</v>
@@ -28099,7 +28099,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K202" t="n">
-        <v>0.5876751203535706</v>
+        <v>0.5876751203535704</v>
       </c>
       <c r="L202" t="n">
         <v>2.0</v>
@@ -28228,7 +28228,7 @@
         <v>0.595679012345679</v>
       </c>
       <c r="K203" t="n">
-        <v>0.6536855299290221</v>
+        <v>0.6536855299290223</v>
       </c>
       <c r="L203" t="n">
         <v>1.5</v>
@@ -28357,7 +28357,7 @@
         <v>0.5621301775147929</v>
       </c>
       <c r="K204" t="n">
-        <v>0.6111111111111114</v>
+        <v>0.6111111111111113</v>
       </c>
       <c r="L204" t="n">
         <v>2.0</v>
@@ -28615,7 +28615,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K206" t="n">
-        <v>0.7503994041344022</v>
+        <v>0.7503994041344021</v>
       </c>
       <c r="L206" t="n">
         <v>1.6</v>
@@ -28744,7 +28744,7 @@
         <v>0.48226643598615915</v>
       </c>
       <c r="K207" t="n">
-        <v>0.6684156331758153</v>
+        <v>0.6684156331758155</v>
       </c>
       <c r="L207" t="n">
         <v>1.7272727272727273</v>
@@ -28873,7 +28873,7 @@
         <v>0.6224747474747475</v>
       </c>
       <c r="K208" t="n">
-        <v>0.6337679448704802</v>
+        <v>0.6337679448704804</v>
       </c>
       <c r="L208" t="n">
         <v>1.6153846153846154</v>
@@ -29002,7 +29002,7 @@
         <v>0.6837121212121212</v>
       </c>
       <c r="K209" t="n">
-        <v>0.653163381795098</v>
+        <v>0.6531633817950978</v>
       </c>
       <c r="L209" t="n">
         <v>1.5238095238095237</v>
@@ -29131,7 +29131,7 @@
         <v>0.52465483234714</v>
       </c>
       <c r="K210" t="n">
-        <v>0.7002847398183255</v>
+        <v>0.7002847398183253</v>
       </c>
       <c r="L210" t="n">
         <v>1.793103448275862</v>
@@ -29260,7 +29260,7 @@
         <v>0.37247474747474746</v>
       </c>
       <c r="K211" t="n">
-        <v>0.5839069883267829</v>
+        <v>0.5839069883267833</v>
       </c>
       <c r="L211" t="n">
         <v>1.7727272727272727</v>
@@ -29389,7 +29389,7 @@
         <v>0.5738636363636364</v>
       </c>
       <c r="K212" t="n">
-        <v>0.608472649456382</v>
+        <v>0.6084726494563826</v>
       </c>
       <c r="L212" t="n">
         <v>1.4090909090909092</v>
@@ -29518,7 +29518,7 @@
         <v>0.6942800788954635</v>
       </c>
       <c r="K213" t="n">
-        <v>0.7798570058713881</v>
+        <v>0.7798570058713882</v>
       </c>
       <c r="L213" t="n">
         <v>2.03125</v>
@@ -29647,7 +29647,7 @@
         <v>0.8037475345167653</v>
       </c>
       <c r="K214" t="n">
-        <v>0.79874466429495</v>
+        <v>0.7987446642949502</v>
       </c>
       <c r="L214" t="n">
         <v>1.6486486486486487</v>
@@ -29776,7 +29776,7 @@
         <v>0.5959595959595959</v>
       </c>
       <c r="K215" t="n">
-        <v>0.6266586338335363</v>
+        <v>0.626658633833537</v>
       </c>
       <c r="L215" t="n">
         <v>1.7941176470588236</v>
@@ -29897,7 +29897,7 @@
         <v>0.706828885400314</v>
       </c>
       <c r="K216" t="n">
-        <v>0.7465589852152265</v>
+        <v>0.7465589852152266</v>
       </c>
       <c r="L216" t="n">
         <v>2.71875</v>
@@ -30026,7 +30026,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K217" t="n">
-        <v>0.7503994041344021</v>
+        <v>0.7503994041344022</v>
       </c>
       <c r="L217" t="n">
         <v>1.8181818181818181</v>
@@ -30155,7 +30155,7 @@
         <v>0.5256198347107438</v>
       </c>
       <c r="K218" t="n">
-        <v>0.6551138098567636</v>
+        <v>0.6551138098567634</v>
       </c>
       <c r="L218" t="n">
         <v>1.1428571428571428</v>
@@ -30284,7 +30284,7 @@
         <v>0.5505050505050505</v>
       </c>
       <c r="K219" t="n">
-        <v>0.49933254646610725</v>
+        <v>0.499332546466107</v>
       </c>
       <c r="L219" t="n">
         <v>4.206896551724138</v>

--- a/Analyses/main study/outputs/01_dataPreperation/final/networkIndicators_pre_final.xlsx
+++ b/Analyses/main study/outputs/01_dataPreperation/final/networkIndicators_pre_final.xlsx
@@ -2323,7 +2323,7 @@
         <v>0.5540657439446367</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6639416425497979</v>
+        <v>0.6639416425497986</v>
       </c>
       <c r="L2" t="n">
         <v>2.5</v>
@@ -2452,7 +2452,7 @@
         <v>0.5549242424242424</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6239337138699432</v>
+        <v>0.6239337138699433</v>
       </c>
       <c r="L3" t="n">
         <v>1.4137931034482758</v>
@@ -2581,7 +2581,7 @@
         <v>0.41983471074380163</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5123849057548828</v>
+        <v>0.5123849057548834</v>
       </c>
       <c r="L4" t="n">
         <v>5.5</v>
@@ -2710,7 +2710,7 @@
         <v>0.571969696969697</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5689883197538614</v>
+        <v>0.5689883197538609</v>
       </c>
       <c r="L5" t="n">
         <v>1.6956521739130435</v>
@@ -2839,7 +2839,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5876751203535703</v>
+        <v>0.5876751203535704</v>
       </c>
       <c r="L6" t="n">
         <v>1.0</v>
@@ -2968,7 +2968,7 @@
         <v>0.6932</v>
       </c>
       <c r="K7" t="n">
-        <v>0.787978168483174</v>
+        <v>0.7879781684831743</v>
       </c>
       <c r="L7" t="n">
         <v>1.7567567567567568</v>
@@ -3097,7 +3097,7 @@
         <v>0.48422090729783035</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5240781715789958</v>
+        <v>0.5240781715789963</v>
       </c>
       <c r="L8" t="n">
         <v>3.0526315789473686</v>
@@ -3226,7 +3226,7 @@
         <v>0.5157790927021696</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6716332265208821</v>
+        <v>0.6716332265208823</v>
       </c>
       <c r="L9" t="n">
         <v>1.6071428571428572</v>
@@ -3484,7 +3484,7 @@
         <v>0.5444444444444444</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5463907883734856</v>
+        <v>0.5463907883734859</v>
       </c>
       <c r="L11" t="n">
         <v>1.75</v>
@@ -3613,7 +3613,7 @@
         <v>0.39551357733175924</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5831410357625653</v>
+        <v>0.5831410357625652</v>
       </c>
       <c r="L12" t="n">
         <v>1.8333333333333333</v>
@@ -3742,7 +3742,7 @@
         <v>0.6045364891518737</v>
       </c>
       <c r="K13" t="n">
-        <v>0.708918457967715</v>
+        <v>0.7089184579677154</v>
       </c>
       <c r="L13" t="n">
         <v>3.3125</v>
@@ -3871,7 +3871,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7503994041344025</v>
+        <v>0.7503994041344022</v>
       </c>
       <c r="L14" t="n">
         <v>2.5416666666666665</v>
@@ -4000,7 +4000,7 @@
         <v>0.5957613814756672</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6485997359573067</v>
+        <v>0.6485997359573065</v>
       </c>
       <c r="L15" t="n">
         <v>2.3793103448275863</v>
@@ -4129,7 +4129,7 @@
         <v>0.5088757396449705</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6666137163722708</v>
+        <v>0.6666137163722711</v>
       </c>
       <c r="L16" t="n">
         <v>1.380952380952381</v>
@@ -4516,7 +4516,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6589640700188715</v>
+        <v>0.658964070018871</v>
       </c>
       <c r="L19" t="n">
         <v>1.4545454545454546</v>
@@ -4645,7 +4645,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7503994041344022</v>
+        <v>0.7503994041344021</v>
       </c>
       <c r="L20" t="n">
         <v>1.5</v>
@@ -4903,7 +4903,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5876751203535708</v>
+        <v>0.5876751203535705</v>
       </c>
       <c r="L22" t="n">
         <v>1.5</v>
@@ -5161,7 +5161,7 @@
         <v>0.47603305785123967</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5698561812512465</v>
+        <v>0.5698561812512467</v>
       </c>
       <c r="L24" t="n">
         <v>2.1379310344827585</v>
@@ -5290,7 +5290,7 @@
         <v>0.5505050505050505</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6969774225128945</v>
+        <v>0.6969774225128946</v>
       </c>
       <c r="L25" t="n">
         <v>2.3333333333333335</v>
@@ -5548,7 +5548,7 @@
         <v>0.4780319535221496</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7790594869655472</v>
+        <v>0.7790594869655475</v>
       </c>
       <c r="L27" t="n">
         <v>1.3548387096774193</v>
@@ -5806,7 +5806,7 @@
         <v>0.5955555555555555</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6557866581553321</v>
+        <v>0.6557866581553322</v>
       </c>
       <c r="L29" t="n">
         <v>1.3846153846153846</v>
@@ -5935,7 +5935,7 @@
         <v>0.6883830455259027</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7670059672747958</v>
+        <v>0.7670059672747956</v>
       </c>
       <c r="L30" t="n">
         <v>1.4615384615384615</v>
@@ -6064,7 +6064,7 @@
         <v>0.5669191919191919</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6860648098775032</v>
+        <v>0.686064809877503</v>
       </c>
       <c r="L31" t="n">
         <v>1.619047619047619</v>
@@ -6193,7 +6193,7 @@
         <v>0.540495867768595</v>
       </c>
       <c r="K32" t="n">
-        <v>0.5879745215473361</v>
+        <v>0.5879745215473362</v>
       </c>
       <c r="L32" t="n">
         <v>1.6521739130434783</v>
@@ -6322,7 +6322,7 @@
         <v>0.5642105263157895</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7344728262044616</v>
+        <v>0.7344728262044615</v>
       </c>
       <c r="L33" t="n">
         <v>2.0821917808219177</v>
@@ -6451,7 +6451,7 @@
         <v>0.31630892255892257</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5537677899801899</v>
+        <v>0.5537677899801898</v>
       </c>
       <c r="L34" t="n">
         <v>7.02970297029703</v>
@@ -6580,7 +6580,7 @@
         <v>0.6743079584775087</v>
       </c>
       <c r="K35" t="n">
-        <v>0.7165282052231972</v>
+        <v>0.7165282052231966</v>
       </c>
       <c r="L35" t="n">
         <v>3.311111111111111</v>
@@ -6709,7 +6709,7 @@
         <v>0.5707166179755971</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7706074640207377</v>
+        <v>0.7706074640207391</v>
       </c>
       <c r="L36" t="n">
         <v>1.7878787878787878</v>
@@ -6838,7 +6838,7 @@
         <v>0.5149136577708007</v>
       </c>
       <c r="K37" t="n">
-        <v>0.6151762894188574</v>
+        <v>0.6151762894188576</v>
       </c>
       <c r="L37" t="n">
         <v>1.434782608695652</v>
@@ -6967,7 +6967,7 @@
         <v>0.48148148148148145</v>
       </c>
       <c r="K38" t="n">
-        <v>0.5275444087384662</v>
+        <v>0.5275444087384663</v>
       </c>
       <c r="L38" t="n">
         <v>1.3</v>
@@ -7096,7 +7096,7 @@
         <v>0.7247474747474747</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7092774324386935</v>
+        <v>0.7092774324386931</v>
       </c>
       <c r="L39" t="n">
         <v>2.8947368421052633</v>
@@ -7354,7 +7354,7 @@
         <v>0.5119825708061002</v>
       </c>
       <c r="K41" t="n">
-        <v>0.6982375941135748</v>
+        <v>0.6982375941135744</v>
       </c>
       <c r="L41" t="n">
         <v>1.8387096774193548</v>
@@ -7483,7 +7483,7 @@
         <v>0.5688888888888889</v>
       </c>
       <c r="K42" t="n">
-        <v>0.6680090650144587</v>
+        <v>0.6680090650144586</v>
       </c>
       <c r="L42" t="n">
         <v>2.1875</v>
@@ -7612,7 +7612,7 @@
         <v>0.15222222222222223</v>
       </c>
       <c r="K43" t="n">
-        <v>0.3600236491383178</v>
+        <v>0.3600236491383181</v>
       </c>
       <c r="L43" t="n">
         <v>3.688888888888889</v>
@@ -7741,7 +7741,7 @@
         <v>0.6679292929292929</v>
       </c>
       <c r="K44" t="n">
-        <v>0.7292701713218203</v>
+        <v>0.7292701713218204</v>
       </c>
       <c r="L44" t="n">
         <v>1.2777777777777777</v>
@@ -7870,7 +7870,7 @@
         <v>0.5305785123966942</v>
       </c>
       <c r="K45" t="n">
-        <v>0.6239577903951072</v>
+        <v>0.623957790395107</v>
       </c>
       <c r="L45" t="n">
         <v>4.086956521739131</v>
@@ -7999,7 +7999,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535704</v>
       </c>
       <c r="L46" t="n">
         <v>1.8823529411764706</v>
@@ -8128,7 +8128,7 @@
         <v>0.6232741617357002</v>
       </c>
       <c r="K47" t="n">
-        <v>0.7124784733822335</v>
+        <v>0.7124784733822332</v>
       </c>
       <c r="L47" t="n">
         <v>1.4090909090909092</v>
@@ -8257,7 +8257,7 @@
         <v>0.4740973312401884</v>
       </c>
       <c r="K48" t="n">
-        <v>0.6105152539206347</v>
+        <v>0.6105152539206348</v>
       </c>
       <c r="L48" t="n">
         <v>3.0588235294117645</v>
@@ -8386,7 +8386,7 @@
         <v>0.5542406311637081</v>
       </c>
       <c r="K49" t="n">
-        <v>0.5814868443938438</v>
+        <v>0.5814868443938439</v>
       </c>
       <c r="L49" t="n">
         <v>2.6666666666666665</v>
@@ -8644,7 +8644,7 @@
         <v>0.3952020202020202</v>
       </c>
       <c r="K51" t="n">
-        <v>0.6741270607693659</v>
+        <v>0.6741270607693666</v>
       </c>
       <c r="L51" t="n">
         <v>2.840909090909091</v>
@@ -8902,7 +8902,7 @@
         <v>0.41179496489953993</v>
       </c>
       <c r="K53" t="n">
-        <v>0.6884792154861873</v>
+        <v>0.6884792154861872</v>
       </c>
       <c r="L53" t="n">
         <v>3.073394495412844</v>
@@ -9031,7 +9031,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K54" t="n">
-        <v>0.7503994041344025</v>
+        <v>0.7503994041344022</v>
       </c>
       <c r="L54" t="n">
         <v>2.0833333333333335</v>
@@ -9160,7 +9160,7 @@
         <v>0.3685950413223141</v>
       </c>
       <c r="K55" t="n">
-        <v>0.4663492795201865</v>
+        <v>0.4663492795201867</v>
       </c>
       <c r="L55" t="n">
         <v>3.4074074074074074</v>
@@ -9289,7 +9289,7 @@
         <v>0.48444444444444446</v>
       </c>
       <c r="K56" t="n">
-        <v>0.5361560968173985</v>
+        <v>0.5361560968173988</v>
       </c>
       <c r="L56" t="n">
         <v>4.0</v>
@@ -9418,7 +9418,7 @@
         <v>0.5207100591715976</v>
       </c>
       <c r="K57" t="n">
-        <v>0.7319858598225935</v>
+        <v>0.7319858598225931</v>
       </c>
       <c r="L57" t="n">
         <v>1.4705882352941178</v>
@@ -9676,7 +9676,7 @@
         <v>0.5444444444444444</v>
       </c>
       <c r="K59" t="n">
-        <v>0.5463907883734855</v>
+        <v>0.5463907883734858</v>
       </c>
       <c r="L59" t="n">
         <v>2.6666666666666665</v>
@@ -9805,7 +9805,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K60" t="n">
-        <v>0.7503994041344023</v>
+        <v>0.7503994041344022</v>
       </c>
       <c r="L60" t="n">
         <v>3.2142857142857144</v>
@@ -10063,7 +10063,7 @@
         <v>0.47008547008547</v>
       </c>
       <c r="K62" t="n">
-        <v>0.6940693357949076</v>
+        <v>0.6940693357949077</v>
       </c>
       <c r="L62" t="n">
         <v>1.6</v>
@@ -10192,7 +10192,7 @@
         <v>0.5631313131313131</v>
       </c>
       <c r="K63" t="n">
-        <v>0.6715310873992878</v>
+        <v>0.6715310873992881</v>
       </c>
       <c r="L63" t="n">
         <v>1.7142857142857142</v>
@@ -10321,7 +10321,7 @@
         <v>0.41792929292929293</v>
       </c>
       <c r="K64" t="n">
-        <v>0.50119246234378</v>
+        <v>0.5011924623437802</v>
       </c>
       <c r="L64" t="n">
         <v>2.05</v>
@@ -10450,7 +10450,7 @@
         <v>0.6711111111111111</v>
       </c>
       <c r="K65" t="n">
-        <v>0.7291671489030339</v>
+        <v>0.729167148903034</v>
       </c>
       <c r="L65" t="n">
         <v>2.1</v>
@@ -10579,7 +10579,7 @@
         <v>0.6654040404040404</v>
       </c>
       <c r="K66" t="n">
-        <v>0.763546956747961</v>
+        <v>0.7635469567479611</v>
       </c>
       <c r="L66" t="n">
         <v>2.8275862068965516</v>
@@ -10837,7 +10837,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K68" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535704</v>
       </c>
       <c r="L68" t="n">
         <v>1.8235294117647058</v>
@@ -10966,7 +10966,7 @@
         <v>0.5443786982248521</v>
       </c>
       <c r="K69" t="n">
-        <v>0.5941641498719122</v>
+        <v>0.5941641498719118</v>
       </c>
       <c r="L69" t="n">
         <v>1.4285714285714286</v>
@@ -11095,7 +11095,7 @@
         <v>0.6088888888888889</v>
       </c>
       <c r="K70" t="n">
-        <v>0.6533878071413061</v>
+        <v>0.6533878071413058</v>
       </c>
       <c r="L70" t="n">
         <v>1.1666666666666667</v>
@@ -11482,7 +11482,7 @@
         <v>0.6607495069033531</v>
       </c>
       <c r="K73" t="n">
-        <v>0.6834720486951739</v>
+        <v>0.6834720486951733</v>
       </c>
       <c r="L73" t="n">
         <v>1.6956521739130435</v>
@@ -11611,7 +11611,7 @@
         <v>0.5309343434343434</v>
       </c>
       <c r="K74" t="n">
-        <v>0.6724191809139021</v>
+        <v>0.6724191809139004</v>
       </c>
       <c r="L74" t="n">
         <v>3.2790697674418605</v>
@@ -11740,7 +11740,7 @@
         <v>0.5151515151515151</v>
       </c>
       <c r="K75" t="n">
-        <v>0.720434854423316</v>
+        <v>0.7204348544233162</v>
       </c>
       <c r="L75" t="n">
         <v>3.217391304347826</v>
@@ -11869,7 +11869,7 @@
         <v>0.6016528925619835</v>
       </c>
       <c r="K76" t="n">
-        <v>0.6070742359959979</v>
+        <v>0.6070742359959975</v>
       </c>
       <c r="L76" t="n">
         <v>3.6285714285714286</v>
@@ -11998,7 +11998,7 @@
         <v>0.5568181818181818</v>
       </c>
       <c r="K77" t="n">
-        <v>0.7348667266172743</v>
+        <v>0.7348667266172739</v>
       </c>
       <c r="L77" t="n">
         <v>3.5357142857142856</v>
@@ -12127,7 +12127,7 @@
         <v>0.583044982698962</v>
       </c>
       <c r="K78" t="n">
-        <v>0.6977956124795643</v>
+        <v>0.6977956124795661</v>
       </c>
       <c r="L78" t="n">
         <v>2.4146341463414633</v>
@@ -12256,7 +12256,7 @@
         <v>0.5871271585557299</v>
       </c>
       <c r="K79" t="n">
-        <v>0.6122818944340562</v>
+        <v>0.6122818944340567</v>
       </c>
       <c r="L79" t="n">
         <v>1.5666666666666667</v>
@@ -12385,7 +12385,7 @@
         <v>0.540495867768595</v>
       </c>
       <c r="K80" t="n">
-        <v>0.7194489972394087</v>
+        <v>0.7194489972394089</v>
       </c>
       <c r="L80" t="n">
         <v>1.4210526315789473</v>
@@ -12514,7 +12514,7 @@
         <v>0.6578125</v>
       </c>
       <c r="K81" t="n">
-        <v>0.6947587760390116</v>
+        <v>0.694758776039011</v>
       </c>
       <c r="L81" t="n">
         <v>1.32</v>
@@ -12772,7 +12772,7 @@
         <v>0.5871212121212122</v>
       </c>
       <c r="K83" t="n">
-        <v>0.6409540843727309</v>
+        <v>0.64095408437273</v>
       </c>
       <c r="L83" t="n">
         <v>1.588235294117647</v>
@@ -12901,7 +12901,7 @@
         <v>0.5542929292929293</v>
       </c>
       <c r="K84" t="n">
-        <v>0.6310514720678654</v>
+        <v>0.6310514720678655</v>
       </c>
       <c r="L84" t="n">
         <v>2.5283018867924527</v>
@@ -13030,7 +13030,7 @@
         <v>0.6029040404040404</v>
       </c>
       <c r="K85" t="n">
-        <v>0.6568956134016284</v>
+        <v>0.6568956134016282</v>
       </c>
       <c r="L85" t="n">
         <v>1.8461538461538463</v>
@@ -13159,7 +13159,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K86" t="n">
-        <v>0.5876751203535706</v>
+        <v>0.5876751203535701</v>
       </c>
       <c r="L86" t="n">
         <v>2.8</v>
@@ -13288,7 +13288,7 @@
         <v>0.30871212121212116</v>
       </c>
       <c r="K87" t="n">
-        <v>0.4965133057051359</v>
+        <v>0.4965133057051354</v>
       </c>
       <c r="L87" t="n">
         <v>4.52054794520548</v>
@@ -13417,7 +13417,7 @@
         <v>0.5831517792302106</v>
       </c>
       <c r="K88" t="n">
-        <v>0.7367093233042641</v>
+        <v>0.7367093233042639</v>
       </c>
       <c r="L88" t="n">
         <v>2.381818181818182</v>
@@ -13546,7 +13546,7 @@
         <v>0.4768445839874411</v>
       </c>
       <c r="K89" t="n">
-        <v>0.6412873504122637</v>
+        <v>0.641287350412264</v>
       </c>
       <c r="L89" t="n">
         <v>3.5</v>
@@ -13675,7 +13675,7 @@
         <v>0.6445707070707071</v>
       </c>
       <c r="K90" t="n">
-        <v>0.5602897572581594</v>
+        <v>0.5602897572581601</v>
       </c>
       <c r="L90" t="n">
         <v>2.62</v>
@@ -13933,7 +13933,7 @@
         <v>0.30793650793650795</v>
       </c>
       <c r="K92" t="n">
-        <v>0.5133587615283307</v>
+        <v>0.5133587615283304</v>
       </c>
       <c r="L92" t="n">
         <v>2.6444444444444444</v>
@@ -14062,7 +14062,7 @@
         <v>0.6243686868686869</v>
       </c>
       <c r="K93" t="n">
-        <v>0.6884015413443001</v>
+        <v>0.6884015413442997</v>
       </c>
       <c r="L93" t="n">
         <v>1.6571428571428573</v>
@@ -14191,7 +14191,7 @@
         <v>0.6201888162672476</v>
       </c>
       <c r="K94" t="n">
-        <v>0.803500082837949</v>
+        <v>0.8035000828379488</v>
       </c>
       <c r="L94" t="n">
         <v>3.0434782608695654</v>
@@ -14320,7 +14320,7 @@
         <v>0.7460753532182104</v>
       </c>
       <c r="K95" t="n">
-        <v>0.7659900814231757</v>
+        <v>0.7659900814231756</v>
       </c>
       <c r="L95" t="n">
         <v>3.4</v>
@@ -14449,7 +14449,7 @@
         <v>0.3851010101010101</v>
       </c>
       <c r="K96" t="n">
-        <v>0.6367668552836966</v>
+        <v>0.6367668552836967</v>
       </c>
       <c r="L96" t="n">
         <v>1.8333333333333333</v>
@@ -14578,7 +14578,7 @@
         <v>0.5388540031397174</v>
       </c>
       <c r="K97" t="n">
-        <v>0.6698156988970378</v>
+        <v>0.6698156988970374</v>
       </c>
       <c r="L97" t="n">
         <v>2.0833333333333335</v>
@@ -14707,7 +14707,7 @@
         <v>0.4431818181818182</v>
       </c>
       <c r="K98" t="n">
-        <v>0.7366277355810049</v>
+        <v>0.7366277355810056</v>
       </c>
       <c r="L98" t="n">
         <v>3.3333333333333335</v>
@@ -14836,7 +14836,7 @@
         <v>0.523989898989899</v>
       </c>
       <c r="K99" t="n">
-        <v>0.7333452858146043</v>
+        <v>0.7333452858146049</v>
       </c>
       <c r="L99" t="n">
         <v>1.6206896551724137</v>
@@ -14965,7 +14965,7 @@
         <v>0.46111111111111114</v>
       </c>
       <c r="K100" t="n">
-        <v>0.5780234735063567</v>
+        <v>0.5780234735063565</v>
       </c>
       <c r="L100" t="n">
         <v>1.608695652173913</v>
@@ -15223,7 +15223,7 @@
         <v>0.32007575757575757</v>
       </c>
       <c r="K102" t="n">
-        <v>0.557533100051812</v>
+        <v>0.5575331000518124</v>
       </c>
       <c r="L102" t="n">
         <v>2.3157894736842106</v>
@@ -15352,7 +15352,7 @@
         <v>0.5950413223140496</v>
       </c>
       <c r="K103" t="n">
-        <v>0.7636558774525602</v>
+        <v>0.7636558774525609</v>
       </c>
       <c r="L103" t="n">
         <v>1.9545454545454546</v>
@@ -15610,7 +15610,7 @@
         <v>0.44427001569858715</v>
       </c>
       <c r="K105" t="n">
-        <v>0.6286245873483656</v>
+        <v>0.6286245873483658</v>
       </c>
       <c r="L105" t="n">
         <v>2.9302325581395348</v>
@@ -15737,7 +15737,7 @@
         <v>0.45523809523809516</v>
       </c>
       <c r="K106" t="n">
-        <v>0.6740935269973216</v>
+        <v>0.6740935269973215</v>
       </c>
       <c r="L106" t="n">
         <v>2.6444444444444444</v>
@@ -15866,7 +15866,7 @@
         <v>0.5321969696969697</v>
       </c>
       <c r="K107" t="n">
-        <v>0.7051532762746361</v>
+        <v>0.7051532762746363</v>
       </c>
       <c r="L107" t="n">
         <v>1.6857142857142857</v>
@@ -15995,7 +15995,7 @@
         <v>0.586031746031746</v>
       </c>
       <c r="K108" t="n">
-        <v>0.6841071345587559</v>
+        <v>0.684107134558756</v>
       </c>
       <c r="L108" t="n">
         <v>4.219298245614035</v>
@@ -16124,7 +16124,7 @@
         <v>0.5119949494949495</v>
       </c>
       <c r="K109" t="n">
-        <v>0.6635512895573338</v>
+        <v>0.6635512895573341</v>
       </c>
       <c r="L109" t="n">
         <v>1.5757575757575757</v>
@@ -16253,7 +16253,7 @@
         <v>0.63510101010101</v>
       </c>
       <c r="K110" t="n">
-        <v>0.7523172964895063</v>
+        <v>0.7523172964895064</v>
       </c>
       <c r="L110" t="n">
         <v>3.142857142857143</v>
@@ -16382,7 +16382,7 @@
         <v>0.4696969696969697</v>
       </c>
       <c r="K111" t="n">
-        <v>0.6496922600715604</v>
+        <v>0.6496922600715602</v>
       </c>
       <c r="L111" t="n">
         <v>2.4242424242424243</v>
@@ -16511,7 +16511,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K112" t="n">
-        <v>0.5876751203535706</v>
+        <v>0.5876751203535707</v>
       </c>
       <c r="L112" t="n">
         <v>1.52</v>
@@ -16640,7 +16640,7 @@
         <v>0.42003367003367</v>
       </c>
       <c r="K113" t="n">
-        <v>0.5586914518729814</v>
+        <v>0.5586914518729812</v>
       </c>
       <c r="L113" t="n">
         <v>2.1846153846153844</v>
@@ -16769,7 +16769,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K114" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535707</v>
       </c>
       <c r="L114" t="n">
         <v>2.8</v>
@@ -16898,7 +16898,7 @@
         <v>0.63510101010101</v>
       </c>
       <c r="K115" t="n">
-        <v>0.762349321973478</v>
+        <v>0.7623493219734786</v>
       </c>
       <c r="L115" t="n">
         <v>1.9333333333333333</v>
@@ -17027,7 +17027,7 @@
         <v>0.6742424242424242</v>
       </c>
       <c r="K116" t="n">
-        <v>0.5739699008713615</v>
+        <v>0.5739699008713613</v>
       </c>
       <c r="L116" t="n">
         <v>2.4</v>
@@ -17156,7 +17156,7 @@
         <v>0.32407407407407407</v>
       </c>
       <c r="K117" t="n">
-        <v>0.4609477527835929</v>
+        <v>0.4609477527835928</v>
       </c>
       <c r="L117" t="n">
         <v>1.4444444444444444</v>
@@ -17285,7 +17285,7 @@
         <v>0.523989898989899</v>
       </c>
       <c r="K118" t="n">
-        <v>0.7146893795229591</v>
+        <v>0.7146893795229594</v>
       </c>
       <c r="L118" t="n">
         <v>2.3846153846153846</v>
@@ -17672,7 +17672,7 @@
         <v>0.5641025641025641</v>
       </c>
       <c r="K121" t="n">
-        <v>0.6452581025770651</v>
+        <v>0.6452581025770672</v>
       </c>
       <c r="L121" t="n">
         <v>2.6</v>
@@ -17801,7 +17801,7 @@
         <v>0.5849867724867724</v>
       </c>
       <c r="K122" t="n">
-        <v>0.7551377062685432</v>
+        <v>0.7551377062685424</v>
       </c>
       <c r="L122" t="n">
         <v>2.061224489795918</v>
@@ -17930,7 +17930,7 @@
         <v>0.5422222222222223</v>
       </c>
       <c r="K123" t="n">
-        <v>0.6381119018901549</v>
+        <v>0.6381119018901547</v>
       </c>
       <c r="L123" t="n">
         <v>2.142857142857143</v>
@@ -18059,7 +18059,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K124" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535706</v>
       </c>
       <c r="L124" t="n">
         <v>1.5714285714285714</v>
@@ -18317,7 +18317,7 @@
         <v>0.6073232323232324</v>
       </c>
       <c r="K126" t="n">
-        <v>0.65094860175794</v>
+        <v>0.6509486017579392</v>
       </c>
       <c r="L126" t="n">
         <v>1.6470588235294117</v>
@@ -18446,7 +18446,7 @@
         <v>0.4897959183673469</v>
       </c>
       <c r="K127" t="n">
-        <v>0.7149242141069748</v>
+        <v>0.7149242141069744</v>
       </c>
       <c r="L127" t="n">
         <v>1.9047619047619047</v>
@@ -18575,7 +18575,7 @@
         <v>0.5684826100338565</v>
       </c>
       <c r="K128" t="n">
-        <v>0.715582759968292</v>
+        <v>0.715582759968293</v>
       </c>
       <c r="L128" t="n">
         <v>2.875</v>
@@ -18704,7 +18704,7 @@
         <v>0.7268244575936884</v>
       </c>
       <c r="K129" t="n">
-        <v>0.7829550888228454</v>
+        <v>0.7829550888228457</v>
       </c>
       <c r="L129" t="n">
         <v>1.6285714285714286</v>
@@ -18833,7 +18833,7 @@
         <v>0.25570586820586816</v>
       </c>
       <c r="K130" t="n">
-        <v>0.3337674828751597</v>
+        <v>0.33376748287515956</v>
       </c>
       <c r="L130" t="n">
         <v>2.517857142857143</v>
@@ -18962,7 +18962,7 @@
         <v>0.45524691358024694</v>
       </c>
       <c r="K131" t="n">
-        <v>0.4956351539101178</v>
+        <v>0.4956351539101176</v>
       </c>
       <c r="L131" t="n">
         <v>3.5714285714285716</v>
@@ -19091,7 +19091,7 @@
         <v>0.4012345679012346</v>
       </c>
       <c r="K132" t="n">
-        <v>0.5706662038348007</v>
+        <v>0.5706662038348008</v>
       </c>
       <c r="L132" t="n">
         <v>1.2857142857142858</v>
@@ -19220,7 +19220,7 @@
         <v>0.540495867768595</v>
       </c>
       <c r="K133" t="n">
-        <v>0.5879745215473359</v>
+        <v>0.587974521547336</v>
       </c>
       <c r="L133" t="n">
         <v>1.619047619047619</v>
@@ -19349,7 +19349,7 @@
         <v>0.4723809523809524</v>
       </c>
       <c r="K134" t="n">
-        <v>0.6599352246598527</v>
+        <v>0.6599352246598528</v>
       </c>
       <c r="L134" t="n">
         <v>1.763157894736842</v>
@@ -19478,7 +19478,7 @@
         <v>0.7229199372056515</v>
       </c>
       <c r="K135" t="n">
-        <v>0.7085449778358615</v>
+        <v>0.7085449778358617</v>
       </c>
       <c r="L135" t="n">
         <v>3.2708333333333335</v>
@@ -19736,7 +19736,7 @@
         <v>0.4948559670781894</v>
       </c>
       <c r="K137" t="n">
-        <v>0.45203440887737634</v>
+        <v>0.4520344088773762</v>
       </c>
       <c r="L137" t="n">
         <v>2.0</v>
@@ -19865,7 +19865,7 @@
         <v>0.49074074074074076</v>
       </c>
       <c r="K138" t="n">
-        <v>0.47115065052188576</v>
+        <v>0.471150650521886</v>
       </c>
       <c r="L138" t="n">
         <v>2.0</v>
@@ -20115,7 +20115,7 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="K140" t="n">
-        <v>0.6781292256774814</v>
+        <v>0.678129225677481</v>
       </c>
       <c r="L140" t="n">
         <v>3.130434782608696</v>
@@ -20244,7 +20244,7 @@
         <v>0.44002525252525254</v>
       </c>
       <c r="K141" t="n">
-        <v>0.6316313081674269</v>
+        <v>0.6316313081674267</v>
       </c>
       <c r="L141" t="n">
         <v>2.257142857142857</v>
@@ -20502,7 +20502,7 @@
         <v>0.5738636363636364</v>
       </c>
       <c r="K143" t="n">
-        <v>0.608472649456382</v>
+        <v>0.6084726494563821</v>
       </c>
       <c r="L143" t="n">
         <v>1.4</v>
@@ -20631,7 +20631,7 @@
         <v>0.5820707070707071</v>
       </c>
       <c r="K144" t="n">
-        <v>0.6749707165392149</v>
+        <v>0.674970716539215</v>
       </c>
       <c r="L144" t="n">
         <v>2.4</v>
@@ -20760,7 +20760,7 @@
         <v>0.4447731755424063</v>
       </c>
       <c r="K145" t="n">
-        <v>0.69065591377763</v>
+        <v>0.6906559137776304</v>
       </c>
       <c r="L145" t="n">
         <v>2.2051282051282053</v>
@@ -20889,7 +20889,7 @@
         <v>1.0</v>
       </c>
       <c r="K146" t="n">
-        <v>0.7683375209644601</v>
+        <v>0.7683375209644598</v>
       </c>
       <c r="L146" t="n">
         <v>2.793103448275862</v>
@@ -21014,7 +21014,7 @@
         <v>0.5901041666666667</v>
       </c>
       <c r="K147" t="n">
-        <v>0.5875468512296671</v>
+        <v>0.5875468512296674</v>
       </c>
       <c r="L147" t="n">
         <v>3.3137254901960786</v>
@@ -21272,7 +21272,7 @@
         <v>0.5039246467817896</v>
       </c>
       <c r="K149" t="n">
-        <v>0.6575429501898366</v>
+        <v>0.6575429501898363</v>
       </c>
       <c r="L149" t="n">
         <v>3.15</v>
@@ -21659,7 +21659,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="K152" t="n">
-        <v>0.6268519134342824</v>
+        <v>0.6268519134342819</v>
       </c>
       <c r="L152" t="n">
         <v>3.0344827586206895</v>
@@ -21788,7 +21788,7 @@
         <v>0.6115702479338843</v>
       </c>
       <c r="K153" t="n">
-        <v>0.6415878375918005</v>
+        <v>0.6415878375918009</v>
       </c>
       <c r="L153" t="n">
         <v>3.413793103448276</v>
@@ -21917,7 +21917,7 @@
         <v>0.8148148148148148</v>
       </c>
       <c r="K154" t="n">
-        <v>0.662452460082303</v>
+        <v>0.6624524600823032</v>
       </c>
       <c r="L154" t="n">
         <v>1.5757575757575757</v>
@@ -22042,7 +22042,7 @@
         <v>0.5700757575757576</v>
       </c>
       <c r="K155" t="n">
-        <v>0.6520856219376466</v>
+        <v>0.6520856219376469</v>
       </c>
       <c r="L155" t="n">
         <v>3.21875</v>
@@ -22169,7 +22169,7 @@
         <v>0.7209595959595959</v>
       </c>
       <c r="K156" t="n">
-        <v>0.7539578260896124</v>
+        <v>0.7539578260896126</v>
       </c>
       <c r="L156" t="n">
         <v>2.375</v>
@@ -22298,7 +22298,7 @@
         <v>0.5044191919191919</v>
       </c>
       <c r="K157" t="n">
-        <v>0.6427389230910836</v>
+        <v>0.6427389230910838</v>
       </c>
       <c r="L157" t="n">
         <v>2.1538461538461537</v>
@@ -22427,7 +22427,7 @@
         <v>0.5488888888888889</v>
       </c>
       <c r="K158" t="n">
-        <v>0.6371126306987885</v>
+        <v>0.6371126306987887</v>
       </c>
       <c r="L158" t="n">
         <v>2.25</v>
@@ -22556,7 +22556,7 @@
         <v>0.5170454545454546</v>
       </c>
       <c r="K159" t="n">
-        <v>0.597528297796752</v>
+        <v>0.5975282977967518</v>
       </c>
       <c r="L159" t="n">
         <v>3.5294117647058822</v>
@@ -22685,7 +22685,7 @@
         <v>0.46055226824457596</v>
       </c>
       <c r="K160" t="n">
-        <v>0.5603887884237557</v>
+        <v>0.5603887884237561</v>
       </c>
       <c r="L160" t="n">
         <v>1.6388888888888888</v>
@@ -22814,7 +22814,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K161" t="n">
-        <v>0.5876751203535706</v>
+        <v>0.5876751203535698</v>
       </c>
       <c r="L161" t="n">
         <v>1.4</v>
@@ -22943,7 +22943,7 @@
         <v>0.5997474747474747</v>
       </c>
       <c r="K162" t="n">
-        <v>0.7263315264302913</v>
+        <v>0.7263315264302916</v>
       </c>
       <c r="L162" t="n">
         <v>2.3461538461538463</v>
@@ -23072,7 +23072,7 @@
         <v>0.39173553719008264</v>
       </c>
       <c r="K163" t="n">
-        <v>0.6383479422507065</v>
+        <v>0.638347942250706</v>
       </c>
       <c r="L163" t="n">
         <v>2.933333333333333</v>
@@ -23330,7 +23330,7 @@
         <v>0.3256883885345424</v>
       </c>
       <c r="K165" t="n">
-        <v>0.6427897696765309</v>
+        <v>0.6427897696765311</v>
       </c>
       <c r="L165" t="n">
         <v>4.3446808510638295</v>
@@ -23717,7 +23717,7 @@
         <v>0.44666666666666666</v>
       </c>
       <c r="K168" t="n">
-        <v>0.5138798723099931</v>
+        <v>0.5138798723099927</v>
       </c>
       <c r="L168" t="n">
         <v>1.72</v>
@@ -23846,7 +23846,7 @@
         <v>0.5069444444444444</v>
       </c>
       <c r="K169" t="n">
-        <v>0.6272376357723488</v>
+        <v>0.6272376357723485</v>
       </c>
       <c r="L169" t="n">
         <v>3.111111111111111</v>
@@ -23975,7 +23975,7 @@
         <v>0.6055226824457594</v>
       </c>
       <c r="K170" t="n">
-        <v>0.7672855417890349</v>
+        <v>0.7672855417890352</v>
       </c>
       <c r="L170" t="n">
         <v>1.8611111111111112</v>
@@ -24104,7 +24104,7 @@
         <v>0.37037037037037035</v>
       </c>
       <c r="K171" t="n">
-        <v>0.4332463203004697</v>
+        <v>0.43324632030046983</v>
       </c>
       <c r="L171" t="n">
         <v>2.1578947368421053</v>
@@ -24360,7 +24360,7 @@
         <v>0.5453648915187377</v>
       </c>
       <c r="K173" t="n">
-        <v>0.6833458460264666</v>
+        <v>0.6833458460264668</v>
       </c>
       <c r="L173" t="n">
         <v>1.125</v>
@@ -24489,7 +24489,7 @@
         <v>0.5448232323232324</v>
       </c>
       <c r="K174" t="n">
-        <v>0.611378387766022</v>
+        <v>0.6113783877660199</v>
       </c>
       <c r="L174" t="n">
         <v>1.105263157894737</v>
@@ -24618,7 +24618,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K175" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535702</v>
       </c>
       <c r="L175" t="n">
         <v>3.1904761904761907</v>
@@ -24876,7 +24876,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="K177" t="n">
-        <v>0.5497246451155321</v>
+        <v>0.5497246451155324</v>
       </c>
       <c r="L177" t="n">
         <v>1.1875</v>
@@ -25134,7 +25134,7 @@
         <v>0.5542929292929293</v>
       </c>
       <c r="K179" t="n">
-        <v>0.7437212953676028</v>
+        <v>0.7437212953676027</v>
       </c>
       <c r="L179" t="n">
         <v>1.8518518518518519</v>
@@ -25263,7 +25263,7 @@
         <v>0.6893491124260355</v>
       </c>
       <c r="K180" t="n">
-        <v>0.7726232323304821</v>
+        <v>0.7726232323304822</v>
       </c>
       <c r="L180" t="n">
         <v>1.434782608695652</v>
@@ -25392,7 +25392,7 @@
         <v>0.595679012345679</v>
       </c>
       <c r="K181" t="n">
-        <v>0.6536855299290221</v>
+        <v>0.653685529929022</v>
       </c>
       <c r="L181" t="n">
         <v>1.4375</v>
@@ -25521,7 +25521,7 @@
         <v>0.5069033530571992</v>
       </c>
       <c r="K182" t="n">
-        <v>0.6247556789684461</v>
+        <v>0.6247556789684465</v>
       </c>
       <c r="L182" t="n">
         <v>3.36</v>
@@ -25650,7 +25650,7 @@
         <v>0.6214876033057851</v>
       </c>
       <c r="K183" t="n">
-        <v>0.6848446400614068</v>
+        <v>0.6848446400614064</v>
       </c>
       <c r="L183" t="n">
         <v>1.4210526315789473</v>
@@ -25908,7 +25908,7 @@
         <v>0.5640625</v>
       </c>
       <c r="K185" t="n">
-        <v>0.8081356852470569</v>
+        <v>0.8081356852470564</v>
       </c>
       <c r="L185" t="n">
         <v>1.7906976744186047</v>
@@ -26037,7 +26037,7 @@
         <v>0.5498737373737373</v>
       </c>
       <c r="K186" t="n">
-        <v>0.592157058260348</v>
+        <v>0.5921570582603478</v>
       </c>
       <c r="L186" t="n">
         <v>1.6153846153846154</v>
@@ -26166,7 +26166,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K187" t="n">
-        <v>0.5876751203535707</v>
+        <v>0.5876751203535702</v>
       </c>
       <c r="L187" t="n">
         <v>2.25</v>
@@ -26424,7 +26424,7 @@
         <v>0.4012698412698413</v>
       </c>
       <c r="K189" t="n">
-        <v>0.5183013813232813</v>
+        <v>0.5183013813232814</v>
       </c>
       <c r="L189" t="n">
         <v>3.3714285714285714</v>
@@ -26553,7 +26553,7 @@
         <v>0.5378787878787878</v>
       </c>
       <c r="K190" t="n">
-        <v>0.5855959513156898</v>
+        <v>0.5855959513156896</v>
       </c>
       <c r="L190" t="n">
         <v>3.033333333333333</v>
@@ -26682,7 +26682,7 @@
         <v>0.5669421487603306</v>
       </c>
       <c r="K191" t="n">
-        <v>0.6516486685308231</v>
+        <v>0.6516486685308228</v>
       </c>
       <c r="L191" t="n">
         <v>3.3421052631578947</v>
@@ -26811,7 +26811,7 @@
         <v>0.601010101010101</v>
       </c>
       <c r="K192" t="n">
-        <v>0.5962224495910051</v>
+        <v>0.596222449591005</v>
       </c>
       <c r="L192" t="n">
         <v>1.6785714285714286</v>
@@ -26940,7 +26940,7 @@
         <v>0.7000726216412491</v>
       </c>
       <c r="K193" t="n">
-        <v>0.7917764071627922</v>
+        <v>0.7917764071627923</v>
       </c>
       <c r="L193" t="n">
         <v>1.9411764705882353</v>
@@ -27198,7 +27198,7 @@
         <v>0.6291913214990138</v>
       </c>
       <c r="K195" t="n">
-        <v>0.617676172468797</v>
+        <v>0.6176761724687969</v>
       </c>
       <c r="L195" t="n">
         <v>1.95</v>
@@ -27327,7 +27327,7 @@
         <v>0.628099173553719</v>
       </c>
       <c r="K196" t="n">
-        <v>0.620449651874637</v>
+        <v>0.6204496518746374</v>
       </c>
       <c r="L196" t="n">
         <v>1.9</v>
@@ -27456,7 +27456,7 @@
         <v>0.523989898989899</v>
       </c>
       <c r="K197" t="n">
-        <v>0.5979708817508217</v>
+        <v>0.5979708817508218</v>
       </c>
       <c r="L197" t="n">
         <v>2.64</v>
@@ -27585,7 +27585,7 @@
         <v>0.6264462809917355</v>
       </c>
       <c r="K198" t="n">
-        <v>0.6813106699907029</v>
+        <v>0.6813106699907032</v>
       </c>
       <c r="L198" t="n">
         <v>1.631578947368421</v>
@@ -27712,7 +27712,7 @@
         <v>0.5138888888888888</v>
       </c>
       <c r="K199" t="n">
-        <v>0.5802094782772229</v>
+        <v>0.580209478277223</v>
       </c>
       <c r="L199" t="n">
         <v>1.7857142857142858</v>
@@ -27841,7 +27841,7 @@
         <v>0.48484848484848486</v>
       </c>
       <c r="K200" t="n">
-        <v>0.5462159949252695</v>
+        <v>0.5462159949252697</v>
       </c>
       <c r="L200" t="n">
         <v>3.2413793103448274</v>
@@ -28099,7 +28099,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K202" t="n">
-        <v>0.5876751203535704</v>
+        <v>0.5876751203535708</v>
       </c>
       <c r="L202" t="n">
         <v>2.0</v>
@@ -28228,7 +28228,7 @@
         <v>0.595679012345679</v>
       </c>
       <c r="K203" t="n">
-        <v>0.6536855299290223</v>
+        <v>0.6536855299290221</v>
       </c>
       <c r="L203" t="n">
         <v>1.5</v>
@@ -28486,7 +28486,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K205" t="n">
-        <v>0.5876751203535706</v>
+        <v>0.5876751203535707</v>
       </c>
       <c r="L205" t="n">
         <v>1.5714285714285714</v>
@@ -28615,7 +28615,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K206" t="n">
-        <v>0.7503994041344021</v>
+        <v>0.7503994041344022</v>
       </c>
       <c r="L206" t="n">
         <v>1.6</v>
@@ -28744,7 +28744,7 @@
         <v>0.48226643598615915</v>
       </c>
       <c r="K207" t="n">
-        <v>0.6684156331758155</v>
+        <v>0.6684156331758153</v>
       </c>
       <c r="L207" t="n">
         <v>1.7272727272727273</v>
@@ -28873,7 +28873,7 @@
         <v>0.6224747474747475</v>
       </c>
       <c r="K208" t="n">
-        <v>0.6337679448704804</v>
+        <v>0.6337679448704807</v>
       </c>
       <c r="L208" t="n">
         <v>1.6153846153846154</v>
@@ -29002,7 +29002,7 @@
         <v>0.6837121212121212</v>
       </c>
       <c r="K209" t="n">
-        <v>0.6531633817950978</v>
+        <v>0.6531633817950979</v>
       </c>
       <c r="L209" t="n">
         <v>1.5238095238095237</v>
@@ -29131,7 +29131,7 @@
         <v>0.52465483234714</v>
       </c>
       <c r="K210" t="n">
-        <v>0.7002847398183253</v>
+        <v>0.7002847398183251</v>
       </c>
       <c r="L210" t="n">
         <v>1.793103448275862</v>
@@ -29389,7 +29389,7 @@
         <v>0.5738636363636364</v>
       </c>
       <c r="K212" t="n">
-        <v>0.6084726494563826</v>
+        <v>0.608472649456382</v>
       </c>
       <c r="L212" t="n">
         <v>1.4090909090909092</v>
@@ -29776,7 +29776,7 @@
         <v>0.5959595959595959</v>
       </c>
       <c r="K215" t="n">
-        <v>0.626658633833537</v>
+        <v>0.6266586338335369</v>
       </c>
       <c r="L215" t="n">
         <v>1.7941176470588236</v>
@@ -29897,7 +29897,7 @@
         <v>0.706828885400314</v>
       </c>
       <c r="K216" t="n">
-        <v>0.7465589852152266</v>
+        <v>0.7465589852152263</v>
       </c>
       <c r="L216" t="n">
         <v>2.71875</v>
@@ -30284,7 +30284,7 @@
         <v>0.5505050505050505</v>
       </c>
       <c r="K219" t="n">
-        <v>0.499332546466107</v>
+        <v>0.4993325464661067</v>
       </c>
       <c r="L219" t="n">
         <v>4.206896551724138</v>
